--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_356.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_356.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32416-d1139042-Reviews-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>172</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Holiday-Inn-Anaheim-Fullerton.h28133.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528684605540&amp;cancellable=false&amp;regionId=7325&amp;vip=false&amp;c=4d81970c-7b94-4734-b57c-26da411bd42c&amp;mctc=9&amp;exp_dp=149.99&amp;exp_ts=1528684606053&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_356.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_356.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2348 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r578576445-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>32416</t>
+  </si>
+  <si>
+    <t>1139042</t>
+  </si>
+  <si>
+    <t>578576445</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I stayed here with my rugby team for collegiate Final Fours. The rooms were gorgeous and spacious, the ones with Jacuzzis were great, and the breakfast was fresh and great tasting. Everyone working there was super friendly, and the whole place just made you feel like home. A great place to stay in Fullerton!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here with my rugby team for collegiate Final Fours. The rooms were gorgeous and spacious, the ones with Jacuzzis were great, and the breakfast was fresh and great tasting. Everyone working there was super friendly, and the whole place just made you feel like home. A great place to stay in Fullerton!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r572974603-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>572974603</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night and it great.  The room was clean, staff courteous and friendly.  The breakfast was good.  I would recommend this hotel for anyone going to the area.  Bar was great too.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for one night and it great.  The room was clean, staff courteous and friendly.  The breakfast was good.  I would recommend this hotel for anyone going to the area.  Bar was great too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r566187186-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>566187186</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Exceptional Holiday Inn with In-Room Jacuzzi</t>
+  </si>
+  <si>
+    <t>This Holiday Inn was a great experience! I loved the in-room jacuzzi for relaxing after a long day of work. The breakfast buffet was perfect and quite delicious. The rooms were clean and bed was very comfortable. The staff was very friendly with an easy check-in/out. Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>This Holiday Inn was a great experience! I loved the in-room jacuzzi for relaxing after a long day of work. The breakfast buffet was perfect and quite delicious. The rooms were clean and bed was very comfortable. The staff was very friendly with an easy check-in/out. Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r530577387-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>530577387</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Hotel is fine - clean, comfortable</t>
+  </si>
+  <si>
+    <t>We stayed here because friends we were meeting had a free room from the rewards program. It's located right by a highway, surrounded by a gas station, Denny's, and Mexican food restaurant. Our room was clean, comfortable and quiet, but others in our group experienced a loud party. One couple had a suite near the pool and had to move as the window was taped into place with clear tape, and the view from the room was directly into the faces or rear-ends of sunbathers! So avoid the 2nd floor near the pool. We ate breakfast at the hotel as a number of us was traveling together and it was a convenient meeting place, but expensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here because friends we were meeting had a free room from the rewards program. It's located right by a highway, surrounded by a gas station, Denny's, and Mexican food restaurant. Our room was clean, comfortable and quiet, but others in our group experienced a loud party. One couple had a suite near the pool and had to move as the window was taped into place with clear tape, and the view from the room was directly into the faces or rear-ends of sunbathers! So avoid the 2nd floor near the pool. We ate breakfast at the hotel as a number of us was traveling together and it was a convenient meeting place, but expensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r491810934-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>491810934</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>I won't be back</t>
+  </si>
+  <si>
+    <t>The lobby is welcoming and the staff member who checked me in was great. Other than that, I didn't enjoy my stay. The location was next to Dennys and there were view dining options. I was upgraded to a spa room and it had the strangest layout I've ever seen. The first thing I noticed was there were no lights in the ceiling. I'm walking around my oval shaped room and had to turn on the few lamps for light. I sat at the dining table trying to eat and work in the dark with the only light coming from outside. There were no lights in this room. It was inconvenient for a business traveler...I could see a family going to Disneyland loving it though. The internet is SLOW. Painfully slow. I had an emergency when my file crashed at 10:00pm and had to use the business office. I was able to download my file to my thumbnail drive. However, I needed a password to retrieve it. Seriously???  The staff at the desk told me I had to wait until 8 am for the manager to show up because he had the password. What is the purpose of a business center if I couldn't take care of a simple need??I couldn't leave fast enough in the morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2017</t>
+  </si>
+  <si>
+    <t>The lobby is welcoming and the staff member who checked me in was great. Other than that, I didn't enjoy my stay. The location was next to Dennys and there were view dining options. I was upgraded to a spa room and it had the strangest layout I've ever seen. The first thing I noticed was there were no lights in the ceiling. I'm walking around my oval shaped room and had to turn on the few lamps for light. I sat at the dining table trying to eat and work in the dark with the only light coming from outside. There were no lights in this room. It was inconvenient for a business traveler...I could see a family going to Disneyland loving it though. The internet is SLOW. Painfully slow. I had an emergency when my file crashed at 10:00pm and had to use the business office. I was able to download my file to my thumbnail drive. However, I needed a password to retrieve it. Seriously???  The staff at the desk told me I had to wait until 8 am for the manager to show up because he had the password. What is the purpose of a business center if I couldn't take care of a simple need??I couldn't leave fast enough in the morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r484546809-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>484546809</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Standard Holiday Inn</t>
+  </si>
+  <si>
+    <t>Stayed here couple of days. Unfortunately did not use any of the facilities. Check in was smooth and pleasant staff. Room was spacious and well laid out. No complains. Check out was good. Would rate the hotel as a standard Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here couple of days. Unfortunately did not use any of the facilities. Check in was smooth and pleasant staff. Room was spacious and well laid out. No complains. Check out was good. Would rate the hotel as a standard Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r457458818-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>457458818</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Another excellent Holiday Inn experience!</t>
+  </si>
+  <si>
+    <t>This is our second time at this location- it was Christmas eve- and once again the staff here exceeded our expectations. Jasmine at the front desk understands customer service. Milo, who worked the full service bar, truly deserves special recognition! We stayed in a Jacuzzi room (well worth it!) which was very spacious, very clean and with new fixtures and furniture. A comfortable bed with a modern mattress, large TV with plenty of channels, WiFi, microwave, fridge, hair dryer. Did I say clean and modern?  Everything you come to expect in a room these days.. ...and free coffee in the lobby area which has the on site restaurant and bar. When we are in Titan Country, this is our stay of choice!  For just under $150 a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>This is our second time at this location- it was Christmas eve- and once again the staff here exceeded our expectations. Jasmine at the front desk understands customer service. Milo, who worked the full service bar, truly deserves special recognition! We stayed in a Jacuzzi room (well worth it!) which was very spacious, very clean and with new fixtures and furniture. A comfortable bed with a modern mattress, large TV with plenty of channels, WiFi, microwave, fridge, hair dryer. Did I say clean and modern?  Everything you come to expect in a room these days.. ...and free coffee in the lobby area which has the on site restaurant and bar. When we are in Titan Country, this is our stay of choice!  For just under $150 a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r446193498-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>446193498</t>
+  </si>
+  <si>
+    <t>12/22/2016</t>
+  </si>
+  <si>
+    <t>great customer service</t>
+  </si>
+  <si>
+    <t>milo at the bar is great ...he was really attentive and great to talk to. as is the front desk host leigh. customer service at its best. parking is free and the hotel is really really central to everything. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded December 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2016</t>
+  </si>
+  <si>
+    <t>milo at the bar is great ...he was really attentive and great to talk to. as is the front desk host leigh. customer service at its best. parking is free and the hotel is really really central to everything. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r439550495-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>439550495</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>EXEEDED my expectations!</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel in a Jacuzzi suite for an anniversary.  Pros: The staff was beyond friendly, offered early check in and always addressed our needs. The room itself was spacious and very clean. The breakfast buffet was delicious with accommodating times, there was covered parking available.  The lobby was modern and very tidy. The premises were quite.  Near many kinds of eateries and late night (and all night) dining.  Small but well equipped business center. Cons: Only one (and its a minor thing); the view from the room was of parking lots for restaurants...but that's the only draw back I found.Loved this place!  Will certainly book again!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded November 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel in a Jacuzzi suite for an anniversary.  Pros: The staff was beyond friendly, offered early check in and always addressed our needs. The room itself was spacious and very clean. The breakfast buffet was delicious with accommodating times, there was covered parking available.  The lobby was modern and very tidy. The premises were quite.  Near many kinds of eateries and late night (and all night) dining.  Small but well equipped business center. Cons: Only one (and its a minor thing); the view from the room was of parking lots for restaurants...but that's the only draw back I found.Loved this place!  Will certainly book again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r411921317-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>411921317</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Bad smell from rooms</t>
+  </si>
+  <si>
+    <t>I stayed with my family from august 12 to 16 and we had reserved three rooms. Two rooms (212 and 214) on third floor smelled like sewer because they cleaned 3rd floor. We had terrible experience and would not recommend this place to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>I stayed with my family from august 12 to 16 and we had reserved three rooms. Two rooms (212 and 214) on third floor smelled like sewer because they cleaned 3rd floor. We had terrible experience and would not recommend this place to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r398105254-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>398105254</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Unexpected Value</t>
+  </si>
+  <si>
+    <t>I visit here for business about every quarter and I am always surprised at the hotel.  The rooms are large, large spa in every room I've had both the suites and the regular room. Always clean and just right.  Free breakfast, it's not gourmet but good enough to get you to work and always like fresh fruit and crispy bacon.  They really have everything you need including a nice bar and evening drink coupon.  I've had dinner there and it was really good, again not over the top just good and very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>I visit here for business about every quarter and I am always surprised at the hotel.  The rooms are large, large spa in every room I've had both the suites and the regular room. Always clean and just right.  Free breakfast, it's not gourmet but good enough to get you to work and always like fresh fruit and crispy bacon.  They really have everything you need including a nice bar and evening drink coupon.  I've had dinner there and it was really good, again not over the top just good and very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r384153717-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>384153717</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>A convenient and good place to call home when visiting Disneyland</t>
+  </si>
+  <si>
+    <t>The staff is very nice and personable and parking is free. There is breakfast in the AM and if you don't have a voucher it's only $11/ person and the food is good. There is a Denny's nearby (walking distance) if you wanted to spend less $$. There is a nice pool but shade can be a problem since there are no umbrellas. The business center works.The ride to Disneyland is about 15 minutes outside traffic hours. The rooms seem to have been recently re-vamped, they are nice. We had a room w/ a view of the 57N Freeway and there was no sound, so the sound proofing is very good. My only complaint is that the internet service was "iffy". We were there for 4 days and used multiple devices so that might have been part of the issue. I was constantly having to reconnect devices to the internet, in the AM when everyone awoke, in the PM when we returned from Disneyland, in the evening when we returned from dinner. Not a big deal but rather annoying.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>The staff is very nice and personable and parking is free. There is breakfast in the AM and if you don't have a voucher it's only $11/ person and the food is good. There is a Denny's nearby (walking distance) if you wanted to spend less $$. There is a nice pool but shade can be a problem since there are no umbrellas. The business center works.The ride to Disneyland is about 15 minutes outside traffic hours. The rooms seem to have been recently re-vamped, they are nice. We had a room w/ a view of the 57N Freeway and there was no sound, so the sound proofing is very good. My only complaint is that the internet service was "iffy". We were there for 4 days and used multiple devices so that might have been part of the issue. I was constantly having to reconnect devices to the internet, in the AM when everyone awoke, in the PM when we returned from Disneyland, in the evening when we returned from dinner. Not a big deal but rather annoying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r361179410-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>361179410</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Right off the Freeway...you wont get lost</t>
+  </si>
+  <si>
+    <t>Very impressed with the suite we had....King Bed...Living room...large bathroom with glass spotless shower....and then a big heart shaped Jacuzzi in the bathroom....Room was as clean as you can get...My only negative is the jacuzzi's safety...some type of hand grip should be installed to get in and out safely...as once in you might not be able to get out....Floor can also get very slippery...Restaurant and Bar very nice and good at the Hotel...MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Very impressed with the suite we had....King Bed...Living room...large bathroom with glass spotless shower....and then a big heart shaped Jacuzzi in the bathroom....Room was as clean as you can get...My only negative is the jacuzzi's safety...some type of hand grip should be installed to get in and out safely...as once in you might not be able to get out....Floor can also get very slippery...Restaurant and Bar very nice and good at the Hotel...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r357977297-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>357977297</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>It's not in the best of locations.  Or, maybe that's just Fullerton.  However, the hotel itself is newly remodeled and clean.  They have a small bar downstairs and a restaurant as well. The breakfast was lackluster.  Mine was free, but I wouldn't have paid for it.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r357388488-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>357388488</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>short getaway</t>
+  </si>
+  <si>
+    <t>My husband and I only live a few miles from Fullerton, but we wanted to get a away for a couple of days for our anniversary. We planned to go to Disneyland. Staying in Fullerton was much more reasonable than staying closer to Disneyland. This Holiday Inn is right next to the freeway. Front desk was friendly and had no complaints about the room. If you stay here be sure to walk next door to the strip mall and eat at Leadbelly's BBQ. Some of the best I have ever had. They are small and can be busy, but worth the wait.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I only live a few miles from Fullerton, but we wanted to get a away for a couple of days for our anniversary. We planned to go to Disneyland. Staying in Fullerton was much more reasonable than staying closer to Disneyland. This Holiday Inn is right next to the freeway. Front desk was friendly and had no complaints about the room. If you stay here be sure to walk next door to the strip mall and eat at Leadbelly's BBQ. Some of the best I have ever had. They are small and can be busy, but worth the wait.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r351555925-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>351555925</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Options..you have many! Just not at this property</t>
+  </si>
+  <si>
+    <t>There are many options within the area and I will look to another location when returning to Anaheim.  The location is just off the interstate in a Denny's/small strip mall parking lot, parking to check in can be congested.  Upon entry to the lobby it is clean and welcoming with a nice bar area and small breakfast dining area.  Check in was smooth and the management were very friendly.  The room was clean but the old style window conditioning unit needs to go.  The gym/pool area seems to be a 1980's thought in which only 1-2 people were working out at the same time, really tight for even two people and located in an outdoor rooftop atrium that communicates at times with the smokers on their balconies of their rooms.  Dining/Breakfast can occur for you and your guests at a charge, which I do not mind but the quality was typical with reconstituted eggs and microwave items.There are many other options to choose from with better locations in the area for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>There are many options within the area and I will look to another location when returning to Anaheim.  The location is just off the interstate in a Denny's/small strip mall parking lot, parking to check in can be congested.  Upon entry to the lobby it is clean and welcoming with a nice bar area and small breakfast dining area.  Check in was smooth and the management were very friendly.  The room was clean but the old style window conditioning unit needs to go.  The gym/pool area seems to be a 1980's thought in which only 1-2 people were working out at the same time, really tight for even two people and located in an outdoor rooftop atrium that communicates at times with the smokers on their balconies of their rooms.  Dining/Breakfast can occur for you and your guests at a charge, which I do not mind but the quality was typical with reconstituted eggs and microwave items.There are many other options to choose from with better locations in the area for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r347655535-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>347655535</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Clean and good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable room. Clean.  Quiet. Restaurant for breakfast said opened at 6:30am.  Well.   Kinda.  Food was out at about 6;45 and no one seemed in a hurry.  Not good for a business traveler that has a schedule.  Once the food was out it was good. I will stay there again. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r338178901-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>338178901</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>Holiday Express has larger bathrooms and $10.95 for breakfast really?</t>
+  </si>
+  <si>
+    <t>To begin...I am a travel agent and did request an agent rate which was $128...butdid not expect to be placed in a room with just a small shower and no vanity space.Blower for heat made a low noise all night.  In the morning was advised that the breakfast buffet would be $10.95 and by 9am...there was just leftover crusty eggs etcThere is a Denny's next door.  I am sorry I have stayed in nicer Holiday Inn Express.I do not feel that this should received such a high recommendation.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded January 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2016</t>
+  </si>
+  <si>
+    <t>To begin...I am a travel agent and did request an agent rate which was $128...butdid not expect to be placed in a room with just a small shower and no vanity space.Blower for heat made a low noise all night.  In the morning was advised that the breakfast buffet would be $10.95 and by 9am...there was just leftover crusty eggs etcThere is a Denny's next door.  I am sorry I have stayed in nicer Holiday Inn Express.I do not feel that this should received such a high recommendation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r322022917-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>322022917</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Very close to CSU Fullerton, Brea Mall... easy to get to!</t>
+  </si>
+  <si>
+    <t>I was in Fullerton for a conference and this hotel was offered as the one to stay in. A rather crowded lobby layout that included a restaurant, bar and not a lot of other room to network, but the hotel staff was exemplary, the room clean and the bed extraordinarily comfortable. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>I was in Fullerton for a conference and this hotel was offered as the one to stay in. A rather crowded lobby layout that included a restaurant, bar and not a lot of other room to network, but the hotel staff was exemplary, the room clean and the bed extraordinarily comfortable. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r321012357-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>321012357</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Work Week</t>
+  </si>
+  <si>
+    <t>Came out to southern California for two separate work events this past spring in Cerritos.  Only stayed in Fullerton due to a couple of closer hotel being booked... and I enjoyed my stay so much in April that I booked it again when I came out for my second week in June.  Took advantage of the complementary drinks at the restaurant downstairs most of my nights there.  Friendly staff, and they upgraded my room to a suite at no charge on my second stay.  Put the hot tub in the room to good use, as well.  Clean rooms, comfortable sleep.  And I was in the room closest to the 57, and sound from the freeway was never an issue.Nothing of note within walking distance, but college restaurants were just across the freeway around the Cal-State Fullerton campus, and there are numerous restaurants and shopping one exit north in Brea, which I took advantage of.  There were grocery stores a super quick drive away, too, that I used to stock my room for the week.Only a 10 minute drive from Disneyland, too, as I met up with some friends my last night there.  Everything I needed for a great week away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Came out to southern California for two separate work events this past spring in Cerritos.  Only stayed in Fullerton due to a couple of closer hotel being booked... and I enjoyed my stay so much in April that I booked it again when I came out for my second week in June.  Took advantage of the complementary drinks at the restaurant downstairs most of my nights there.  Friendly staff, and they upgraded my room to a suite at no charge on my second stay.  Put the hot tub in the room to good use, as well.  Clean rooms, comfortable sleep.  And I was in the room closest to the 57, and sound from the freeway was never an issue.Nothing of note within walking distance, but college restaurants were just across the freeway around the Cal-State Fullerton campus, and there are numerous restaurants and shopping one exit north in Brea, which I took advantage of.  There were grocery stores a super quick drive away, too, that I used to stock my room for the week.Only a 10 minute drive from Disneyland, too, as I met up with some friends my last night there.  Everything I needed for a great week away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r320769173-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>320769173</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>The nicest people on the planet work here!</t>
+  </si>
+  <si>
+    <t>EVERYBODY at the hotel was as nice and helpful as can be!  I commend the staff all the way around. I had a scrapbooking retreat there [20 of us] and used not only many rooms, but one of the ballrooms too.  Everything was clean, set up nicely and they periodically, discreetly checked in to see that everything was ok. The hotel rooms were quiet, food was good and all was in order.  To be fair, we had a little trouble w/ the elevator getting all our stuff up the half flight to the ballroom, but we eventually got the system down ok. We'll be back!  Did I mention how nice everybody was???MoreShow less</t>
+  </si>
+  <si>
+    <t>EVERYBODY at the hotel was as nice and helpful as can be!  I commend the staff all the way around. I had a scrapbooking retreat there [20 of us] and used not only many rooms, but one of the ballrooms too.  Everything was clean, set up nicely and they periodically, discreetly checked in to see that everything was ok. The hotel rooms were quiet, food was good and all was in order.  To be fair, we had a little trouble w/ the elevator getting all our stuff up the half flight to the ballroom, but we eventually got the system down ok. We'll be back!  Did I mention how nice everybody was???More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r300679832-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>300679832</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Great location, nice rooms.</t>
+  </si>
+  <si>
+    <t>Great location - right off the freeway and 30+ min to LA.   Rooms are clean and well kept, check in is a breeze, however parking is tricky.  There's not much parking in the lot so you have to travel up the ramp and park.  It's cooler in there anyhow.Love the bathroom decor - sleek modern granite with wood looking porcelain tile and standup shower.   We had a fancy jacuzzi tub in our room that we did not use but you could hear someone filling theirs up (think 1/2 hour of filling up a tub) and that was annoying, but hey, that's what they are there for.  You do have to climb into the tub from the bathoom door.Try the great BBQ joint across the plaza, you will be glad you did.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Great location - right off the freeway and 30+ min to LA.   Rooms are clean and well kept, check in is a breeze, however parking is tricky.  There's not much parking in the lot so you have to travel up the ramp and park.  It's cooler in there anyhow.Love the bathroom decor - sleek modern granite with wood looking porcelain tile and standup shower.   We had a fancy jacuzzi tub in our room that we did not use but you could hear someone filling theirs up (think 1/2 hour of filling up a tub) and that was annoying, but hey, that's what they are there for.  You do have to climb into the tub from the bathoom door.Try the great BBQ joint across the plaza, you will be glad you did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r299636811-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>299636811</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Thoroughly recommend !</t>
+  </si>
+  <si>
+    <t>We transferred to this hotel at the end of our vacation for a three night stay. After being unable to sleep, due to the lack of a/c in our room we were renting in someone's home, this hotel was exactly what we needed !!Large, immaculate room, complete with jacuzzi, very comfortable bed and air conditioning that worked! We also were very impressed with all staff here and the breakfast buffet had plenty of choice.As others have mentioned this hotel is next to a Denny's and a gas station.We would definitely return when next in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>We transferred to this hotel at the end of our vacation for a three night stay. After being unable to sleep, due to the lack of a/c in our room we were renting in someone's home, this hotel was exactly what we needed !!Large, immaculate room, complete with jacuzzi, very comfortable bed and air conditioning that worked! We also were very impressed with all staff here and the breakfast buffet had plenty of choice.As others have mentioned this hotel is next to a Denny's and a gas station.We would definitely return when next in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r291612351-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>291612351</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Sporting Spot!</t>
+  </si>
+  <si>
+    <t>Great location for an overnight in connection with the nearby sport centers, Angel Stadium of Anaheim (MLB's Anaheim Angels &amp; Supercross) and the Honda Center (Anaheim Ducks). Fabulous staff, Nice property and Convenient Location</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r277513183-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>277513183</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Things seem a bit screwed up here</t>
+  </si>
+  <si>
+    <t>The hotel is somewhat nice on the inside. The outside is okay. The location is squirreled in by a few chain restaurants. I won't get into the check in as I'm not clear on what the real problem was but let's just say it took a while. Upon check in the room I got had been smoked in (in a non smoking hotel)so had to go back down and get another room. That worked. The next day the iron didn't work had to call and get a new one brought up. Upon check out they couldn't give me a receipt due to the way the room was booked. I don't know but just a hassle from the beginning.  That's the last strike for me. Not staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is somewhat nice on the inside. The outside is okay. The location is squirreled in by a few chain restaurants. I won't get into the check in as I'm not clear on what the real problem was but let's just say it took a while. Upon check in the room I got had been smoked in (in a non smoking hotel)so had to go back down and get another room. That worked. The next day the iron didn't work had to call and get a new one brought up. Upon check out they couldn't give me a receipt due to the way the room was booked. I don't know but just a hassle from the beginning.  That's the last strike for me. Not staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r273854197-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>273854197</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Clean rooms, friendly staff, super comfy beds</t>
+  </si>
+  <si>
+    <t>This hotel was just perfect for our get away.  The room was huge and well laid out.  I love the bath and body works line and it was great to see they supply this line for toiletries.The bed and pillows were super comfy and the hot tub was large and very clean. We went to the lounge both nights we were there.  The friendly staff on the first night was the reason we came back on the second night.  Both the bartender and bar back were so friendly and offered suggestions on places to go that they thought we would enjoy.  Overall a great stay for our romantic get away.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was just perfect for our get away.  The room was huge and well laid out.  I love the bath and body works line and it was great to see they supply this line for toiletries.The bed and pillows were super comfy and the hot tub was large and very clean. We went to the lounge both nights we were there.  The friendly staff on the first night was the reason we came back on the second night.  Both the bartender and bar back were so friendly and offered suggestions on places to go that they thought we would enjoy.  Overall a great stay for our romantic get away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r270631694-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>270631694</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>☆☆☆☆☆</t>
+  </si>
+  <si>
+    <t>Very clean, immaculate room. Late check out at 2pm for free! Excellent breakfast buffet. Service was superior. I didn't know that if you sign up for Hilton Honors Rewards card for free, that you are offered late check out free of charge.  Also, you get special offers when you sign up. Overall, excellent experience. Will return again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Very clean, immaculate room. Late check out at 2pm for free! Excellent breakfast buffet. Service was superior. I didn't know that if you sign up for Hilton Honors Rewards card for free, that you are offered late check out free of charge.  Also, you get special offers when you sign up. Overall, excellent experience. Will return again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r255279451-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>255279451</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Very Comfortable!</t>
+  </si>
+  <si>
+    <t>My two teen/young adult kids and I stayed here for five nights in December while visiting family over Christmas.  We had a room with two queens, and it was very large.  I had requested an upper floor room, away from the elevators, and this request was honored. We looked out over the busy Southern California freeway, but we didn't hear any freeway noise. Room was very clean, and staff friendly.  We didn't eat at the hotel since we were with family during the day and evening.  I thought the winter rate was a great deal, and the only odd thing was the 2.50 parking charge. Internet was easy to access and a good connection. No complaints, and I'm rather particular about my hotel stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2015</t>
+  </si>
+  <si>
+    <t>My two teen/young adult kids and I stayed here for five nights in December while visiting family over Christmas.  We had a room with two queens, and it was very large.  I had requested an upper floor room, away from the elevators, and this request was honored. We looked out over the busy Southern California freeway, but we didn't hear any freeway noise. Room was very clean, and staff friendly.  We didn't eat at the hotel since we were with family during the day and evening.  I thought the winter rate was a great deal, and the only odd thing was the 2.50 parking charge. Internet was easy to access and a good connection. No complaints, and I'm rather particular about my hotel stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r254340804-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>254340804</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Exceeded My Expectations!</t>
+  </si>
+  <si>
+    <t>I recently had to make a last minute business trip to the Anaheim California area and selected the Holiday Inn Hotel &amp; Suites Fullerton for my stay. I was very pleased with my experience.  Everyone went out of their way to assure my stay was both comfortable and productive.  As a long-time business traveler, I return to hotels where the management and staff truly care about the guest. The team at this hotel exceeded my expectations. I would like to personally thank Dennis Monte (GM) and his team for everything they did for me.  I highly recommend the Holiday Inn Hotel &amp; Suites Fullerton and look forward to returning again on a future visit to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded February 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2015</t>
+  </si>
+  <si>
+    <t>I recently had to make a last minute business trip to the Anaheim California area and selected the Holiday Inn Hotel &amp; Suites Fullerton for my stay. I was very pleased with my experience.  Everyone went out of their way to assure my stay was both comfortable and productive.  As a long-time business traveler, I return to hotels where the management and staff truly care about the guest. The team at this hotel exceeded my expectations. I would like to personally thank Dennis Monte (GM) and his team for everything they did for me.  I highly recommend the Holiday Inn Hotel &amp; Suites Fullerton and look forward to returning again on a future visit to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r252108817-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>252108817</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel with Great Rooms</t>
+  </si>
+  <si>
+    <t>I was surprised by the one bedroom suites, very nice, spacious, comfortable, mine even had a hot tub in it. Breakfast in the morning was good with a lot of variety.I had one of the best nights sleep on my 7 day business trip.There is a modest overnight parking charge of $2.50 USD.This Platinum Ambassador would return to this Hotel at the next opportunity.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>I was surprised by the one bedroom suites, very nice, spacious, comfortable, mine even had a hot tub in it. Breakfast in the morning was good with a lot of variety.I had one of the best nights sleep on my 7 day business trip.There is a modest overnight parking charge of $2.50 USD.This Platinum Ambassador would return to this Hotel at the next opportunity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r244475310-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>244475310</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Don't Bother getting a room with a Jacuzzi</t>
+  </si>
+  <si>
+    <t>We got a room with a Jacuzzi as a reward after being on the road for a couple of days. Thought it would be relaxing. After running the water for 40 minutes the water level was just up to the bottom of the jets. That was with two of us already in the tub. After another 10 minutes we were able to turn on the jets, but by then the water had cooled off considerable. Front desk personnel were friendly and offered suggestions on places to eat. I recommend that you walk across the parking lot to Leadbelly's Southern-Style Barbecue. The food was the best part of being in Fullerton.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded December 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2014</t>
+  </si>
+  <si>
+    <t>We got a room with a Jacuzzi as a reward after being on the road for a couple of days. Thought it would be relaxing. After running the water for 40 minutes the water level was just up to the bottom of the jets. That was with two of us already in the tub. After another 10 minutes we were able to turn on the jets, but by then the water had cooled off considerable. Front desk personnel were friendly and offered suggestions on places to eat. I recommend that you walk across the parking lot to Leadbelly's Southern-Style Barbecue. The food was the best part of being in Fullerton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r242546156-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>242546156</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Clean hotel with great service!</t>
+  </si>
+  <si>
+    <t>Stayed here for a long weekend in Fullerton. Very conviently located near the freeway and CSU Fullerton. About a 15 min drive to Disneyland. The room was spacious and very clean! The food at the hotel was also good. Overall had a great experience and would stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for a long weekend in Fullerton. Very conviently located near the freeway and CSU Fullerton. About a 15 min drive to Disneyland. The room was spacious and very clean! The food at the hotel was also good. Overall had a great experience and would stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r241952251-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>241952251</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>This Hotel Was Not For Me</t>
+  </si>
+  <si>
+    <t>I wasn't all that happy with my stay at the Holiday Inn in Fullerton.  I will say the hotel was clean and updated with a very friendly staff. The rooms were spacious and the beds were very comfortable. But I stayed on the second floor and some of the rooms on the south side of the hotel (i think south) had a view of a pool which was at the same level of the room I stayed in. I didn't feel safe and I felt like someone could easily peek in the window or break in.  I realize I was just being paranoid but i didn't like it. I also didn't like the shower....the water pressure was very wimpy and the water temperature was barely warm.  I did not like being cold while showering! The toilet was down right comical. It was definitely a super flusher and each time I flushed it I would half way expect the toilet to jump off its base or the lid to fly off it was so powerful!  Obviously all the rooms had super flushers since i could hear loud and obnoxious toilets flushing all throughout the night. The parking was a complete joke especially since I had to pay a daily fee of $2.95 and there were very little spots available. The hotel shares a parking lot with other  businesses and there were signs posted everywhere stating NOT for Holiday Inn guests and...I wasn't all that happy with my stay at the Holiday Inn in Fullerton.  I will say the hotel was clean and updated with a very friendly staff. The rooms were spacious and the beds were very comfortable. But I stayed on the second floor and some of the rooms on the south side of the hotel (i think south) had a view of a pool which was at the same level of the room I stayed in. I didn't feel safe and I felt like someone could easily peek in the window or break in.  I realize I was just being paranoid but i didn't like it. I also didn't like the shower....the water pressure was very wimpy and the water temperature was barely warm.  I did not like being cold while showering! The toilet was down right comical. It was definitely a super flusher and each time I flushed it I would half way expect the toilet to jump off its base or the lid to fly off it was so powerful!  Obviously all the rooms had super flushers since i could hear loud and obnoxious toilets flushing all throughout the night. The parking was a complete joke especially since I had to pay a daily fee of $2.95 and there were very little spots available. The hotel shares a parking lot with other  businesses and there were signs posted everywhere stating NOT for Holiday Inn guests and violators will be towed. One night I had to park in the danger area of being towed.  I told the front desk and they highly recommended I come back down around 10 pm to find an approved parking space. I didn't want to get towed so I did as instructed but what a pain in the butt!!  Would I stay here again?  Probably not....lots of other choices in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>I wasn't all that happy with my stay at the Holiday Inn in Fullerton.  I will say the hotel was clean and updated with a very friendly staff. The rooms were spacious and the beds were very comfortable. But I stayed on the second floor and some of the rooms on the south side of the hotel (i think south) had a view of a pool which was at the same level of the room I stayed in. I didn't feel safe and I felt like someone could easily peek in the window or break in.  I realize I was just being paranoid but i didn't like it. I also didn't like the shower....the water pressure was very wimpy and the water temperature was barely warm.  I did not like being cold while showering! The toilet was down right comical. It was definitely a super flusher and each time I flushed it I would half way expect the toilet to jump off its base or the lid to fly off it was so powerful!  Obviously all the rooms had super flushers since i could hear loud and obnoxious toilets flushing all throughout the night. The parking was a complete joke especially since I had to pay a daily fee of $2.95 and there were very little spots available. The hotel shares a parking lot with other  businesses and there were signs posted everywhere stating NOT for Holiday Inn guests and...I wasn't all that happy with my stay at the Holiday Inn in Fullerton.  I will say the hotel was clean and updated with a very friendly staff. The rooms were spacious and the beds were very comfortable. But I stayed on the second floor and some of the rooms on the south side of the hotel (i think south) had a view of a pool which was at the same level of the room I stayed in. I didn't feel safe and I felt like someone could easily peek in the window or break in.  I realize I was just being paranoid but i didn't like it. I also didn't like the shower....the water pressure was very wimpy and the water temperature was barely warm.  I did not like being cold while showering! The toilet was down right comical. It was definitely a super flusher and each time I flushed it I would half way expect the toilet to jump off its base or the lid to fly off it was so powerful!  Obviously all the rooms had super flushers since i could hear loud and obnoxious toilets flushing all throughout the night. The parking was a complete joke especially since I had to pay a daily fee of $2.95 and there were very little spots available. The hotel shares a parking lot with other  businesses and there were signs posted everywhere stating NOT for Holiday Inn guests and violators will be towed. One night I had to park in the danger area of being towed.  I told the front desk and they highly recommended I come back down around 10 pm to find an approved parking space. I didn't want to get towed so I did as instructed but what a pain in the butt!!  Would I stay here again?  Probably not....lots of other choices in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r231928467-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>231928467</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Luxurious</t>
+  </si>
+  <si>
+    <t>Don't make a reservation on get a room.com they made a mistake and spelled our name wrong. So when we went to embassy suite. They couldn't find our reservation. It was such a hassle. It took to much of our time when we could've been relaxing in our suite. Don't use getaroom.com. Other then that embassy suite was awesome. I would stay there again. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Don't make a reservation on get a room.com they made a mistake and spelled our name wrong. So when we went to embassy suite. They couldn't find our reservation. It was such a hassle. It took to much of our time when we could've been relaxing in our suite. Don't use getaroom.com. Other then that embassy suite was awesome. I would stay there again. Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r230417601-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>230417601</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Nice Holiday Inn</t>
+  </si>
+  <si>
+    <t>A very nice Holiday Inn located only a few miles from Disneyland and other attractions. Visible from the 57 freeway but can't hear the road noise. Excellent service and friendly staff. I'm always disappointed that HI doesn't provide a free breakfast, but did have a restaurant on-site. Also, a Denny's right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>A very nice Holiday Inn located only a few miles from Disneyland and other attractions. Visible from the 57 freeway but can't hear the road noise. Excellent service and friendly staff. I'm always disappointed that HI doesn't provide a free breakfast, but did have a restaurant on-site. Also, a Denny's right next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r219724578-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>219724578</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Sold out a lot - Good services and convenience is the reason</t>
+  </si>
+  <si>
+    <t>This hotel is my "go to" hotel when in Orange County. Book early as possible. Seems they are busier than the past times I've been here. I believe the reason is their convenient location to Cal State Fullerton and the activities always going on there and close to Disneyland and other theme parks. But what I love about this hotel is the staff. Many of them have worked at this hotel for years! It makes it a "family" atmosphere. I know many other guests stay as repeat guests too as the staff will call us by name and say "welcome back!"There is always breakfast, from a menu or buffet and it's always nice &amp; convenient to have dinner at the hotel if you've had a busy day while at a theme park or sporting event.I've reviewed this hotel before, but it never disappoints and the staff deserves the Kudos!Oh, I forgot , they have the most comfortable beds of any hotel!!!!! Did I mention in-room jacuzzi in the King bed rooms?MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is my "go to" hotel when in Orange County. Book early as possible. Seems they are busier than the past times I've been here. I believe the reason is their convenient location to Cal State Fullerton and the activities always going on there and close to Disneyland and other theme parks. But what I love about this hotel is the staff. Many of them have worked at this hotel for years! It makes it a "family" atmosphere. I know many other guests stay as repeat guests too as the staff will call us by name and say "welcome back!"There is always breakfast, from a menu or buffet and it's always nice &amp; convenient to have dinner at the hotel if you've had a busy day while at a theme park or sporting event.I've reviewed this hotel before, but it never disappoints and the staff deserves the Kudos!Oh, I forgot , they have the most comfortable beds of any hotel!!!!! Did I mention in-room jacuzzi in the King bed rooms?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r211000267-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>211000267</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel, Bad restaurtant experience</t>
+  </si>
+  <si>
+    <t>The check in was very easy, we were also allowed to check in early, which is a plus. The food service at restaurant (57 bar/ grill) was very disappoint​ing . No server, only bartender available for our party of 13!!!!, mind you that we did make a reservatio​n at least 5 hours before at front desk. We waited 20 minutes before our food order was taken, needless to say that my 2 year was not happyr. A total time lapse time of 50 minutes passes by before any of us gets our food!!!, this is unacceptab​le. Worst of all, my 2 year olds mac and cheese was the last dish to come out!!, Correction​, the Caesar salad that my wife to be ordered came out last. The bartender had absolutely no manners, not even a formal greeting, very unprofessi​onal. This was suppose to be a nice family gathering before our wedding, it ended up being a huge disappointment as far as service is concerned. The hotel should have staffed accordingl​y.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded June 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2014</t>
+  </si>
+  <si>
+    <t>The check in was very easy, we were also allowed to check in early, which is a plus. The food service at restaurant (57 bar/ grill) was very disappoint​ing . No server, only bartender available for our party of 13!!!!, mind you that we did make a reservatio​n at least 5 hours before at front desk. We waited 20 minutes before our food order was taken, needless to say that my 2 year was not happyr. A total time lapse time of 50 minutes passes by before any of us gets our food!!!, this is unacceptab​le. Worst of all, my 2 year olds mac and cheese was the last dish to come out!!, Correction​, the Caesar salad that my wife to be ordered came out last. The bartender had absolutely no manners, not even a formal greeting, very unprofessi​onal. This was suppose to be a nice family gathering before our wedding, it ended up being a huge disappointment as far as service is concerned. The hotel should have staffed accordingl​y.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r208357102-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>208357102</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>great hotel, lousy, but really lousy internet</t>
+  </si>
+  <si>
+    <t>I like Holiday Inn hotels. I'm a reward club member (Gold), which means that I visited quite a number of Holiday Inn hotels. they are usually very comfortable, large rooms and the service is more than reasonable. there is one caveat though, which is a repeating theme at the Holiday Inn hotels, and this one is no exception: their internet is HORRIBLE. for some reason they call it high-topped internet connection. it is anything by speedy. it is slower that dial-in modem. it is a bit faster than total paralysis. so if you are here for the internet, you are bound to be disappointed. if you are here for the amenities and location, it is a great place to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>I like Holiday Inn hotels. I'm a reward club member (Gold), which means that I visited quite a number of Holiday Inn hotels. they are usually very comfortable, large rooms and the service is more than reasonable. there is one caveat though, which is a repeating theme at the Holiday Inn hotels, and this one is no exception: their internet is HORRIBLE. for some reason they call it high-topped internet connection. it is anything by speedy. it is slower that dial-in modem. it is a bit faster than total paralysis. so if you are here for the internet, you are bound to be disappointed. if you are here for the amenities and location, it is a great place to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r207758994-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>207758994</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Great hotel for couples!</t>
+  </si>
+  <si>
+    <t>I was hosting my daughters Quinceanera and I chose this hotel for my out of town guests.  Let me say Customer Service was great, no matter how many times I bugged the staff they were always professional and went above and beyond to meet my requests.  I was also upgraded to a Jacuzzi suite since I has so many rooms booked and let me tell you it was great.  Rooms are clean, beds are so comfy and we received the breakfast buffet the next morning and let me tell you it was great.  My whole family was very pleased with the hotel. I will definitely stay again and very soon at that!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I was hosting my daughters Quinceanera and I chose this hotel for my out of town guests.  Let me say Customer Service was great, no matter how many times I bugged the staff they were always professional and went above and beyond to meet my requests.  I was also upgraded to a Jacuzzi suite since I has so many rooms booked and let me tell you it was great.  Rooms are clean, beds are so comfy and we received the breakfast buffet the next morning and let me tell you it was great.  My whole family was very pleased with the hotel. I will definitely stay again and very soon at that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r196061048-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>196061048</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Needs To Be Honest and Train Better</t>
+  </si>
+  <si>
+    <t>So The rooms are amazing.  That is always a plus.  The hotel on the inside looks great.  On the inside my complaint was that the 3rd floor constantly smelled like pot and the guy at the front desk could care less.  The neighborhood is bad.  The website makes it sound like it is in the middle of everything.  You don't want to be in the middle of everything going on around there.  I am not saying at all you should not stay here.  I would say you should.  Just be aware of your surroundings.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded March 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2014</t>
+  </si>
+  <si>
+    <t>So The rooms are amazing.  That is always a plus.  The hotel on the inside looks great.  On the inside my complaint was that the 3rd floor constantly smelled like pot and the guy at the front desk could care less.  The neighborhood is bad.  The website makes it sound like it is in the middle of everything.  You don't want to be in the middle of everything going on around there.  I am not saying at all you should not stay here.  I would say you should.  Just be aware of your surroundings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r194511325-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>194511325</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Hotel Great staff </t>
+  </si>
+  <si>
+    <t>Not very easy to get to from LAX but that is not their problem. I suggest you fly into John Wayne airport. When I arrived at the hotel I was checked in by a wonderful staff. Room was spacious and very clean. I was in a king suite with a in room jacuzzi. Bed was very comfortable. Went Down to the bar. Small but very well stocked and great prices. Restaurant is great for breakfast with a good selection and a small buffet  I recommend this hotel to any one traveling and staying in the Fullerton area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Not very easy to get to from LAX but that is not their problem. I suggest you fly into John Wayne airport. When I arrived at the hotel I was checked in by a wonderful staff. Room was spacious and very clean. I was in a king suite with a in room jacuzzi. Bed was very comfortable. Went Down to the bar. Small but very well stocked and great prices. Restaurant is great for breakfast with a good selection and a small buffet  I recommend this hotel to any one traveling and staying in the Fullerton area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r188116360-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>188116360</t>
+  </si>
+  <si>
+    <t>12/20/2013</t>
+  </si>
+  <si>
+    <t>Hotel is OK - Restaurant and bar....not so much.</t>
+  </si>
+  <si>
+    <t>No breakfast  - "the cook didn't show up and we are trying to get the backup to come in".   No offer of compensation.   At least there is a Denny's just outside.  Bartender MIA for the first ten minutes - finally showed up and got me a beer.    Free buffet was stale pretzels and some sort of cold fried food.   Gee thanks.  Room was nice but hot water took a long time to warm up.   Jacuzzi tub for two was a nice feature.   Everything appeared clean.  The front desk staff was friendly and helpful.    Overall if you don't care about food or bar service this place is OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded December 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2013</t>
+  </si>
+  <si>
+    <t>No breakfast  - "the cook didn't show up and we are trying to get the backup to come in".   No offer of compensation.   At least there is a Denny's just outside.  Bartender MIA for the first ten minutes - finally showed up and got me a beer.    Free buffet was stale pretzels and some sort of cold fried food.   Gee thanks.  Room was nice but hot water took a long time to warm up.   Jacuzzi tub for two was a nice feature.   Everything appeared clean.  The front desk staff was friendly and helpful.    Overall if you don't care about food or bar service this place is OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r167807362-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>167807362</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>The room was large, and the beds and pillows were comfortable.   We were on the top floor as all two queen rooms are.  I do have a few complaints about this place, although none major.  They charge 2.50 a night for  parking, and you do not get a continental breakfast.  Which to me is abnormal for a Holiday Inn.  Also, the elevators are super slow.  Other then that, the hotel staff was welcoming, and the location was perfect for our trip to looking at colleges in the area.  Also, the hotel is close to Denny's for a cheap  breakfast, or late night snack.  The pool was on the second floor roof deck, and a little bit cold, but it was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2013</t>
+  </si>
+  <si>
+    <t>The room was large, and the beds and pillows were comfortable.   We were on the top floor as all two queen rooms are.  I do have a few complaints about this place, although none major.  They charge 2.50 a night for  parking, and you do not get a continental breakfast.  Which to me is abnormal for a Holiday Inn.  Also, the elevators are super slow.  Other then that, the hotel staff was welcoming, and the location was perfect for our trip to looking at colleges in the area.  Also, the hotel is close to Denny's for a cheap  breakfast, or late night snack.  The pool was on the second floor roof deck, and a little bit cold, but it was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r167536713-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>167536713</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>grouchy staff</t>
+  </si>
+  <si>
+    <t>We stayed 1 night, when I called to verify my room, girl had a bit of an attitude. I was thinking, uh oh.... Rooms were small, dirty. Air conditioning vents were very dusty. I guess to save money, they keep the air off. When we got in the room it was HOT. It took a good half hour for the room to cool down, it was horrible. Then we asked for extra towels, they never came and we called twice.  Then I waited till the next morning, to ask for towels, the old guy told me I had to go downstairs and get them myself. I told him no, then he said I'll take them up and before I could thank him, he hung up on me. Breakfast, hmmm. So not worth $9.99. I could tell this place is very cheap with everything. They bring out food only when there is nothing left, which means we have to wait. Then they bring out a bit at a time. Juices are not cold, they have them in a carafe sitting out in a bowl with ice. Service is bad, they stayed in the kitchen talking most of the time. She never cleared our plates. She was not friendly at all. Oh but beds were comfy. We requested a late check out and the maids came by twice, they wanted us out. So we felt rushed And it was not 1 yet!...We stayed 1 night, when I called to verify my room, girl had a bit of an attitude. I was thinking, uh oh.... Rooms were small, dirty. Air conditioning vents were very dusty. I guess to save money, they keep the air off. When we got in the room it was HOT. It took a good half hour for the room to cool down, it was horrible. Then we asked for extra towels, they never came and we called twice.  Then I waited till the next morning, to ask for towels, the old guy told me I had to go downstairs and get them myself. I told him no, then he said I'll take them up and before I could thank him, he hung up on me. Breakfast, hmmm. So not worth $9.99. I could tell this place is very cheap with everything. They bring out food only when there is nothing left, which means we have to wait. Then they bring out a bit at a time. Juices are not cold, they have them in a carafe sitting out in a bowl with ice. Service is bad, they stayed in the kitchen talking most of the time. She never cleared our plates. She was not friendly at all. Oh but beds were comfy. We requested a late check out and the maids came by twice, they wanted us out. So we felt rushed And it was not 1 yet! All in all, soooo not worth $153! The owner should understand "little things count". MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>We stayed 1 night, when I called to verify my room, girl had a bit of an attitude. I was thinking, uh oh.... Rooms were small, dirty. Air conditioning vents were very dusty. I guess to save money, they keep the air off. When we got in the room it was HOT. It took a good half hour for the room to cool down, it was horrible. Then we asked for extra towels, they never came and we called twice.  Then I waited till the next morning, to ask for towels, the old guy told me I had to go downstairs and get them myself. I told him no, then he said I'll take them up and before I could thank him, he hung up on me. Breakfast, hmmm. So not worth $9.99. I could tell this place is very cheap with everything. They bring out food only when there is nothing left, which means we have to wait. Then they bring out a bit at a time. Juices are not cold, they have them in a carafe sitting out in a bowl with ice. Service is bad, they stayed in the kitchen talking most of the time. She never cleared our plates. She was not friendly at all. Oh but beds were comfy. We requested a late check out and the maids came by twice, they wanted us out. So we felt rushed And it was not 1 yet!...We stayed 1 night, when I called to verify my room, girl had a bit of an attitude. I was thinking, uh oh.... Rooms were small, dirty. Air conditioning vents were very dusty. I guess to save money, they keep the air off. When we got in the room it was HOT. It took a good half hour for the room to cool down, it was horrible. Then we asked for extra towels, they never came and we called twice.  Then I waited till the next morning, to ask for towels, the old guy told me I had to go downstairs and get them myself. I told him no, then he said I'll take them up and before I could thank him, he hung up on me. Breakfast, hmmm. So not worth $9.99. I could tell this place is very cheap with everything. They bring out food only when there is nothing left, which means we have to wait. Then they bring out a bit at a time. Juices are not cold, they have them in a carafe sitting out in a bowl with ice. Service is bad, they stayed in the kitchen talking most of the time. She never cleared our plates. She was not friendly at all. Oh but beds were comfy. We requested a late check out and the maids came by twice, they wanted us out. So we felt rushed And it was not 1 yet! All in all, soooo not worth $153! The owner should understand "little things count". More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r165983742-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>165983742</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Would recommend it</t>
+  </si>
+  <si>
+    <t>Would not recommend this hotel! Lets see a friend booked it for us which prob is my fault as I should of checked it but 2 adults and 1 child should get you a single bed and queen or king size in most countries and we arrived to one king size wheelchair based room. When the friend rang down we were told there was a fold up bed we searched the whole room none to be found. She rang back and the answer was a you sure (should you not know your rooms). Then we were told one would be brought up and 15mins later waiting in hot room they phoned to say there wasn't one available and didn't offer an alternatives. Never less at 9.30pm at night I was a little frustrated with a child falling asleep so I went down to reception to see if there was a different room and was told that there was no rooms available and was told I would have to sleep with a child in the same bed as us basically as there was nothing else they could do and that is what you get for booking through hotwire.com, So they work in conjunction with hotwire to sell rooms but then put the blame back on them when things go wrong. I was very angry and he proceeded to print of his version of the booking out saying we took a king...Would not recommend this hotel! Lets see a friend booked it for us which prob is my fault as I should of checked it but 2 adults and 1 child should get you a single bed and queen or king size in most countries and we arrived to one king size wheelchair based room. When the friend rang down we were told there was a fold up bed we searched the whole room none to be found. She rang back and the answer was a you sure (should you not know your rooms). Then we were told one would be brought up and 15mins later waiting in hot room they phoned to say there wasn't one available and didn't offer an alternatives. Never less at 9.30pm at night I was a little frustrated with a child falling asleep so I went down to reception to see if there was a different room and was told that there was no rooms available and was told I would have to sleep with a child in the same bed as us basically as there was nothing else they could do and that is what you get for booking through hotwire.com, So they work in conjunction with hotwire to sell rooms but then put the blame back on them when things go wrong. I was very angry and he proceeded to print of his version of the booking out saying we took a king room with wheelchair access, this did not say this on my version of print out but did on his plus it proceeded to show me of 3 or 4 other couples and the rates they paid, so unprofessional in itself.  I screamed at him and demanded we be upgraded for the next night stay I have never done this but was so mad that I had paid nearly 100 a night to be treated with no breakfast and a king size bed for 3 of us.  I went back to the room as what choice did i have but 20mins later we got a phone call saying they have a room with a Jacuzzi, why couldn't he accommodate this in the first place. So we moved but 11pm at night the Jacuzzi above us was filled and you could hear the jets being turned off and on for the next 2-3hrs and then we were right next to an ice machine that was like an airplane engine but I didn't complain couldn't be bothered! So checkout I get a bill for 5.00 parking and was told someone would help me with my luggage as it was just me taking it from the room but when I rang there was an extremely rude lady who told me they are not doormen!! Then when checking out I said we don't own a car friends collect us and dropped us off she went and got the original receipt my husband had initialed and put there number plate (I think he did this because he thought if they were parked up for 10-15mins security need to know that there car is there but I don't think he thought he would be charged for it) OMG she grumpily refunded me so I think I need to check and then told me to bring it up with hotwire.com again and any other issues I had. She was calling me Maam which I asked her not to as she was so rude they way she would say it and she said that is what we say in this country, I said fair enough and walked off.  Wont return to this hotel. Disaster!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2013</t>
+  </si>
+  <si>
+    <t>Would not recommend this hotel! Lets see a friend booked it for us which prob is my fault as I should of checked it but 2 adults and 1 child should get you a single bed and queen or king size in most countries and we arrived to one king size wheelchair based room. When the friend rang down we were told there was a fold up bed we searched the whole room none to be found. She rang back and the answer was a you sure (should you not know your rooms). Then we were told one would be brought up and 15mins later waiting in hot room they phoned to say there wasn't one available and didn't offer an alternatives. Never less at 9.30pm at night I was a little frustrated with a child falling asleep so I went down to reception to see if there was a different room and was told that there was no rooms available and was told I would have to sleep with a child in the same bed as us basically as there was nothing else they could do and that is what you get for booking through hotwire.com, So they work in conjunction with hotwire to sell rooms but then put the blame back on them when things go wrong. I was very angry and he proceeded to print of his version of the booking out saying we took a king...Would not recommend this hotel! Lets see a friend booked it for us which prob is my fault as I should of checked it but 2 adults and 1 child should get you a single bed and queen or king size in most countries and we arrived to one king size wheelchair based room. When the friend rang down we were told there was a fold up bed we searched the whole room none to be found. She rang back and the answer was a you sure (should you not know your rooms). Then we were told one would be brought up and 15mins later waiting in hot room they phoned to say there wasn't one available and didn't offer an alternatives. Never less at 9.30pm at night I was a little frustrated with a child falling asleep so I went down to reception to see if there was a different room and was told that there was no rooms available and was told I would have to sleep with a child in the same bed as us basically as there was nothing else they could do and that is what you get for booking through hotwire.com, So they work in conjunction with hotwire to sell rooms but then put the blame back on them when things go wrong. I was very angry and he proceeded to print of his version of the booking out saying we took a king room with wheelchair access, this did not say this on my version of print out but did on his plus it proceeded to show me of 3 or 4 other couples and the rates they paid, so unprofessional in itself.  I screamed at him and demanded we be upgraded for the next night stay I have never done this but was so mad that I had paid nearly 100 a night to be treated with no breakfast and a king size bed for 3 of us.  I went back to the room as what choice did i have but 20mins later we got a phone call saying they have a room with a Jacuzzi, why couldn't he accommodate this in the first place. So we moved but 11pm at night the Jacuzzi above us was filled and you could hear the jets being turned off and on for the next 2-3hrs and then we were right next to an ice machine that was like an airplane engine but I didn't complain couldn't be bothered! So checkout I get a bill for 5.00 parking and was told someone would help me with my luggage as it was just me taking it from the room but when I rang there was an extremely rude lady who told me they are not doormen!! Then when checking out I said we don't own a car friends collect us and dropped us off she went and got the original receipt my husband had initialed and put there number plate (I think he did this because he thought if they were parked up for 10-15mins security need to know that there car is there but I don't think he thought he would be charged for it) OMG she grumpily refunded me so I think I need to check and then told me to bring it up with hotwire.com again and any other issues I had. She was calling me Maam which I asked her not to as she was so rude they way she would say it and she said that is what we say in this country, I said fair enough and walked off.  Wont return to this hotel. Disaster!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r162425056-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>162425056</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Great rooms and very convenient</t>
+  </si>
+  <si>
+    <t>WE spent four nights here and found the staff to be very attentive and the service excellent.  Our room had a jacuzzi which was a great thing after long days fo running around the Los Angeles area.  The breakfast was better than average with attentive staff.  Located next to the 57 freeway, it was convenient to get anywhere without wandering around on the streets very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>WE spent four nights here and found the staff to be very attentive and the service excellent.  Our room had a jacuzzi which was a great thing after long days fo running around the Los Angeles area.  The breakfast was better than average with attentive staff.  Located next to the 57 freeway, it was convenient to get anywhere without wandering around on the streets very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r162236799-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>162236799</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Great hotel! Very Friendly staff! Rooms were very large and clean. Looked to be recently renovated. We had a King Suite. Close to restaurants, next to freeway but noise was not a problem.They did offer a breakfast for a charge, did not use it. Great breakfast burritos next door at Pepe's. Very close to Cal State Fullerton which is why we came for a Graduation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel! Very Friendly staff! Rooms were very large and clean. Looked to be recently renovated. We had a King Suite. Close to restaurants, next to freeway but noise was not a problem.They did offer a breakfast for a charge, did not use it. Great breakfast burritos next door at Pepe's. Very close to Cal State Fullerton which is why we came for a Graduation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r161642738-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>161642738</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Excellent staff and comfortable room!</t>
+  </si>
+  <si>
+    <t>This is my 2nd time staying at this hotel.  I love the jacuzzi tub.  The room was fairly quiet as far as hotels go.  The staff was amazing.  The shuttle was able to take me to rent a car since Enterprise couldn't pick me up.  The cleaning service took care of the room every day, despite me wanting to sleep in a few days till 11am.  I got the drain jammed in the hot tub and the cleaning crew let maintenance know.  After they fixed it, the cleaning person came back to clean the tub for me. Very impressive.  I'm now a loyal customer of this hotel any time I visit the Fullerton area.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded May 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2013</t>
+  </si>
+  <si>
+    <t>This is my 2nd time staying at this hotel.  I love the jacuzzi tub.  The room was fairly quiet as far as hotels go.  The staff was amazing.  The shuttle was able to take me to rent a car since Enterprise couldn't pick me up.  The cleaning service took care of the room every day, despite me wanting to sleep in a few days till 11am.  I got the drain jammed in the hot tub and the cleaning crew let maintenance know.  After they fixed it, the cleaning person came back to clean the tub for me. Very impressive.  I'm now a loyal customer of this hotel any time I visit the Fullerton area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r155544426-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>155544426</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>The hotel was fine, just nothing special. Here are a few ups &amp; downs:Good:- room was nice &amp; clean- hotel has a "happy hour" which includes two glasses of beer or wine. The wine was the cheapest boxed wine possible, but still a nice touch. - nice tv channel choices- WI-fi works Not so good:- the breakfast buffet was basically a crappy continental breakfast but since it's not a Holiday Inn Express it costs $10. Very basic choices, pre-made scrambled eggs, no yogurt &amp; unhealthy carbs. No menu available. You would be much better off going to the Denny's next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was fine, just nothing special. Here are a few ups &amp; downs:Good:- room was nice &amp; clean- hotel has a "happy hour" which includes two glasses of beer or wine. The wine was the cheapest boxed wine possible, but still a nice touch. - nice tv channel choices- WI-fi works Not so good:- the breakfast buffet was basically a crappy continental breakfast but since it's not a Holiday Inn Express it costs $10. Very basic choices, pre-made scrambled eggs, no yogurt &amp; unhealthy carbs. No menu available. You would be much better off going to the Denny's next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r150392620-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>150392620</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Great local romantic get-away</t>
+  </si>
+  <si>
+    <t>When you arrived to the hotel, you will think you made a mistake by the location. Nothing fancy around, just a hotel in the outskirts of Fullerton. But, once you arrive to your room, you will find this BIG Jacuzzi tub with access to the flat screen TV. This tub can fit 5 people. It's quiet and the bed is so confortable. I stayed here during new years eve to beat some of the Fullerton traffic and ended staying in the room the whole time. It's definately worth it..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>When you arrived to the hotel, you will think you made a mistake by the location. Nothing fancy around, just a hotel in the outskirts of Fullerton. But, once you arrive to your room, you will find this BIG Jacuzzi tub with access to the flat screen TV. This tub can fit 5 people. It's quiet and the bed is so confortable. I stayed here during new years eve to beat some of the Fullerton traffic and ended staying in the room the whole time. It's definately worth it..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r148965712-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>148965712</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Just to save some money</t>
+  </si>
+  <si>
+    <t>This hotel is ok only if you are planning to visit Disneyland (15-20  minutes driving) and you want to save some money (hotels in Anaheim are more expensive). Also, it has helpful staff and pretty big rooms, but that's about all.We spent a night here at the end of December. We arrived in the evening and we've been accommodated in a chilly and moldy smelling room. My wife complained about the smell and the staff changed the room right away.  The new room was also chilly, but no bad smell. We turned on the hot water (both, shower and Jacuzzi) and set the fan coil to maximum to heat the place a little bit. The water was making to much steam and the fan coil was making more noise than heat, so we had to turn off both. We woke up almost freezing in the morning.The breakfast buffet doesn't have too many optionsMoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded January 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is ok only if you are planning to visit Disneyland (15-20  minutes driving) and you want to save some money (hotels in Anaheim are more expensive). Also, it has helpful staff and pretty big rooms, but that's about all.We spent a night here at the end of December. We arrived in the evening and we've been accommodated in a chilly and moldy smelling room. My wife complained about the smell and the staff changed the room right away.  The new room was also chilly, but no bad smell. We turned on the hot water (both, shower and Jacuzzi) and set the fan coil to maximum to heat the place a little bit. The water was making to much steam and the fan coil was making more noise than heat, so we had to turn off both. We woke up almost freezing in the morning.The breakfast buffet doesn't have too many optionsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r144241457-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>144241457</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Great as always!!!</t>
+  </si>
+  <si>
+    <t>Stayed here again....this time for rest and relaxation. The staff is always accomodating. They remember me as I check in each and every time....(usually there 5-7 times a year). Close to restaruants and site seeing if that is what you're there for.  The BEDS!!! the best...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded December 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here again....this time for rest and relaxation. The staff is always accomodating. They remember me as I check in each and every time....(usually there 5-7 times a year). Close to restaruants and site seeing if that is what you're there for.  The BEDS!!! the best...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r144164745-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>144164745</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Nice clean hotel with helpful staff</t>
+  </si>
+  <si>
+    <t>What you always want and rarely get is a nice, clean hotel with a friendly and helpful staff so you can just relax. Thankfully after a couple of rough weeks of travel this is just what I got at the HI Hotel &amp; Suites in Fullerton.As a Royal Ambassador member the staff was kind enough to upgrade me to a suite... which contained a heart shaped jacuzzi soaking tub in the bedroom. Not really my taste, but it did get a few laughs from the photos I sent back home.And to me a HUGE plus the hotel was in walking distance of El Pollo Loco and an In &amp; Out Burger. Nice.There is a lot of highway construction going on in the area which is causing problems with the Internet connection. Really bad, and when I called the service number for support no one answered. Honestly, the last hotel I stayed at with such bad reception was in the jungles of Burma. No joke. Not acceptable in today's world.With a better internet connection I would rate the HI 4 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded November 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2012</t>
+  </si>
+  <si>
+    <t>What you always want and rarely get is a nice, clean hotel with a friendly and helpful staff so you can just relax. Thankfully after a couple of rough weeks of travel this is just what I got at the HI Hotel &amp; Suites in Fullerton.As a Royal Ambassador member the staff was kind enough to upgrade me to a suite... which contained a heart shaped jacuzzi soaking tub in the bedroom. Not really my taste, but it did get a few laughs from the photos I sent back home.And to me a HUGE plus the hotel was in walking distance of El Pollo Loco and an In &amp; Out Burger. Nice.There is a lot of highway construction going on in the area which is causing problems with the Internet connection. Really bad, and when I called the service number for support no one answered. Honestly, the last hotel I stayed at with such bad reception was in the jungles of Burma. No joke. Not acceptable in today's world.With a better internet connection I would rate the HI 4 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r139953012-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>139953012</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Very relaxing after a long drive! Clean, stylish rooms, quiet, comfy comforter!  Plus Directv ...perfect!  If you're going to Disneyland, or in the Anaheim area you save on the "resort fee" and 10% taxes (vs 17%).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Very relaxing after a long drive! Clean, stylish rooms, quiet, comfy comforter!  Plus Directv ...perfect!  If you're going to Disneyland, or in the Anaheim area you save on the "resort fee" and 10% taxes (vs 17%).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r135899624-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>135899624</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Great hotel to stay</t>
+  </si>
+  <si>
+    <t>Liked this holliday inn.Looked well taken care off.Very friendly staff in the lobby.Nice outside pool.Clean and spacious rooms.Good location only short drive to Disney world.And Dennys and other restaurants very close to the hotel.The breakfast you can book with your stays are coupons so you can use breakfeast in the restaurant.Do leave your money etc in the save.Because this is the first hotel after traveling six times in America house keeping steal money from my wallet.I always leave mine in my suitcase in the bag dirty laundry.So in case my husband lose his wallet we still have money.This time 50 dollar was taken.My fault because I should have taken it to the safe in the lobby.Next year I will not be so sloppy with my belongings.But this hotel was beyond our expections.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded August 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2012</t>
+  </si>
+  <si>
+    <t>Liked this holliday inn.Looked well taken care off.Very friendly staff in the lobby.Nice outside pool.Clean and spacious rooms.Good location only short drive to Disney world.And Dennys and other restaurants very close to the hotel.The breakfast you can book with your stays are coupons so you can use breakfeast in the restaurant.Do leave your money etc in the save.Because this is the first hotel after traveling six times in America house keeping steal money from my wallet.I always leave mine in my suitcase in the bag dirty laundry.So in case my husband lose his wallet we still have money.This time 50 dollar was taken.My fault because I should have taken it to the safe in the lobby.Next year I will not be so sloppy with my belongings.But this hotel was beyond our expections.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r135789627-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>135789627</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a couple of times and the rooms are always very clean and the staff is very courteous. The only thing I would have to complain about is that the breakfast buffet is not the best.  The food on the buffet could be a lot better.  It would almost be better to just offer a menu instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded July 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a couple of times and the rooms are always very clean and the staff is very courteous. The only thing I would have to complain about is that the breakfast buffet is not the best.  The food on the buffet could be a lot better.  It would almost be better to just offer a menu instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r135440436-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>135440436</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Exceptional Service and Great location</t>
+  </si>
+  <si>
+    <t>This hotel is locally centralized for all the OC attractions and if you want to go toward the IE also. The staff and management run a "family" atmosphere. The beds are the best!!! The food in the restaurant is great too!MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded July 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is locally centralized for all the OC attractions and if you want to go toward the IE also. The staff and management run a "family" atmosphere. The beds are the best!!! The food in the restaurant is great too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r133203615-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>133203615</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>I like this place</t>
+  </si>
+  <si>
+    <t>I am working in CA during the week and then commuting home on weekends. So I need a comfortable place to stay and get some rest. Overall I am quite pleased. The staff is friendly and helpful. The room, well, The room wasn't as good as I have had in past business trips but it is still good. Weird sticky spots on the ceiling above the tub and a dampish rag left in my room one day. These were minor things that were addressed but maybe should never have come up. I think some other reviewers had commented on the noise of the AC units. They are loud. Very. Loud. But click them on low and all good travellers have a pair of soft ear plugs so sleeping is no problem. Water pressure good, hot water plentiful. Rooms had a recently redone look and the TV worked fine with lots of options. Wireless internet worked and was speedy. The breakfast buffet was about standard, nothing wow but a good starter. The lounge has food all week but the restaurant is not open all day for dinner. There are plenty of dining options within walking distance. Yes I said walking distance and this is a neighborhood I felt comfortable walking in.
+While this not a 5 star top place I have to say it is THE PLACE for me to stay while I am working here. Convenience, Staff attitude, and location...I am working in CA during the week and then commuting home on weekends. So I need a comfortable place to stay and get some rest. Overall I am quite pleased. The staff is friendly and helpful. The room, well, The room wasn't as good as I have had in past business trips but it is still good. Weird sticky spots on the ceiling above the tub and a dampish rag left in my room one day. These were minor things that were addressed but maybe should never have come up. I think some other reviewers had commented on the noise of the AC units. They are loud. Very. Loud. But click them on low and all good travellers have a pair of soft ear plugs so sleeping is no problem. Water pressure good, hot water plentiful. Rooms had a recently redone look and the TV worked fine with lots of options. Wireless internet worked and was speedy. The breakfast buffet was about standard, nothing wow but a good starter. The lounge has food all week but the restaurant is not open all day for dinner. There are plenty of dining options within walking distance. Yes I said walking distance and this is a neighborhood I felt comfortable walking in.While this not a 5 star top place I have to say it is THE PLACE for me to stay while I am working here. Convenience, Staff attitude, and location are key pluses. That big old jacuzzi tub sure makes the stress disappear at the end of the day.The opportunities for improvement are the housekeeping staffs attention to details and a quieter AC.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded August 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2012</t>
+  </si>
+  <si>
+    <t>I am working in CA during the week and then commuting home on weekends. So I need a comfortable place to stay and get some rest. Overall I am quite pleased. The staff is friendly and helpful. The room, well, The room wasn't as good as I have had in past business trips but it is still good. Weird sticky spots on the ceiling above the tub and a dampish rag left in my room one day. These were minor things that were addressed but maybe should never have come up. I think some other reviewers had commented on the noise of the AC units. They are loud. Very. Loud. But click them on low and all good travellers have a pair of soft ear plugs so sleeping is no problem. Water pressure good, hot water plentiful. Rooms had a recently redone look and the TV worked fine with lots of options. Wireless internet worked and was speedy. The breakfast buffet was about standard, nothing wow but a good starter. The lounge has food all week but the restaurant is not open all day for dinner. There are plenty of dining options within walking distance. Yes I said walking distance and this is a neighborhood I felt comfortable walking in.
+While this not a 5 star top place I have to say it is THE PLACE for me to stay while I am working here. Convenience, Staff attitude, and location...I am working in CA during the week and then commuting home on weekends. So I need a comfortable place to stay and get some rest. Overall I am quite pleased. The staff is friendly and helpful. The room, well, The room wasn't as good as I have had in past business trips but it is still good. Weird sticky spots on the ceiling above the tub and a dampish rag left in my room one day. These were minor things that were addressed but maybe should never have come up. I think some other reviewers had commented on the noise of the AC units. They are loud. Very. Loud. But click them on low and all good travellers have a pair of soft ear plugs so sleeping is no problem. Water pressure good, hot water plentiful. Rooms had a recently redone look and the TV worked fine with lots of options. Wireless internet worked and was speedy. The breakfast buffet was about standard, nothing wow but a good starter. The lounge has food all week but the restaurant is not open all day for dinner. There are plenty of dining options within walking distance. Yes I said walking distance and this is a neighborhood I felt comfortable walking in.While this not a 5 star top place I have to say it is THE PLACE for me to stay while I am working here. Convenience, Staff attitude, and location are key pluses. That big old jacuzzi tub sure makes the stress disappear at the end of the day.The opportunities for improvement are the housekeeping staffs attention to details and a quieter AC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r131195536-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>131195536</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Love!</t>
+  </si>
+  <si>
+    <t>Gigantic jacuzzi tubs and huge quest room make this hotel my favorite in Fullerton area. I'm in town every few weeks for work and have stayed at pretty much all the area hotels. This is by far my favorite. It is clean and modern with great service and a cute bar. I had trouble connecting to the wifi when I was due in a video conference and they had someone up to my room in less than 5 minutes. The guy didn't even roll his eyes at me when it turned out I was just being a spaz and was missing a step. I highly reccomend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Gigantic jacuzzi tubs and huge quest room make this hotel my favorite in Fullerton area. I'm in town every few weeks for work and have stayed at pretty much all the area hotels. This is by far my favorite. It is clean and modern with great service and a cute bar. I had trouble connecting to the wifi when I was due in a video conference and they had someone up to my room in less than 5 minutes. The guy didn't even roll his eyes at me when it turned out I was just being a spaz and was missing a step. I highly reccomend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r130756239-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>130756239</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Clean &amp; Modern</t>
+  </si>
+  <si>
+    <t>I haven't stayed at at Holiday Inn in years and what a pleasant surprise the Holiday Inn Fullerton turned out to be!  Everything was perfect,  The place appears to be brand new and there is a very nice restaurant on the premises.  The rooms are very large and mine had a huge whirlpool bath!  I will definitely return on my next trip to Orange Co,</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r126711617-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>126711617</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Very nice and comfortable hotel</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel that served as a good 1 night option for our first night in Anaheim.Although a slight drive to get there, it's a better value than the Holiday Inn hotels closer to Disneyland.  For under $100 we got a very comfortable non-smoking king with jacuzzi.  The parking situation at this hotel isn't the easiest but everything else was great.  There was a Denny's right at the hotel and also a Jack in the Box and In and Out Burger nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded March 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2012</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel that served as a good 1 night option for our first night in Anaheim.Although a slight drive to get there, it's a better value than the Holiday Inn hotels closer to Disneyland.  For under $100 we got a very comfortable non-smoking king with jacuzzi.  The parking situation at this hotel isn't the easiest but everything else was great.  There was a Denny's right at the hotel and also a Jack in the Box and In and Out Burger nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r126014775-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>126014775</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>Awsome As Usual</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is well trained in hotel service. I've stayed at other Holiday Inns and this one is well above them all. The rooms are clean too and a great value for your money.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r125939407-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>125939407</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t>Nice and quiet rooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a nice and quiet hotel but the location was about ten minutes away grom Disneyland. The one bedroom was nice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r121947152-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>121947152</t>
+  </si>
+  <si>
+    <t>12/21/2011</t>
+  </si>
+  <si>
+    <t>Nice change of pace</t>
+  </si>
+  <si>
+    <t>I travel to Los Angeles for one week every month for business. I am a very loyal customer to almost any establishment once I notice good service. I used to stay at the Holiday Inn Buena Park but once I achieved platinum status, it was as if the service went to trash. So on my last trip  on December 16th, I decided to try another Holiday Inn. ( I like the perks you earn with them ) I chose this H.I. because of two things, I like Orange County and I like the fact that it was a newer hotel. A lot of hotels are old and to me, smell of water damage or mildew. 
+Anyway, the cost is comparable to Buena Park. The location of the hotel is farther from my business but hey, your in Southern California. Upon arrival, the staff recognized my platinum status although I was not offered an upgrade. The room was very nice. On this trip I took my spouse who agreed as she is very picky about hotel rooms. The room I requested had a jacuzzi tub in the room. You could actually watch TV ( flat screen with your own directv box ) from the jacuzzi. Kinda awesome. The room also had a couch with a fold out bed. the room was divided by a marble border between the bed and the couch. There was the standard desk and chair as well...I travel to Los Angeles for one week every month for business. I am a very loyal customer to almost any establishment once I notice good service. I used to stay at the Holiday Inn Buena Park but once I achieved platinum status, it was as if the service went to trash. So on my last trip  on December 16th, I decided to try another Holiday Inn. ( I like the perks you earn with them ) I chose this H.I. because of two things, I like Orange County and I like the fact that it was a newer hotel. A lot of hotels are old and to me, smell of water damage or mildew. Anyway, the cost is comparable to Buena Park. The location of the hotel is farther from my business but hey, your in Southern California. Upon arrival, the staff recognized my platinum status although I was not offered an upgrade. The room was very nice. On this trip I took my spouse who agreed as she is very picky about hotel rooms. The room I requested had a jacuzzi tub in the room. You could actually watch TV ( flat screen with your own directv box ) from the jacuzzi. Kinda awesome. The room also had a couch with a fold out bed. the room was divided by a marble border between the bed and the couch. There was the standard desk and chair as well as the dresser. There was a refrigerator into the dresser but no microwave. Bummer. One thing I noticed about this room was that the window was either malfunctioning or not installed properly. There was ample noise seeping through it. The hotel is a frisbee throw from the highway and you could easily hear traffic. As is the case for the Holiday Inn I frequent in Dallas, there are ice machines on alternating floors. I guess if I am on the "other" floor, I could use the exercise. Seeing that I am somewhat of a "gym junkie", I decided to check out the fitness center. It was decent but I was not thrilled about the fact that you have to go outside to get to it and the pool. Sunny California, right? All in all this may be my new Holiday Inn for my stays there. I plan to go back in January 2012. Let's see if they can win my loyalty.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded December 28, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2011</t>
+  </si>
+  <si>
+    <t>I travel to Los Angeles for one week every month for business. I am a very loyal customer to almost any establishment once I notice good service. I used to stay at the Holiday Inn Buena Park but once I achieved platinum status, it was as if the service went to trash. So on my last trip  on December 16th, I decided to try another Holiday Inn. ( I like the perks you earn with them ) I chose this H.I. because of two things, I like Orange County and I like the fact that it was a newer hotel. A lot of hotels are old and to me, smell of water damage or mildew. 
+Anyway, the cost is comparable to Buena Park. The location of the hotel is farther from my business but hey, your in Southern California. Upon arrival, the staff recognized my platinum status although I was not offered an upgrade. The room was very nice. On this trip I took my spouse who agreed as she is very picky about hotel rooms. The room I requested had a jacuzzi tub in the room. You could actually watch TV ( flat screen with your own directv box ) from the jacuzzi. Kinda awesome. The room also had a couch with a fold out bed. the room was divided by a marble border between the bed and the couch. There was the standard desk and chair as well...I travel to Los Angeles for one week every month for business. I am a very loyal customer to almost any establishment once I notice good service. I used to stay at the Holiday Inn Buena Park but once I achieved platinum status, it was as if the service went to trash. So on my last trip  on December 16th, I decided to try another Holiday Inn. ( I like the perks you earn with them ) I chose this H.I. because of two things, I like Orange County and I like the fact that it was a newer hotel. A lot of hotels are old and to me, smell of water damage or mildew. Anyway, the cost is comparable to Buena Park. The location of the hotel is farther from my business but hey, your in Southern California. Upon arrival, the staff recognized my platinum status although I was not offered an upgrade. The room was very nice. On this trip I took my spouse who agreed as she is very picky about hotel rooms. The room I requested had a jacuzzi tub in the room. You could actually watch TV ( flat screen with your own directv box ) from the jacuzzi. Kinda awesome. The room also had a couch with a fold out bed. the room was divided by a marble border between the bed and the couch. There was the standard desk and chair as well as the dresser. There was a refrigerator into the dresser but no microwave. Bummer. One thing I noticed about this room was that the window was either malfunctioning or not installed properly. There was ample noise seeping through it. The hotel is a frisbee throw from the highway and you could easily hear traffic. As is the case for the Holiday Inn I frequent in Dallas, there are ice machines on alternating floors. I guess if I am on the "other" floor, I could use the exercise. Seeing that I am somewhat of a "gym junkie", I decided to check out the fitness center. It was decent but I was not thrilled about the fact that you have to go outside to get to it and the pool. Sunny California, right? All in all this may be my new Holiday Inn for my stays there. I plan to go back in January 2012. Let's see if they can win my loyalty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r121925928-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>121925928</t>
+  </si>
+  <si>
+    <t>12/20/2011</t>
+  </si>
+  <si>
+    <t>My home away from home when in O.C.</t>
+  </si>
+  <si>
+    <t>My FAVORITE Holiday Inn.  Always greeted with a warm smile by familiar faces! Everyone goes out of there way to make sure you are having a great stay. The rooms are beautiful, clean and quiet! I enjoy the Directv channels including HBO on the flat-screen TV. There is a nice bar and a great place to have breakfast in the morning in the lobby area. Aside from the above average staff of this hotel, is the location!  I can't think of a better location when doing business in Southern California.LA, Orange County and the Inland Empire.. It is close to everywhere I need to be!MoreShow less</t>
+  </si>
+  <si>
+    <t>My FAVORITE Holiday Inn.  Always greeted with a warm smile by familiar faces! Everyone goes out of there way to make sure you are having a great stay. The rooms are beautiful, clean and quiet! I enjoy the Directv channels including HBO on the flat-screen TV. There is a nice bar and a great place to have breakfast in the morning in the lobby area. Aside from the above average staff of this hotel, is the location!  I can't think of a better location when doing business in Southern California.LA, Orange County and the Inland Empire.. It is close to everywhere I need to be!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r121742478-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>121742478</t>
+  </si>
+  <si>
+    <t>12/14/2011</t>
+  </si>
+  <si>
+    <t>Very Nice and quite</t>
+  </si>
+  <si>
+    <t>We are here this week for 3 nights.  Got here and had no problems with check in. Lobby was very nice and staff was very friendly.  We are staying in a spa room,and it is very nice!! Not only a full bathroom, but the spa tub too.  The rooms also have a fridge, direct tv and free internet connections.  Great night sleep, and a very quiet room.would stay here again.  There is plenty of restaurants around too, so really don't have to drive far.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r120203090-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>120203090</t>
+  </si>
+  <si>
+    <t>11/05/2011</t>
+  </si>
+  <si>
+    <t>Amazing Retreat for my wife and I</t>
+  </si>
+  <si>
+    <t>You'll pull up to this holiday Inn and suites and think, ut oh... I made a mistake.    It's right off the 57, 15 minutes from Disney, 5 minutes from Angels stadium, and surrounded by Denny's, and a grip of fast food restaurants, a gas station, and is like 1/2 mile from cal state fullerton.  All of which sound horrible if you're away for a romantic weekend with your wife like I was.  
+We were at Disney 3 days and opted to skip the local Disney strip to avoid the high cost of disney branded hotels, the crowds, and the overused spaces of the closest to Disney.  We read the reviews and decided to go for it. 
+We stayed in the King Jacuzzi suite- they have 100 of them.  But TRUST ME… the inside of this hotel is GREAT- and I was shocked at the attention to detail the craftsman gave.  Hardwood in the bathroom.  Granite on the shower walls and even the bathroom threshold!!!  They even painted and did the molding well.  The hotel is smoke and pet free, is super clean, and the Jacuzzi tub is IN the king suite, not in the bathroom, and IS FREAKING HUGE!  It also comes with a free standing shower with a shower head mounted high enough for a 6 foot man to stand under (crazy I know), a couch, a desk, TV, free internet, and free parking.  I swear, I could have...You'll pull up to this holiday Inn and suites and think, ut oh... I made a mistake.    It's right off the 57, 15 minutes from Disney, 5 minutes from Angels stadium, and surrounded by Denny's, and a grip of fast food restaurants, a gas station, and is like 1/2 mile from cal state fullerton.  All of which sound horrible if you're away for a romantic weekend with your wife like I was.  We were at Disney 3 days and opted to skip the local Disney strip to avoid the high cost of disney branded hotels, the crowds, and the overused spaces of the closest to Disney.  We read the reviews and decided to go for it. We stayed in the King Jacuzzi suite- they have 100 of them.  But TRUST ME… the inside of this hotel is GREAT- and I was shocked at the attention to detail the craftsman gave.  Hardwood in the bathroom.  Granite on the shower walls and even the bathroom threshold!!!  They even painted and did the molding well.  The hotel is smoke and pet free, is super clean, and the Jacuzzi tub is IN the king suite, not in the bathroom, and IS FREAKING HUGE!  It also comes with a free standing shower with a shower head mounted high enough for a 6 foot man to stand under (crazy I know), a couch, a desk, TV, free internet, and free parking.  I swear, I could have stayed in this hotel for a week.   Breakfast looks nice (its a buffet and is $8 per person- we never ate there because we were on a couple retreat and wanted a nicer meal).  They do have a bar we used to grab a few drinks after a long day in Disney before heading to our room. My AAA rate was $117 per night in early November.  I've paid twice that for a hotel with 1/2 the quality.  Don't let the curb appeal scare you away.  This hotel is amazing.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded November 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2011</t>
+  </si>
+  <si>
+    <t>You'll pull up to this holiday Inn and suites and think, ut oh... I made a mistake.    It's right off the 57, 15 minutes from Disney, 5 minutes from Angels stadium, and surrounded by Denny's, and a grip of fast food restaurants, a gas station, and is like 1/2 mile from cal state fullerton.  All of which sound horrible if you're away for a romantic weekend with your wife like I was.  
+We were at Disney 3 days and opted to skip the local Disney strip to avoid the high cost of disney branded hotels, the crowds, and the overused spaces of the closest to Disney.  We read the reviews and decided to go for it. 
+We stayed in the King Jacuzzi suite- they have 100 of them.  But TRUST ME… the inside of this hotel is GREAT- and I was shocked at the attention to detail the craftsman gave.  Hardwood in the bathroom.  Granite on the shower walls and even the bathroom threshold!!!  They even painted and did the molding well.  The hotel is smoke and pet free, is super clean, and the Jacuzzi tub is IN the king suite, not in the bathroom, and IS FREAKING HUGE!  It also comes with a free standing shower with a shower head mounted high enough for a 6 foot man to stand under (crazy I know), a couch, a desk, TV, free internet, and free parking.  I swear, I could have...You'll pull up to this holiday Inn and suites and think, ut oh... I made a mistake.    It's right off the 57, 15 minutes from Disney, 5 minutes from Angels stadium, and surrounded by Denny's, and a grip of fast food restaurants, a gas station, and is like 1/2 mile from cal state fullerton.  All of which sound horrible if you're away for a romantic weekend with your wife like I was.  We were at Disney 3 days and opted to skip the local Disney strip to avoid the high cost of disney branded hotels, the crowds, and the overused spaces of the closest to Disney.  We read the reviews and decided to go for it. We stayed in the King Jacuzzi suite- they have 100 of them.  But TRUST ME… the inside of this hotel is GREAT- and I was shocked at the attention to detail the craftsman gave.  Hardwood in the bathroom.  Granite on the shower walls and even the bathroom threshold!!!  They even painted and did the molding well.  The hotel is smoke and pet free, is super clean, and the Jacuzzi tub is IN the king suite, not in the bathroom, and IS FREAKING HUGE!  It also comes with a free standing shower with a shower head mounted high enough for a 6 foot man to stand under (crazy I know), a couch, a desk, TV, free internet, and free parking.  I swear, I could have stayed in this hotel for a week.   Breakfast looks nice (its a buffet and is $8 per person- we never ate there because we were on a couple retreat and wanted a nicer meal).  They do have a bar we used to grab a few drinks after a long day in Disney before heading to our room. My AAA rate was $117 per night in early November.  I've paid twice that for a hotel with 1/2 the quality.  Don't let the curb appeal scare you away.  This hotel is amazing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r115620622-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>115620622</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel...I'd stay again!</t>
+  </si>
+  <si>
+    <t>Very nice hotel with clean, comfortable rooms.  The beds were great and it was a good night's sleep each night.  The room was a good size with individual temperature control.  The a/c in the room was a little loud.  Internet was fast and reliable.There was no hot tub in the pool/fitness area.I was disappointed with the lack of items available in the hotel suite shop.  Even though the hotel had a restaurant you couldn't get room service or alcohol after about 9:00 pm.  They didn't even had basic cough/cold medication available.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded July 25, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2011</t>
+  </si>
+  <si>
+    <t>Very nice hotel with clean, comfortable rooms.  The beds were great and it was a good night's sleep each night.  The room was a good size with individual temperature control.  The a/c in the room was a little loud.  Internet was fast and reliable.There was no hot tub in the pool/fitness area.I was disappointed with the lack of items available in the hotel suite shop.  Even though the hotel had a restaurant you couldn't get room service or alcohol after about 9:00 pm.  They didn't even had basic cough/cold medication available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r107297635-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>107297635</t>
+  </si>
+  <si>
+    <t>05/07/2011</t>
+  </si>
+  <si>
+    <t>Incredible personalized service, friendly staff, great manager, and great service</t>
+  </si>
+  <si>
+    <t>It is already for the third time that I am bringing groups of academics and university administrators to this hotel, and each time it exceeds our expectations. Since the hotel is so close to Cal State University, our original choice was done because of its location. But now after staying there I would be happy to come again and again regardless of the university. The director of sales and the staff go out of their way to make our stay most comfortable. It's not in every place that the director himself will come on his day off to drive the group around and do it so graciously.  In every small and big things the group felt well taken care of. Rooms are spacious enough, clean and cozy, and each single room has a jacuzzi which is a great touch at the end of a business day. The restaurant service is wonderful with delicious meals and very reasonable prices. The chef and the restaurant staff were very efficient and nice to us, and tried to  accommodate our every need. The suite where I stayed is perfect, it feels like a great condo with a dining area and a full kitchen and can serve as a meeting place for the whole group. Thanks again to everybody in this hotel who made it so memorable for the whole group.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>It is already for the third time that I am bringing groups of academics and university administrators to this hotel, and each time it exceeds our expectations. Since the hotel is so close to Cal State University, our original choice was done because of its location. But now after staying there I would be happy to come again and again regardless of the university. The director of sales and the staff go out of their way to make our stay most comfortable. It's not in every place that the director himself will come on his day off to drive the group around and do it so graciously.  In every small and big things the group felt well taken care of. Rooms are spacious enough, clean and cozy, and each single room has a jacuzzi which is a great touch at the end of a business day. The restaurant service is wonderful with delicious meals and very reasonable prices. The chef and the restaurant staff were very efficient and nice to us, and tried to  accommodate our every need. The suite where I stayed is perfect, it feels like a great condo with a dining area and a full kitchen and can serve as a meeting place for the whole group. Thanks again to everybody in this hotel who made it so memorable for the whole group.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r100738923-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>100738923</t>
+  </si>
+  <si>
+    <t>03/19/2011</t>
+  </si>
+  <si>
+    <t>Holiday Inn Fullerton Is Top-Notch!</t>
+  </si>
+  <si>
+    <t>The attention to detail and customer service is fantastic. Enjoy our stay here each and every time!</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r94086015-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>94086015</t>
+  </si>
+  <si>
+    <t>01/22/2011</t>
+  </si>
+  <si>
+    <t>Very nice facility close to everything</t>
+  </si>
+  <si>
+    <t>The rooms have been nicely renovated.  The hotel is very conveniently located just off the 57.  There are many dining choices just up the freeway in Brea.  They also offer a breakfast special at $6 for 4 items.   Three of us were able to have a decent breakfast for just $12.  We would definitely consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded March 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2011</t>
+  </si>
+  <si>
+    <t>The rooms have been nicely renovated.  The hotel is very conveniently located just off the 57.  There are many dining choices just up the freeway in Brea.  They also offer a breakfast special at $6 for 4 items.   Three of us were able to have a decent breakfast for just $12.  We would definitely consider staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r90124853-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>90124853</t>
+  </si>
+  <si>
+    <t>12/17/2010</t>
+  </si>
+  <si>
+    <t>Perfect manager and staff, wonderful hot breakfasts and lunches</t>
+  </si>
+  <si>
+    <t>It's not the first time that I stayed at this hotel with a group of my colleagues who were visiting California State University at Fullerton. The hotel has provided us with wonderful services - rooms were clean and cozy, a jacuzzi in almost every room added to the relaxation, the overall atmosphere was extremely pleasant. The manager himself gave us a ride in the hotel van whenever we needed it, and it was extremely convenient. He and the other staff  were very friendly and open to all of our needs. I should also add that hotel breakfasts and especially lunches were delicious and well prepared. My impression of this hotel continues to be exceptionally good, and I would strongly recommend this place for  business and family travelers. Thanks to everybody who works there, happy holidays to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>It's not the first time that I stayed at this hotel with a group of my colleagues who were visiting California State University at Fullerton. The hotel has provided us with wonderful services - rooms were clean and cozy, a jacuzzi in almost every room added to the relaxation, the overall atmosphere was extremely pleasant. The manager himself gave us a ride in the hotel van whenever we needed it, and it was extremely convenient. He and the other staff  were very friendly and open to all of our needs. I should also add that hotel breakfasts and especially lunches were delicious and well prepared. My impression of this hotel continues to be exceptionally good, and I would strongly recommend this place for  business and family travelers. Thanks to everybody who works there, happy holidays to you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r88703695-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>88703695</t>
+  </si>
+  <si>
+    <t>11/30/2010</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Ive been too Holiday Inns but never like this one,Me and my Partner have been visiting this place for about 3 months and we come here 2 times a month this is our little get away from home and the kids,Staff is Wonderful they always remember us, and the rooms that we get haS Jaquzzi and big king size beds and they are Great . My partner and I are Picky when it comes to bathrooms and with all honesty I can say that we dont worry here because you can tell how clean they are. We will continue to have our quality time here at Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded December 2, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2010</t>
+  </si>
+  <si>
+    <t>Ive been too Holiday Inns but never like this one,Me and my Partner have been visiting this place for about 3 months and we come here 2 times a month this is our little get away from home and the kids,Staff is Wonderful they always remember us, and the rooms that we get haS Jaquzzi and big king size beds and they are Great . My partner and I are Picky when it comes to bathrooms and with all honesty I can say that we dont worry here because you can tell how clean they are. We will continue to have our quality time here at Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r87827821-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>87827821</t>
+  </si>
+  <si>
+    <t>11/21/2010</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>The rooms are very nice, the staff is on top of things at all times. The only thing would be that the bar closes early and the wireless internet is very slow. Other then that I would and will stay here again when I'm in the Anaheim area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are very nice, the staff is on top of things at all times. The only thing would be that the bar closes early and the wireless internet is very slow. Other then that I would and will stay here again when I'm in the Anaheim area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r87797222-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>87797222</t>
+  </si>
+  <si>
+    <t>Excellent service and nice upgraded room</t>
+  </si>
+  <si>
+    <t>I was very pleased with the hotel facilities and the service I received from the hotel employees.  The room was nicely upgraded, the food in the restaurant and bar were very good and reasonable priced.  Mostly though, I thought the service was exceptional.  I tend to not sleep much, and they were kind enough to open the fitness center after hours so that I could work out.  As well, I dropped an earring down my bathroom sink drain and they retrieved it while I was at work.If I were to make one suggestion to the hotel it would be to extend your fitness center hours.  As a business person its pretty difficult to fit in a decent workout between 6am and 9pm when I am in town to work.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded November 23, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2010</t>
+  </si>
+  <si>
+    <t>I was very pleased with the hotel facilities and the service I received from the hotel employees.  The room was nicely upgraded, the food in the restaurant and bar were very good and reasonable priced.  Mostly though, I thought the service was exceptional.  I tend to not sleep much, and they were kind enough to open the fitness center after hours so that I could work out.  As well, I dropped an earring down my bathroom sink drain and they retrieved it while I was at work.If I were to make one suggestion to the hotel it would be to extend your fitness center hours.  As a business person its pretty difficult to fit in a decent workout between 6am and 9pm when I am in town to work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r82891624-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>82891624</t>
+  </si>
+  <si>
+    <t>10/10/2010</t>
+  </si>
+  <si>
+    <t>Beautiful rooms</t>
+  </si>
+  <si>
+    <t>The hotel was much better than I expected, being right off the freeway. 
+Rooms:
+Beautiful rooms, spacious, well appointed, clean, one of the most comfortable hotel beds I've ever slept in. Loved having the mini fridge (and microwave downstairs to use). No tub, just shower, but it was clean and again beautiful, I rarely use a bathtub in a hotel. Despite being directly next to the freeway, I didn't not hear any freeway noise. It was very quiet (5th floor room facing north).
+Staff: The staff that I encountered were all very nice and helpful. A real family feel.
+Restaurant: This was the only downside. We used the breakfast buffet, but both mornings (Sat and Sun), there wasn't enough staff to clean or wait the tables, the buffet was out of several things, we had to ask for things over and over before they were brought. We didn't dare to order off the menu, we heard it would take 90 mins. The food wasn't very good.
+Parking:
+We were lucky enough to find a great parking place on Friday, but when we returned from dinner on Saturday it was impossible to find a space. The "parking garage" was almost non-existent and completely full. There was an event on Saturday night that overflowed the parking lot. I was thankful that there wasn't a charge for parking! Thank you!
+Banquet room:
+Our meeting room was great, but the room downstairs with a...The hotel was much better than I expected, being right off the freeway. Rooms:Beautiful rooms, spacious, well appointed, clean, one of the most comfortable hotel beds I've ever slept in. Loved having the mini fridge (and microwave downstairs to use). No tub, just shower, but it was clean and again beautiful, I rarely use a bathtub in a hotel. Despite being directly next to the freeway, I didn't not hear any freeway noise. It was very quiet (5th floor room facing north).Staff: The staff that I encountered were all very nice and helpful. A real family feel.Restaurant: This was the only downside. We used the breakfast buffet, but both mornings (Sat and Sun), there wasn't enough staff to clean or wait the tables, the buffet was out of several things, we had to ask for things over and over before they were brought. We didn't dare to order off the menu, we heard it would take 90 mins. The food wasn't very good.Parking:We were lucky enough to find a great parking place on Friday, but when we returned from dinner on Saturday it was impossible to find a space. The "parking garage" was almost non-existent and completely full. There was an event on Saturday night that overflowed the parking lot. I was thankful that there wasn't a charge for parking! Thank you!Banquet room:Our meeting room was great, but the room downstairs with a live band was overpowering on Sat night and made it impossible to enjoy what we were doing with all the noise (said they couldn't close the doors due to the alcohol being served (?)I would come back to this hotel, I enjoyed my stay overall, and I would recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded October 21, 2010</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2010</t>
+  </si>
+  <si>
+    <t>The hotel was much better than I expected, being right off the freeway. 
+Rooms:
+Beautiful rooms, spacious, well appointed, clean, one of the most comfortable hotel beds I've ever slept in. Loved having the mini fridge (and microwave downstairs to use). No tub, just shower, but it was clean and again beautiful, I rarely use a bathtub in a hotel. Despite being directly next to the freeway, I didn't not hear any freeway noise. It was very quiet (5th floor room facing north).
+Staff: The staff that I encountered were all very nice and helpful. A real family feel.
+Restaurant: This was the only downside. We used the breakfast buffet, but both mornings (Sat and Sun), there wasn't enough staff to clean or wait the tables, the buffet was out of several things, we had to ask for things over and over before they were brought. We didn't dare to order off the menu, we heard it would take 90 mins. The food wasn't very good.
+Parking:
+We were lucky enough to find a great parking place on Friday, but when we returned from dinner on Saturday it was impossible to find a space. The "parking garage" was almost non-existent and completely full. There was an event on Saturday night that overflowed the parking lot. I was thankful that there wasn't a charge for parking! Thank you!
+Banquet room:
+Our meeting room was great, but the room downstairs with a...The hotel was much better than I expected, being right off the freeway. Rooms:Beautiful rooms, spacious, well appointed, clean, one of the most comfortable hotel beds I've ever slept in. Loved having the mini fridge (and microwave downstairs to use). No tub, just shower, but it was clean and again beautiful, I rarely use a bathtub in a hotel. Despite being directly next to the freeway, I didn't not hear any freeway noise. It was very quiet (5th floor room facing north).Staff: The staff that I encountered were all very nice and helpful. A real family feel.Restaurant: This was the only downside. We used the breakfast buffet, but both mornings (Sat and Sun), there wasn't enough staff to clean or wait the tables, the buffet was out of several things, we had to ask for things over and over before they were brought. We didn't dare to order off the menu, we heard it would take 90 mins. The food wasn't very good.Parking:We were lucky enough to find a great parking place on Friday, but when we returned from dinner on Saturday it was impossible to find a space. The "parking garage" was almost non-existent and completely full. There was an event on Saturday night that overflowed the parking lot. I was thankful that there wasn't a charge for parking! Thank you!Banquet room:Our meeting room was great, but the room downstairs with a live band was overpowering on Sat night and made it impossible to enjoy what we were doing with all the noise (said they couldn't close the doors due to the alcohol being served (?)I would come back to this hotel, I enjoyed my stay overall, and I would recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r82689036-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>82689036</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>First Class Superior Service</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is the only one in Los Angeles that has suites with heart shaped jacuzzis.The customer service is unequaled at any hotel and puts the Marriott to shame.  I've beenstaying at the Holiday Inn Fullerton twice a week for almost a year and I wish I could livethere.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r82226635-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>82226635</t>
+  </si>
+  <si>
+    <t>10/05/2010</t>
+  </si>
+  <si>
+    <t>First Class All The Way</t>
+  </si>
+  <si>
+    <t>My husband stays at this hotel almost weekly for business.  We have also stayed here for weddings in the area as well as for trips to Disneyland.  I make his reservations and on occassion even get to join him for a night or two.
+I can't say enough about how well the staff has treated us from day one.  Even when they didn't recognize his face when he walked in the door, they treated him warmly and made him feel as if they appreciated his business.  Reservations have always been a breeze.  Now, he walks in the door and it's as if an old friend is returning to see them.  I was amazed when we arrived together recently at the welcome he received.  Even while staying at other hotels for even longer periods of time has he been treated so well.
+I love the rooms.  They are decorated very nice with warm rich colors.  You do not have the feeling of being in a hotel room but rather a guest room.  There is an inroom hot tub perfect for two in nearly every room, along with flat screen televisions.  The beds are SO comfy and you have multiple pillows both soft and firm.  I have never tossed and turned here and neither has my husband.
+Because there is an in house dining area, bar and snack bar, there is really no need to venture out.  The food is pretty good...My husband stays at this hotel almost weekly for business.  We have also stayed here for weddings in the area as well as for trips to Disneyland.  I make his reservations and on occassion even get to join him for a night or two.I can't say enough about how well the staff has treated us from day one.  Even when they didn't recognize his face when he walked in the door, they treated him warmly and made him feel as if they appreciated his business.  Reservations have always been a breeze.  Now, he walks in the door and it's as if an old friend is returning to see them.  I was amazed when we arrived together recently at the welcome he received.  Even while staying at other hotels for even longer periods of time has he been treated so well.I love the rooms.  They are decorated very nice with warm rich colors.  You do not have the feeling of being in a hotel room but rather a guest room.  There is an inroom hot tub perfect for two in nearly every room, along with flat screen televisions.  The beds are SO comfy and you have multiple pillows both soft and firm.  I have never tossed and turned here and neither has my husband.Because there is an in house dining area, bar and snack bar, there is really no need to venture out.  The food is pretty good here and very affordably priced.  My husband rarely gets to enjoy the breakfast buffet or made to order breakfast, but I have enjoyed it while staying there and it's pretty good.  Dinner has always been very good and the bar staff is knowledgeable and friendly.If you feel the need to venture out, there is a Denny's and a Subway right next door, as well as several great dining choices at the Brea Mall just a few minutes away.  This is also a great location if you want to visit Disneyland without all the headaches.  Just a few minutes on HWY 57 and you're there.  My daughter and I will visit the husband and drive to Disneyland, come back for dinner or have him join us at Downtown Disney, then do it again the next day.  There is much to praise the staff for at this Holiday Inn.  I can't say enough about how they will bend over backwards for each and every customer that walks in the door or calls for reservations.  I've been to many Holiday Inn's and none have compared to this property and the excellant staff working there.  I would recommend it to anybody traveling in the area and do on a regular basis.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded October 7, 2010</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2010</t>
+  </si>
+  <si>
+    <t>My husband stays at this hotel almost weekly for business.  We have also stayed here for weddings in the area as well as for trips to Disneyland.  I make his reservations and on occassion even get to join him for a night or two.
+I can't say enough about how well the staff has treated us from day one.  Even when they didn't recognize his face when he walked in the door, they treated him warmly and made him feel as if they appreciated his business.  Reservations have always been a breeze.  Now, he walks in the door and it's as if an old friend is returning to see them.  I was amazed when we arrived together recently at the welcome he received.  Even while staying at other hotels for even longer periods of time has he been treated so well.
+I love the rooms.  They are decorated very nice with warm rich colors.  You do not have the feeling of being in a hotel room but rather a guest room.  There is an inroom hot tub perfect for two in nearly every room, along with flat screen televisions.  The beds are SO comfy and you have multiple pillows both soft and firm.  I have never tossed and turned here and neither has my husband.
+Because there is an in house dining area, bar and snack bar, there is really no need to venture out.  The food is pretty good...My husband stays at this hotel almost weekly for business.  We have also stayed here for weddings in the area as well as for trips to Disneyland.  I make his reservations and on occassion even get to join him for a night or two.I can't say enough about how well the staff has treated us from day one.  Even when they didn't recognize his face when he walked in the door, they treated him warmly and made him feel as if they appreciated his business.  Reservations have always been a breeze.  Now, he walks in the door and it's as if an old friend is returning to see them.  I was amazed when we arrived together recently at the welcome he received.  Even while staying at other hotels for even longer periods of time has he been treated so well.I love the rooms.  They are decorated very nice with warm rich colors.  You do not have the feeling of being in a hotel room but rather a guest room.  There is an inroom hot tub perfect for two in nearly every room, along with flat screen televisions.  The beds are SO comfy and you have multiple pillows both soft and firm.  I have never tossed and turned here and neither has my husband.Because there is an in house dining area, bar and snack bar, there is really no need to venture out.  The food is pretty good here and very affordably priced.  My husband rarely gets to enjoy the breakfast buffet or made to order breakfast, but I have enjoyed it while staying there and it's pretty good.  Dinner has always been very good and the bar staff is knowledgeable and friendly.If you feel the need to venture out, there is a Denny's and a Subway right next door, as well as several great dining choices at the Brea Mall just a few minutes away.  This is also a great location if you want to visit Disneyland without all the headaches.  Just a few minutes on HWY 57 and you're there.  My daughter and I will visit the husband and drive to Disneyland, come back for dinner or have him join us at Downtown Disney, then do it again the next day.  There is much to praise the staff for at this Holiday Inn.  I can't say enough about how they will bend over backwards for each and every customer that walks in the door or calls for reservations.  I've been to many Holiday Inn's and none have compared to this property and the excellant staff working there.  I would recommend it to anybody traveling in the area and do on a regular basis.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r80530349-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>80530349</t>
+  </si>
+  <si>
+    <t>09/21/2010</t>
+  </si>
+  <si>
+    <t>Great staff, food and location</t>
+  </si>
+  <si>
+    <t>The rooms are clean and quiet.  The pool area and workout room are a nice amenity.  The staff is very friendly.  The food is high quality with several great selections.  Reasonably priced, I have been staying here on and off for business in the past four months and would recommend the accomodations for business and vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>The rooms are clean and quiet.  The pool area and workout room are a nice amenity.  The staff is very friendly.  The food is high quality with several great selections.  Reasonably priced, I have been staying here on and off for business in the past four months and would recommend the accomodations for business and vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r80023973-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>80023973</t>
+  </si>
+  <si>
+    <t>09/18/2010</t>
+  </si>
+  <si>
+    <t>Nice Place.</t>
+  </si>
+  <si>
+    <t>Hotel was sparkling.  Front desk personnel were prompt and efficient.  Buffet for breakfast was a little lacking.  Mostly due to short staff.  Would I stay here again?  You bet. Great location,  exceptionally nice rooms, and close to lots of dining opportunities.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r78555329-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>78555329</t>
+  </si>
+  <si>
+    <t>09/06/2010</t>
+  </si>
+  <si>
+    <t>Does the Trick</t>
+  </si>
+  <si>
+    <t>My girlfriend and stayed at this hotel for a wedding and were altogether quite pleased. The bed was comfortable and the room was very spacious. Free coffee and access to the business center were nice touches too. The hotel is only a short ride from the Orange County airport and all the sights/attractions of Anaheim. All in all, not too bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded September 8, 2010</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2010</t>
+  </si>
+  <si>
+    <t>My girlfriend and stayed at this hotel for a wedding and were altogether quite pleased. The bed was comfortable and the room was very spacious. Free coffee and access to the business center were nice touches too. The hotel is only a short ride from the Orange County airport and all the sights/attractions of Anaheim. All in all, not too bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r65417649-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>65417649</t>
+  </si>
+  <si>
+    <t>05/26/2010</t>
+  </si>
+  <si>
+    <t>I did not want to leave :)</t>
+  </si>
+  <si>
+    <t>First, how awesome that the jacuzzi is in the room, yet accessible through the bathroom, as well!The bed: I rarely slept this well while on the road - the sheets were luxurious (but not over-starched as I've encountered in other Hotels) and I loved having both firm and soft pillows to choose from (depending on my needs: sleep? or watch tv?) - plus extras in the closet - yay!Staff: very courteous, friendly and always greeted me and mind you, I don't look like a business traveler, more like a punk (ah, the beauty of being a creative and being allowed to remain my individuality) ;)Nice touch, too to be able to walk downstairs and grab' a cup of joe w/real milk/cream/half &amp; half (vs. the in-room powdered creamer).MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded May 28, 2010</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2010</t>
+  </si>
+  <si>
+    <t>First, how awesome that the jacuzzi is in the room, yet accessible through the bathroom, as well!The bed: I rarely slept this well while on the road - the sheets were luxurious (but not over-starched as I've encountered in other Hotels) and I loved having both firm and soft pillows to choose from (depending on my needs: sleep? or watch tv?) - plus extras in the closet - yay!Staff: very courteous, friendly and always greeted me and mind you, I don't look like a business traveler, more like a punk (ah, the beauty of being a creative and being allowed to remain my individuality) ;)Nice touch, too to be able to walk downstairs and grab' a cup of joe w/real milk/cream/half &amp; half (vs. the in-room powdered creamer).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r59964444-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>59964444</t>
+  </si>
+  <si>
+    <t>03/30/2010</t>
+  </si>
+  <si>
+    <t>Enjoyable</t>
+  </si>
+  <si>
+    <t>The rooms were big and comfortable.  The beds were very comfortable, we had a restful stay.  Staff was friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded April 2, 2010</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2010</t>
+  </si>
+  <si>
+    <t>The rooms were big and comfortable.  The beds were very comfortable, we had a restful stay.  Staff was friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r57548022-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>57548022</t>
+  </si>
+  <si>
+    <t>03/02/2010</t>
+  </si>
+  <si>
+    <t>Beautiful Romantic Getaway</t>
+  </si>
+  <si>
+    <t>I surprised my husband for Valentine's Day, I specifically wanted this hotel because of the Jacuzzi's in the rooms. I purchased the romantic package. When we arrived, the hotel staff were very nice and helpful. They delivered the package at the time I requested. The hotel was very clean and newly refurbished. The Rooms and Jaccuzis were very clean  and beautiful. The romantic package included breakfast for two by room service, the food was very good and we received our food in a short time too.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded March 4, 2010</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2010</t>
+  </si>
+  <si>
+    <t>I surprised my husband for Valentine's Day, I specifically wanted this hotel because of the Jacuzzi's in the rooms. I purchased the romantic package. When we arrived, the hotel staff were very nice and helpful. They delivered the package at the time I requested. The hotel was very clean and newly refurbished. The Rooms and Jaccuzis were very clean  and beautiful. The romantic package included breakfast for two by room service, the food was very good and we received our food in a short time too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r48878061-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>48878061</t>
+  </si>
+  <si>
+    <t>11/09/2009</t>
+  </si>
+  <si>
+    <t>BIG noise issues</t>
+  </si>
+  <si>
+    <t>I LOVE Holiday Inn Expresses, but avoid Holiday Inns like the plague after poor experiences many, many years ago.  After reading the fabulous tripadvisor reviews, we decided to give this hotel a try.  While this Holiday Inn is steps above others, there were some issues we had.  Some issues are out of the manager's hand (like poor acoustics) others can be corrected.  (cleanliness/unfriendly staff)
+RESERVATIONS:  Made a one night reservation through the on-line website.  Easy and received a low rate.
+ARRIVAL/CHECK-IN:  When we first walked in, my husband and I thought we had entered the wrong establishment.  The lobby didn't look like a hotel lobby and we thought we had stepped into a bar/restaurant.  The lobby was very clean, updated and decorated quite beautifully.  The restaurant "host" greeted us warmly.  However, when we got to the hotel front desk, the gentleman behind the desk was EXTREMELY unfriendly.  He acted as if we were bothering him by checking in.   My husband and I both tried to be friendly and even cracked a joke hoping to lighten his mood, but he continued to remain sullen and unhelpful.
+ROOMS:  We were given a top-floor, 2 queen bedroom. 
+The PROS:   The room was extremely large and tastefully decorated.   The carpeting, furniture and bedding was all new.  There was a large desk and comfortable swivel chair where we could use our laptop.  (Free and VERY fast WI-FI.)   There was another smaller desk and 2 chairs...I LOVE Holiday Inn Expresses, but avoid Holiday Inns like the plague after poor experiences many, many years ago.  After reading the fabulous tripadvisor reviews, we decided to give this hotel a try.  While this Holiday Inn is steps above others, there were some issues we had.  Some issues are out of the manager's hand (like poor acoustics) others can be corrected.  (cleanliness/unfriendly staff)RESERVATIONS:  Made a one night reservation through the on-line website.  Easy and received a low rate.ARRIVAL/CHECK-IN:  When we first walked in, my husband and I thought we had entered the wrong establishment.  The lobby didn't look like a hotel lobby and we thought we had stepped into a bar/restaurant.  The lobby was very clean, updated and decorated quite beautifully.  The restaurant "host" greeted us warmly.  However, when we got to the hotel front desk, the gentleman behind the desk was EXTREMELY unfriendly.  He acted as if we were bothering him by checking in.   My husband and I both tried to be friendly and even cracked a joke hoping to lighten his mood, but he continued to remain sullen and unhelpful.ROOMS:  We were given a top-floor, 2 queen bedroom. The PROS:   The room was extremely large and tastefully decorated.   The carpeting, furniture and bedding was all new.  There was a large desk and comfortable swivel chair where we could use our laptop.  (Free and VERY fast WI-FI.)   There was another smaller desk and 2 chairs next to the window.The beds were typical Holiday Inn Express...comfortable mattresses and sheets, along with several different types of pillows.  (Soft &amp; firm.)  We love how Holiday Inns don't use those outdated polyester comforters, but rather duvets covering down blankets.Plenty of lighting, a VERY large flat-screened t.v. with a wide variety of channels, pod coffee maker, large refrigerator, plenty of drawer and closet space,  iron and ironing board.  The bathroom had the "furniture" type of vanity with a granite counter top, lots of soft towels, upgraded shampoo and soap, eye make-up remover pads, blow dryer, great shower water pressure.The CONS:  OH THE NOISE!!!!!!  The walls were SO paper-thin that we heard every door open and shut, every hallway conversation, our neighbor's conversations and t.v.  We even heard the neighbor's room telephone ringing.   There was a convention going on and for some reason, people were coming and going out of their rooms until 2 a.m., so the conversations and noise were part of the reason we had a very bad night's sleep.The other noise contributor was the thermostat controlled air-conditioner.  It was SOOOOOO very loud and sounded like an old car motor starting up.  Because our room was warm, we had to run the air.  Every time it started up, the loud noise woke up those who had finally fallen asleep.  The bathroom had a shower only, no bathtub, which meant no shower curtain  The vanity, toilet and see-through shower were in the same area, which made it very difficult for 3 people to get ready in the morning.   We were in a hurry to make it to our next destination, so we had to maneuver around one another.  My daughter couldn't brush her teeth, do her hair or apply her make-up while my  hubby showered.    The bathroom was very small and my daughter and I couldn't get ready at the same time.There were some housekeeping issues.  Both the bathroom floor and the carpet had a lot of little pieces of paper and lint lying around.  We're fairly certain the room had not been vacuumed or swept. One of the lampshades looked as if someone had punched it and when we went to turn on the light, the lampshade fell off because it was missing the top screw.  We thought something like this should have been fixed.FACILITIES:  There was an outdoor pool that looked nice, but we didn't use it.  They had a small room with a computer and printer for use.   There was a very nice bar (didn't use) and a small restaurant (didn't use) inside the lobby area.  There's a restaurant next to the motel.  (I think it was a Denney's.)  CHECK-OUT:  The gals who checked us out were nice and efficient.  They weren't rude, but not over-friendly either.OVERALL:  I have such mixed feelings about this hotel.  It is beautiful and has so much potential.  We can live with the bathroom configuration and even the unfriendly front desk clerk., but the thin walls and noisy air-conditioner made it a VERY uncomfortable stay, which is why I can't recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>dennis2525, General Manager at Holiday Inn Hotel &amp; Suites Anaheim - Fullerton, responded to this reviewResponded January 29, 2010</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2010</t>
+  </si>
+  <si>
+    <t>I LOVE Holiday Inn Expresses, but avoid Holiday Inns like the plague after poor experiences many, many years ago.  After reading the fabulous tripadvisor reviews, we decided to give this hotel a try.  While this Holiday Inn is steps above others, there were some issues we had.  Some issues are out of the manager's hand (like poor acoustics) others can be corrected.  (cleanliness/unfriendly staff)
+RESERVATIONS:  Made a one night reservation through the on-line website.  Easy and received a low rate.
+ARRIVAL/CHECK-IN:  When we first walked in, my husband and I thought we had entered the wrong establishment.  The lobby didn't look like a hotel lobby and we thought we had stepped into a bar/restaurant.  The lobby was very clean, updated and decorated quite beautifully.  The restaurant "host" greeted us warmly.  However, when we got to the hotel front desk, the gentleman behind the desk was EXTREMELY unfriendly.  He acted as if we were bothering him by checking in.   My husband and I both tried to be friendly and even cracked a joke hoping to lighten his mood, but he continued to remain sullen and unhelpful.
+ROOMS:  We were given a top-floor, 2 queen bedroom. 
+The PROS:   The room was extremely large and tastefully decorated.   The carpeting, furniture and bedding was all new.  There was a large desk and comfortable swivel chair where we could use our laptop.  (Free and VERY fast WI-FI.)   There was another smaller desk and 2 chairs...I LOVE Holiday Inn Expresses, but avoid Holiday Inns like the plague after poor experiences many, many years ago.  After reading the fabulous tripadvisor reviews, we decided to give this hotel a try.  While this Holiday Inn is steps above others, there were some issues we had.  Some issues are out of the manager's hand (like poor acoustics) others can be corrected.  (cleanliness/unfriendly staff)RESERVATIONS:  Made a one night reservation through the on-line website.  Easy and received a low rate.ARRIVAL/CHECK-IN:  When we first walked in, my husband and I thought we had entered the wrong establishment.  The lobby didn't look like a hotel lobby and we thought we had stepped into a bar/restaurant.  The lobby was very clean, updated and decorated quite beautifully.  The restaurant "host" greeted us warmly.  However, when we got to the hotel front desk, the gentleman behind the desk was EXTREMELY unfriendly.  He acted as if we were bothering him by checking in.   My husband and I both tried to be friendly and even cracked a joke hoping to lighten his mood, but he continued to remain sullen and unhelpful.ROOMS:  We were given a top-floor, 2 queen bedroom. The PROS:   The room was extremely large and tastefully decorated.   The carpeting, furniture and bedding was all new.  There was a large desk and comfortable swivel chair where we could use our laptop.  (Free and VERY fast WI-FI.)   There was another smaller desk and 2 chairs next to the window.The beds were typical Holiday Inn Express...comfortable mattresses and sheets, along with several different types of pillows.  (Soft &amp; firm.)  We love how Holiday Inns don't use those outdated polyester comforters, but rather duvets covering down blankets.Plenty of lighting, a VERY large flat-screened t.v. with a wide variety of channels, pod coffee maker, large refrigerator, plenty of drawer and closet space,  iron and ironing board.  The bathroom had the "furniture" type of vanity with a granite counter top, lots of soft towels, upgraded shampoo and soap, eye make-up remover pads, blow dryer, great shower water pressure.The CONS:  OH THE NOISE!!!!!!  The walls were SO paper-thin that we heard every door open and shut, every hallway conversation, our neighbor's conversations and t.v.  We even heard the neighbor's room telephone ringing.   There was a convention going on and for some reason, people were coming and going out of their rooms until 2 a.m., so the conversations and noise were part of the reason we had a very bad night's sleep.The other noise contributor was the thermostat controlled air-conditioner.  It was SOOOOOO very loud and sounded like an old car motor starting up.  Because our room was warm, we had to run the air.  Every time it started up, the loud noise woke up those who had finally fallen asleep.  The bathroom had a shower only, no bathtub, which meant no shower curtain  The vanity, toilet and see-through shower were in the same area, which made it very difficult for 3 people to get ready in the morning.   We were in a hurry to make it to our next destination, so we had to maneuver around one another.  My daughter couldn't brush her teeth, do her hair or apply her make-up while my  hubby showered.    The bathroom was very small and my daughter and I couldn't get ready at the same time.There were some housekeeping issues.  Both the bathroom floor and the carpet had a lot of little pieces of paper and lint lying around.  We're fairly certain the room had not been vacuumed or swept. One of the lampshades looked as if someone had punched it and when we went to turn on the light, the lampshade fell off because it was missing the top screw.  We thought something like this should have been fixed.FACILITIES:  There was an outdoor pool that looked nice, but we didn't use it.  They had a small room with a computer and printer for use.   There was a very nice bar (didn't use) and a small restaurant (didn't use) inside the lobby area.  There's a restaurant next to the motel.  (I think it was a Denney's.)  CHECK-OUT:  The gals who checked us out were nice and efficient.  They weren't rude, but not over-friendly either.OVERALL:  I have such mixed feelings about this hotel.  It is beautiful and has so much potential.  We can live with the bathroom configuration and even the unfriendly front desk clerk., but the thin walls and noisy air-conditioner made it a VERY uncomfortable stay, which is why I can't recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r47972407-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>47972407</t>
+  </si>
+  <si>
+    <t>10/28/2009</t>
+  </si>
+  <si>
+    <t>Loved this hotel.  Everything was updated, rooms decorated beautifully, jacuzzi in the room, nice linen, pillows, contemporary.  Can't say enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>Loved this hotel.  Everything was updated, rooms decorated beautifully, jacuzzi in the room, nice linen, pillows, contemporary.  Can't say enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r44844337-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>44844337</t>
+  </si>
+  <si>
+    <t>09/26/2009</t>
+  </si>
+  <si>
+    <t>My New Hotel in Fullerton/Aneheim</t>
+  </si>
+  <si>
+    <t>Great Hotel, Excellent Staff, Great Food.  You would never think you could get great Italian Food at a Hotel.  Thank you for the the Service.  Complimentary High Speed Internet was a plus.  It was extremely fast too.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>Great Hotel, Excellent Staff, Great Food.  You would never think you could get great Italian Food at a Hotel.  Thank you for the the Service.  Complimentary High Speed Internet was a plus.  It was extremely fast too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r33178071-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>33178071</t>
+  </si>
+  <si>
+    <t>06/25/2009</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I just stayed at the Holiday Inn for a brief business trip and I was completely impressed.  Years ago I used to stay here when it was call the Chase Suites.  It has since been completely remodeled and looks fantastic, a very modern and clean look. The staff was very helpful.  In fact, I left my Blackberry charger in the room after my checkout.  The hotel called me right away to let me know I left it there and to make arrangements to ship it to me.  I have Directv at my house and I really loved having the Directv receiver right there in the room, which gives you a lot more TV channels.  The Internet connection worked fine.  The hotel is centrally located within Orange County.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I just stayed at the Holiday Inn for a brief business trip and I was completely impressed.  Years ago I used to stay here when it was call the Chase Suites.  It has since been completely remodeled and looks fantastic, a very modern and clean look. The staff was very helpful.  In fact, I left my Blackberry charger in the room after my checkout.  The hotel called me right away to let me know I left it there and to make arrangements to ship it to me.  I have Directv at my house and I really loved having the Directv receiver right there in the room, which gives you a lot more TV channels.  The Internet connection worked fine.  The hotel is centrally located within Orange County.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r32475133-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>32475133</t>
+  </si>
+  <si>
+    <t>06/16/2009</t>
+  </si>
+  <si>
+    <t>Dirtiest hotel I have ever stayed in</t>
+  </si>
+  <si>
+    <t>If you choose to stay at this hotel, check the sheets and the whirlpool to make sure they are clean. I had to clean the whirlpool in the room before using it. It had soap scum build up everywhere. When I pulled back the sheets I noticed hair at the top of them. So pulled them further back and there was more hair (not the kind of hair you want to see right before you get ready to lay down). The carpet was dirty and had stains all over it. The bathroom mirror and sinks were dirty. I called the front desk and they gave us a new room. It's whirlpool had hair and soap scum in it and the room smelled like smoke. The 3rd rooms whirlpool was dirty also. If you want a clean room, don't stay here. I have contacted the hotel and am waiting on a reply.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you choose to stay at this hotel, check the sheets and the whirlpool to make sure they are clean. I had to clean the whirlpool in the room before using it. It had soap scum build up everywhere. When I pulled back the sheets I noticed hair at the top of them. So pulled them further back and there was more hair (not the kind of hair you want to see right before you get ready to lay down). The carpet was dirty and had stains all over it. The bathroom mirror and sinks were dirty. I called the front desk and they gave us a new room. It's whirlpool had hair and soap scum in it and the room smelled like smoke. The 3rd rooms whirlpool was dirty also. If you want a clean room, don't stay here. I have contacted the hotel and am waiting on a reply.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r31790669-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>31790669</t>
+  </si>
+  <si>
+    <t>06/07/2009</t>
+  </si>
+  <si>
+    <t>This was AMAZiNG!</t>
+  </si>
+  <si>
+    <t>Everything was fantastic as soon as I walked into the hotel. I found friendly greetings at check in, which didn't take long. The room was AMAZiNG. Very spacious, bed was very comfortable, and the jacuzzi. . .my it was such a delight! I did NOT expect this from a Holiday Inn. Very Romantic atmosphere!</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r28583132-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>28583132</t>
+  </si>
+  <si>
+    <t>04/22/2009</t>
+  </si>
+  <si>
+    <t>This cant be a Holiday Inn</t>
+  </si>
+  <si>
+    <t>What a great hotel.  I cant believe this is a Holiday Inn.  Hotel is beautiful, rooms are very clean, the jacuzzi in our room was great and the service was outstanding.  I will be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r27954355-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>27954355</t>
+  </si>
+  <si>
+    <t>04/13/2009</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Holiday Inn and had a great experience.  I arrived late and they quickly got me to my room.  The bed was comfortable and I received a great night of sleep before my appointment the next morning. I'll definitely be staying here the next time I visit Fullerton.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r27891706-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>27891706</t>
+  </si>
+  <si>
+    <t>04/12/2009</t>
+  </si>
+  <si>
+    <t>Really nice</t>
+  </si>
+  <si>
+    <t>Loved the fact that the jacuzzis tub was not just your average tub it was huge and separated from the shower...will go again and everything was modern furniture, granite and clean.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r8031521-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>8031521</t>
+  </si>
+  <si>
+    <t>06/29/2007</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Moved to this hotel after experiencing problems at a dive near Disneyland. Even though this was at Christmas, they allowed me to use a work discount card that I should have had to make advance reservations to use. The room was very pleasant and clean. It was odd to be there with my son--it's more of a romantic atmosphere, but let me tell you, he loved bubble bath in the jacuzzi (me too:-)). Breakfast was very good with alot of variety. The staff was very professional and I felt safe staying there. It was handy to have Denny's in the parking lot too.  Even though it's a little way from the Magic Kingdom, I plan to stay there again next trip to see "The Mouse."MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>Moved to this hotel after experiencing problems at a dive near Disneyland. Even though this was at Christmas, they allowed me to use a work discount card that I should have had to make advance reservations to use. The room was very pleasant and clean. It was odd to be there with my son--it's more of a romantic atmosphere, but let me tell you, he loved bubble bath in the jacuzzi (me too:-)). Breakfast was very good with alot of variety. The staff was very professional and I felt safe staying there. It was handy to have Denny's in the parking lot too.  Even though it's a little way from the Magic Kingdom, I plan to stay there again next trip to see "The Mouse."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r7415623-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>7415623</t>
+  </si>
+  <si>
+    <t>04/21/2007</t>
+  </si>
+  <si>
+    <t>For That Special Romance Night</t>
+  </si>
+  <si>
+    <t>We stayed in Woodfin's Premium Studio Suite in Feb. 2005. I had submitted these pics then, but they didn't transfer over when Trip Advisor upgraded. We stayed in their Presidential Suite for our anniversary.  We liked it so much we've returned several times since then but opted for their smaller standard jacuzzi suites.If you are looking for that very SPECIAL room for a very special romantic night, I recommend Woodfin's Fullerton Premium Presidential Suite with their Romance package. It comes with a rose petal trail from the entrance to the bed, Chocklates, Champaigne,  Candles and Bubble bath for the heart shaped jacuzzi. I had to call the hotel directly to get this room.It is a very large room with a heart shape jacuzzi, a living area and King bed. It comes with micro, mini fridge and mini wet bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2005</t>
+  </si>
+  <si>
+    <t>We stayed in Woodfin's Premium Studio Suite in Feb. 2005. I had submitted these pics then, but they didn't transfer over when Trip Advisor upgraded. We stayed in their Presidential Suite for our anniversary.  We liked it so much we've returned several times since then but opted for their smaller standard jacuzzi suites.If you are looking for that very SPECIAL room for a very special romantic night, I recommend Woodfin's Fullerton Premium Presidential Suite with their Romance package. It comes with a rose petal trail from the entrance to the bed, Chocklates, Champaigne,  Candles and Bubble bath for the heart shaped jacuzzi. I had to call the hotel directly to get this room.It is a very large room with a heart shape jacuzzi, a living area and King bed. It comes with micro, mini fridge and mini wet bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r5332944-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>5332944</t>
+  </si>
+  <si>
+    <t>06/10/2006</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>We were here for a weekend trip in late May.  It's fair to say that this hotel is a bit old and tired, but the friendly and helpful staff made up for it.  For example, the first room we were given had a faulty air conditioning unit, but the front desk staff was apologetic and immediately gave us a different room. Our toilet made a whistling noise after flushing, but it wasn't bothersome enough to report at the time.  I let them know at checkout - they were truly appreciative for the information, and recorded it...so I had the sense that they make the effort to address problems.  Our bed was comfortable, and our room was quiet. Lots of convenient amenities (microwave, fridge, ironing board, hair dryer), very clean bathroom.  And an exceptional breakfast buffet.  I would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were here for a weekend trip in late May.  It's fair to say that this hotel is a bit old and tired, but the friendly and helpful staff made up for it.  For example, the first room we were given had a faulty air conditioning unit, but the front desk staff was apologetic and immediately gave us a different room. Our toilet made a whistling noise after flushing, but it wasn't bothersome enough to report at the time.  I let them know at checkout - they were truly appreciative for the information, and recorded it...so I had the sense that they make the effort to address problems.  Our bed was comfortable, and our room was quiet. Lots of convenient amenities (microwave, fridge, ironing board, hair dryer), very clean bathroom.  And an exceptional breakfast buffet.  I would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r2295493-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>2295493</t>
+  </si>
+  <si>
+    <t>07/13/2004</t>
+  </si>
+  <si>
+    <t>Chase Suites Hotel Fullerton</t>
+  </si>
+  <si>
+    <t>The hotel is okay.  The beds could use some new mattresses.  Additionally, I happened to notice that something was moving by my husband's shoes on the floor.  I thought it was a spider but when I took a closer look I discovered that it was a cockroach.  I seriously doubt that we will stay there again.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2990,6511 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>155</v>
+      </c>
+      <c r="X13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>234</v>
+      </c>
+      <c r="X23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>251</v>
+      </c>
+      <c r="J26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" t="s">
+        <v>253</v>
+      </c>
+      <c r="L26" t="s">
+        <v>254</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>255</v>
+      </c>
+      <c r="X26" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" t="s">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s">
+        <v>262</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>263</v>
+      </c>
+      <c r="O27" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>264</v>
+      </c>
+      <c r="X27" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K28" t="s">
+        <v>270</v>
+      </c>
+      <c r="L28" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>277</v>
+      </c>
+      <c r="J29" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s">
+        <v>280</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>281</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>282</v>
+      </c>
+      <c r="X29" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>290</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>291</v>
+      </c>
+      <c r="X30" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>299</v>
+      </c>
+      <c r="X31" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>303</v>
+      </c>
+      <c r="J32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K32" t="s">
+        <v>305</v>
+      </c>
+      <c r="L32" t="s">
+        <v>306</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>307</v>
+      </c>
+      <c r="X32" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>315</v>
+      </c>
+      <c r="X33" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>323</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>324</v>
+      </c>
+      <c r="X34" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>331</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>332</v>
+      </c>
+      <c r="X35" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K36" t="s">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s">
+        <v>339</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>340</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>341</v>
+      </c>
+      <c r="X36" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>345</v>
+      </c>
+      <c r="J37" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" t="s">
+        <v>347</v>
+      </c>
+      <c r="L37" t="s">
+        <v>348</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>349</v>
+      </c>
+      <c r="O37" t="s">
+        <v>350</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>351</v>
+      </c>
+      <c r="X37" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>354</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>355</v>
+      </c>
+      <c r="J38" t="s">
+        <v>356</v>
+      </c>
+      <c r="K38" t="s">
+        <v>357</v>
+      </c>
+      <c r="L38" t="s">
+        <v>358</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>359</v>
+      </c>
+      <c r="O38" t="s">
+        <v>81</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>360</v>
+      </c>
+      <c r="X38" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>364</v>
+      </c>
+      <c r="J39" t="s">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39" t="s">
+        <v>367</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>359</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>368</v>
+      </c>
+      <c r="X39" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" t="s">
+        <v>373</v>
+      </c>
+      <c r="K40" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" t="s">
+        <v>375</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>376</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>368</v>
+      </c>
+      <c r="X40" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>378</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>379</v>
+      </c>
+      <c r="J41" t="s">
+        <v>380</v>
+      </c>
+      <c r="K41" t="s">
+        <v>381</v>
+      </c>
+      <c r="L41" t="s">
+        <v>382</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>383</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>384</v>
+      </c>
+      <c r="X41" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>388</v>
+      </c>
+      <c r="J42" t="s">
+        <v>389</v>
+      </c>
+      <c r="K42" t="s">
+        <v>390</v>
+      </c>
+      <c r="L42" t="s">
+        <v>391</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>392</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>393</v>
+      </c>
+      <c r="X42" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K43" t="s">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s">
+        <v>400</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>401</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>402</v>
+      </c>
+      <c r="X43" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>405</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>406</v>
+      </c>
+      <c r="J44" t="s">
+        <v>407</v>
+      </c>
+      <c r="K44" t="s">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s">
+        <v>409</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>410</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>411</v>
+      </c>
+      <c r="X44" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>414</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>415</v>
+      </c>
+      <c r="J45" t="s">
+        <v>416</v>
+      </c>
+      <c r="K45" t="s">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s">
+        <v>418</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>419</v>
+      </c>
+      <c r="X45" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>423</v>
+      </c>
+      <c r="J46" t="s">
+        <v>424</v>
+      </c>
+      <c r="K46" t="s">
+        <v>425</v>
+      </c>
+      <c r="L46" t="s">
+        <v>426</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>427</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>428</v>
+      </c>
+      <c r="X46" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>431</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>432</v>
+      </c>
+      <c r="J47" t="s">
+        <v>433</v>
+      </c>
+      <c r="K47" t="s">
+        <v>434</v>
+      </c>
+      <c r="L47" t="s">
+        <v>435</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>436</v>
+      </c>
+      <c r="O47" t="s">
+        <v>109</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>437</v>
+      </c>
+      <c r="X47" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>440</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>441</v>
+      </c>
+      <c r="J48" t="s">
+        <v>442</v>
+      </c>
+      <c r="K48" t="s">
+        <v>443</v>
+      </c>
+      <c r="L48" t="s">
+        <v>444</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>436</v>
+      </c>
+      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>437</v>
+      </c>
+      <c r="X48" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>446</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>447</v>
+      </c>
+      <c r="J49" t="s">
+        <v>448</v>
+      </c>
+      <c r="K49" t="s">
+        <v>449</v>
+      </c>
+      <c r="L49" t="s">
+        <v>450</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>436</v>
+      </c>
+      <c r="O49" t="s">
+        <v>118</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>451</v>
+      </c>
+      <c r="X49" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>454</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>455</v>
+      </c>
+      <c r="J50" t="s">
+        <v>456</v>
+      </c>
+      <c r="K50" t="s">
+        <v>457</v>
+      </c>
+      <c r="L50" t="s">
+        <v>458</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>459</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>460</v>
+      </c>
+      <c r="X50" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>463</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>464</v>
+      </c>
+      <c r="J51" t="s">
+        <v>465</v>
+      </c>
+      <c r="K51" t="s">
+        <v>466</v>
+      </c>
+      <c r="L51" t="s">
+        <v>467</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>468</v>
+      </c>
+      <c r="O51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>469</v>
+      </c>
+      <c r="X51" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>472</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>474</v>
+      </c>
+      <c r="K52" t="s">
+        <v>475</v>
+      </c>
+      <c r="L52" t="s">
+        <v>476</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O52" t="s">
+        <v>109</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>477</v>
+      </c>
+      <c r="X52" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>480</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>481</v>
+      </c>
+      <c r="J53" t="s">
+        <v>482</v>
+      </c>
+      <c r="K53" t="s">
+        <v>483</v>
+      </c>
+      <c r="L53" t="s">
+        <v>484</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>485</v>
+      </c>
+      <c r="O53" t="s">
+        <v>350</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>486</v>
+      </c>
+      <c r="X53" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>489</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>490</v>
+      </c>
+      <c r="J54" t="s">
+        <v>491</v>
+      </c>
+      <c r="K54" t="s">
+        <v>492</v>
+      </c>
+      <c r="L54" t="s">
+        <v>493</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>485</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>494</v>
+      </c>
+      <c r="X54" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>497</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>498</v>
+      </c>
+      <c r="J55" t="s">
+        <v>499</v>
+      </c>
+      <c r="K55" t="s">
+        <v>500</v>
+      </c>
+      <c r="L55" t="s">
+        <v>501</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>502</v>
+      </c>
+      <c r="O55" t="s">
+        <v>81</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>494</v>
+      </c>
+      <c r="X55" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>504</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>505</v>
+      </c>
+      <c r="J56" t="s">
+        <v>506</v>
+      </c>
+      <c r="K56" t="s">
+        <v>507</v>
+      </c>
+      <c r="L56" t="s">
+        <v>508</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>509</v>
+      </c>
+      <c r="O56" t="s">
+        <v>81</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>510</v>
+      </c>
+      <c r="X56" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>513</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>514</v>
+      </c>
+      <c r="J57" t="s">
+        <v>515</v>
+      </c>
+      <c r="K57" t="s">
+        <v>516</v>
+      </c>
+      <c r="L57" t="s">
+        <v>517</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>509</v>
+      </c>
+      <c r="O57" t="s">
+        <v>350</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>518</v>
+      </c>
+      <c r="X57" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>521</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>522</v>
+      </c>
+      <c r="J58" t="s">
+        <v>523</v>
+      </c>
+      <c r="K58" t="s">
+        <v>524</v>
+      </c>
+      <c r="L58" t="s">
+        <v>525</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>509</v>
+      </c>
+      <c r="O58" t="s">
+        <v>81</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>526</v>
+      </c>
+      <c r="X58" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>529</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>530</v>
+      </c>
+      <c r="J59" t="s">
+        <v>531</v>
+      </c>
+      <c r="K59" t="s">
+        <v>532</v>
+      </c>
+      <c r="L59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>534</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>535</v>
+      </c>
+      <c r="X59" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>538</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>539</v>
+      </c>
+      <c r="J60" t="s">
+        <v>540</v>
+      </c>
+      <c r="K60" t="s">
+        <v>541</v>
+      </c>
+      <c r="L60" t="s">
+        <v>542</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>543</v>
+      </c>
+      <c r="X60" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>546</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>547</v>
+      </c>
+      <c r="J61" t="s">
+        <v>548</v>
+      </c>
+      <c r="K61" t="s">
+        <v>549</v>
+      </c>
+      <c r="L61" t="s">
+        <v>550</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>551</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>552</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>553</v>
+      </c>
+      <c r="J62" t="s">
+        <v>554</v>
+      </c>
+      <c r="K62" t="s">
+        <v>555</v>
+      </c>
+      <c r="L62" t="s">
+        <v>556</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>557</v>
+      </c>
+      <c r="O62" t="s">
+        <v>109</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>558</v>
+      </c>
+      <c r="X62" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>561</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>562</v>
+      </c>
+      <c r="J63" t="s">
+        <v>563</v>
+      </c>
+      <c r="K63" t="s">
+        <v>564</v>
+      </c>
+      <c r="L63" t="s">
+        <v>565</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>566</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>567</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>568</v>
+      </c>
+      <c r="J64" t="s">
+        <v>569</v>
+      </c>
+      <c r="K64" t="s">
+        <v>570</v>
+      </c>
+      <c r="L64" t="s">
+        <v>571</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>572</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>573</v>
+      </c>
+      <c r="J65" t="s">
+        <v>574</v>
+      </c>
+      <c r="K65" t="s">
+        <v>575</v>
+      </c>
+      <c r="L65" t="s">
+        <v>576</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>577</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>578</v>
+      </c>
+      <c r="X65" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>581</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>582</v>
+      </c>
+      <c r="J66" t="s">
+        <v>583</v>
+      </c>
+      <c r="K66" t="s">
+        <v>584</v>
+      </c>
+      <c r="L66" t="s">
+        <v>585</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>577</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>578</v>
+      </c>
+      <c r="X66" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>587</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>588</v>
+      </c>
+      <c r="J67" t="s">
+        <v>589</v>
+      </c>
+      <c r="K67" t="s">
+        <v>590</v>
+      </c>
+      <c r="L67" t="s">
+        <v>591</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>577</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>592</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>593</v>
+      </c>
+      <c r="J68" t="s">
+        <v>594</v>
+      </c>
+      <c r="K68" t="s">
+        <v>595</v>
+      </c>
+      <c r="L68" t="s">
+        <v>596</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>597</v>
+      </c>
+      <c r="O68" t="s">
+        <v>109</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>598</v>
+      </c>
+      <c r="X68" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>601</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>602</v>
+      </c>
+      <c r="J69" t="s">
+        <v>603</v>
+      </c>
+      <c r="K69" t="s">
+        <v>604</v>
+      </c>
+      <c r="L69" t="s">
+        <v>605</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>606</v>
+      </c>
+      <c r="O69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>607</v>
+      </c>
+      <c r="X69" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>610</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>611</v>
+      </c>
+      <c r="J70" t="s">
+        <v>612</v>
+      </c>
+      <c r="K70" t="s">
+        <v>613</v>
+      </c>
+      <c r="L70" t="s">
+        <v>614</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>615</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>607</v>
+      </c>
+      <c r="X70" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>617</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>618</v>
+      </c>
+      <c r="J71" t="s">
+        <v>619</v>
+      </c>
+      <c r="K71" t="s">
+        <v>620</v>
+      </c>
+      <c r="L71" t="s">
+        <v>621</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>622</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>623</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>624</v>
+      </c>
+      <c r="J72" t="s">
+        <v>625</v>
+      </c>
+      <c r="K72" t="s">
+        <v>626</v>
+      </c>
+      <c r="L72" t="s">
+        <v>627</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>628</v>
+      </c>
+      <c r="O72" t="s">
+        <v>109</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>629</v>
+      </c>
+      <c r="X72" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>632</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>633</v>
+      </c>
+      <c r="J73" t="s">
+        <v>634</v>
+      </c>
+      <c r="K73" t="s">
+        <v>635</v>
+      </c>
+      <c r="L73" t="s">
+        <v>636</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>637</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>629</v>
+      </c>
+      <c r="X73" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>639</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>640</v>
+      </c>
+      <c r="J74" t="s">
+        <v>641</v>
+      </c>
+      <c r="K74" t="s">
+        <v>642</v>
+      </c>
+      <c r="L74" t="s">
+        <v>643</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>644</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>645</v>
+      </c>
+      <c r="X74" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>648</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>649</v>
+      </c>
+      <c r="J75" t="s">
+        <v>650</v>
+      </c>
+      <c r="K75" t="s">
+        <v>651</v>
+      </c>
+      <c r="L75" t="s">
+        <v>652</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>644</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>645</v>
+      </c>
+      <c r="X75" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>654</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>655</v>
+      </c>
+      <c r="J76" t="s">
+        <v>650</v>
+      </c>
+      <c r="K76" t="s">
+        <v>656</v>
+      </c>
+      <c r="L76" t="s">
+        <v>657</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>637</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>658</v>
+      </c>
+      <c r="X76" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>661</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>662</v>
+      </c>
+      <c r="J77" t="s">
+        <v>663</v>
+      </c>
+      <c r="K77" t="s">
+        <v>664</v>
+      </c>
+      <c r="L77" t="s">
+        <v>665</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>637</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>666</v>
+      </c>
+      <c r="X77" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>669</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>670</v>
+      </c>
+      <c r="J78" t="s">
+        <v>671</v>
+      </c>
+      <c r="K78" t="s">
+        <v>672</v>
+      </c>
+      <c r="L78" t="s">
+        <v>673</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>637</v>
+      </c>
+      <c r="O78" t="s">
+        <v>109</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>674</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>675</v>
+      </c>
+      <c r="J79" t="s">
+        <v>676</v>
+      </c>
+      <c r="K79" t="s">
+        <v>677</v>
+      </c>
+      <c r="L79" t="s">
+        <v>678</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>679</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>680</v>
+      </c>
+      <c r="X79" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>683</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>684</v>
+      </c>
+      <c r="J80" t="s">
+        <v>685</v>
+      </c>
+      <c r="K80" t="s">
+        <v>686</v>
+      </c>
+      <c r="L80" t="s">
+        <v>687</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>688</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>680</v>
+      </c>
+      <c r="X80" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>690</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>691</v>
+      </c>
+      <c r="J81" t="s">
+        <v>692</v>
+      </c>
+      <c r="K81" t="s">
+        <v>693</v>
+      </c>
+      <c r="L81" t="s">
+        <v>694</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>679</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>695</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>696</v>
+      </c>
+      <c r="J82" t="s">
+        <v>697</v>
+      </c>
+      <c r="K82" t="s">
+        <v>698</v>
+      </c>
+      <c r="L82" t="s">
+        <v>699</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>679</v>
+      </c>
+      <c r="O82" t="s">
+        <v>109</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>700</v>
+      </c>
+      <c r="X82" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>703</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>704</v>
+      </c>
+      <c r="J83" t="s">
+        <v>705</v>
+      </c>
+      <c r="K83" t="s">
+        <v>706</v>
+      </c>
+      <c r="L83" t="s">
+        <v>707</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>708</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>709</v>
+      </c>
+      <c r="X83" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>712</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>713</v>
+      </c>
+      <c r="J84" t="s">
+        <v>714</v>
+      </c>
+      <c r="K84" t="s">
+        <v>715</v>
+      </c>
+      <c r="L84" t="s">
+        <v>716</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>717</v>
+      </c>
+      <c r="O84" t="s">
+        <v>81</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>718</v>
+      </c>
+      <c r="X84" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>721</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>722</v>
+      </c>
+      <c r="J85" t="s">
+        <v>723</v>
+      </c>
+      <c r="K85" t="s">
+        <v>724</v>
+      </c>
+      <c r="L85" t="s">
+        <v>725</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>726</v>
+      </c>
+      <c r="O85" t="s">
+        <v>109</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>727</v>
+      </c>
+      <c r="X85" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>730</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>731</v>
+      </c>
+      <c r="J86" t="s">
+        <v>732</v>
+      </c>
+      <c r="K86" t="s">
+        <v>733</v>
+      </c>
+      <c r="L86" t="s">
+        <v>734</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>735</v>
+      </c>
+      <c r="O86" t="s">
+        <v>81</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>736</v>
+      </c>
+      <c r="X86" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>739</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>740</v>
+      </c>
+      <c r="J87" t="s">
+        <v>741</v>
+      </c>
+      <c r="K87" t="s">
+        <v>60</v>
+      </c>
+      <c r="L87" t="s">
+        <v>742</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>743</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>736</v>
+      </c>
+      <c r="X87" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>745</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>746</v>
+      </c>
+      <c r="J88" t="s">
+        <v>747</v>
+      </c>
+      <c r="K88" t="s">
+        <v>748</v>
+      </c>
+      <c r="L88" t="s">
+        <v>749</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>750</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>736</v>
+      </c>
+      <c r="X88" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>752</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>753</v>
+      </c>
+      <c r="J89" t="s">
+        <v>754</v>
+      </c>
+      <c r="K89" t="s">
+        <v>755</v>
+      </c>
+      <c r="L89" t="s">
+        <v>756</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>757</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>759</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>760</v>
+      </c>
+      <c r="J90" t="s">
+        <v>761</v>
+      </c>
+      <c r="K90" t="s">
+        <v>762</v>
+      </c>
+      <c r="L90" t="s">
+        <v>763</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>757</v>
+      </c>
+      <c r="O90" t="s">
+        <v>109</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>765</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>766</v>
+      </c>
+      <c r="J91" t="s">
+        <v>767</v>
+      </c>
+      <c r="K91" t="s">
+        <v>768</v>
+      </c>
+      <c r="L91" t="s">
+        <v>769</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>770</v>
+      </c>
+      <c r="O91" t="s">
+        <v>118</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>771</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>772</v>
+      </c>
+      <c r="J92" t="s">
+        <v>773</v>
+      </c>
+      <c r="K92" t="s">
+        <v>774</v>
+      </c>
+      <c r="L92" t="s">
+        <v>775</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>770</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>776</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>777</v>
+      </c>
+      <c r="J93" t="s">
+        <v>778</v>
+      </c>
+      <c r="K93" t="s">
+        <v>779</v>
+      </c>
+      <c r="L93" t="s">
+        <v>780</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>770</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>781</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>782</v>
+      </c>
+      <c r="J94" t="s">
+        <v>783</v>
+      </c>
+      <c r="K94" t="s">
+        <v>784</v>
+      </c>
+      <c r="L94" t="s">
+        <v>785</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>786</v>
+      </c>
+      <c r="O94" t="s">
+        <v>109</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>787</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>788</v>
+      </c>
+      <c r="J95" t="s">
+        <v>789</v>
+      </c>
+      <c r="K95" t="s">
+        <v>790</v>
+      </c>
+      <c r="L95" t="s">
+        <v>791</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>792</v>
+      </c>
+      <c r="O95" t="s">
+        <v>81</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>794</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>795</v>
+      </c>
+      <c r="J96" t="s">
+        <v>796</v>
+      </c>
+      <c r="K96" t="s">
+        <v>797</v>
+      </c>
+      <c r="L96" t="s">
+        <v>798</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>799</v>
+      </c>
+      <c r="O96" t="s">
+        <v>109</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>801</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>802</v>
+      </c>
+      <c r="J97" t="s">
+        <v>803</v>
+      </c>
+      <c r="K97" t="s">
+        <v>804</v>
+      </c>
+      <c r="L97" t="s">
+        <v>805</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>27017</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>807</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>808</v>
+      </c>
+      <c r="J98" t="s">
+        <v>809</v>
+      </c>
+      <c r="K98" t="s">
+        <v>810</v>
+      </c>
+      <c r="L98" t="s">
+        <v>811</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_356.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_356.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="903">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Nancy K</t>
+  </si>
+  <si>
     <t>07/03/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I stayed here with my rugby team for collegiate Final Fours. The rooms were gorgeous and spacious, the ones with Jacuzzis were great, and the breakfast was fresh and great tasting. Everyone working there was super friendly, and the whole place just made you feel like home. A great place to stay in Fullerton!More</t>
   </si>
   <si>
+    <t>Allena H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r572974603-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I stayed at this hotel for one night and it great.  The room was clean, staff courteous and friendly.  The breakfast was good.  I would recommend this hotel for anyone going to the area.  Bar was great too.More</t>
   </si>
   <si>
+    <t>mkampman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r566187186-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>This Holiday Inn was a great experience! I loved the in-room jacuzzi for relaxing after a long day of work. The breakfast buffet was perfect and quite delicious. The rooms were clean and bed was very comfortable. The staff was very friendly with an easy check-in/out. Highly recommend!More</t>
   </si>
   <si>
+    <t>JerseyShoreGma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r530577387-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>We stayed here because friends we were meeting had a free room from the rewards program. It's located right by a highway, surrounded by a gas station, Denny's, and Mexican food restaurant. Our room was clean, comfortable and quiet, but others in our group experienced a loud party. One couple had a suite near the pool and had to move as the window was taped into place with clear tape, and the view from the room was directly into the faces or rear-ends of sunbathers! So avoid the 2nd floor near the pool. We ate breakfast at the hotel as a number of us was traveling together and it was a convenient meeting place, but expensive.More</t>
   </si>
   <si>
+    <t>Shan N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r491810934-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>The lobby is welcoming and the staff member who checked me in was great. Other than that, I didn't enjoy my stay. The location was next to Dennys and there were view dining options. I was upgraded to a spa room and it had the strangest layout I've ever seen. The first thing I noticed was there were no lights in the ceiling. I'm walking around my oval shaped room and had to turn on the few lamps for light. I sat at the dining table trying to eat and work in the dark with the only light coming from outside. There were no lights in this room. It was inconvenient for a business traveler...I could see a family going to Disneyland loving it though. The internet is SLOW. Painfully slow. I had an emergency when my file crashed at 10:00pm and had to use the business office. I was able to download my file to my thumbnail drive. However, I needed a password to retrieve it. Seriously???  The staff at the desk told me I had to wait until 8 am for the manager to show up because he had the password. What is the purpose of a business center if I couldn't take care of a simple need??I couldn't leave fast enough in the morning. More</t>
   </si>
   <si>
+    <t>convie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r484546809-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>Stayed here couple of days. Unfortunately did not use any of the facilities. Check in was smooth and pleasant staff. Room was spacious and well laid out. No complains. Check out was good. Would rate the hotel as a standard Holiday Inn.More</t>
   </si>
   <si>
+    <t>Donald988</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r457458818-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t>This is our second time at this location- it was Christmas eve- and once again the staff here exceeded our expectations. Jasmine at the front desk understands customer service. Milo, who worked the full service bar, truly deserves special recognition! We stayed in a Jacuzzi room (well worth it!) which was very spacious, very clean and with new fixtures and furniture. A comfortable bed with a modern mattress, large TV with plenty of channels, WiFi, microwave, fridge, hair dryer. Did I say clean and modern?  Everything you come to expect in a room these days.. ...and free coffee in the lobby area which has the on site restaurant and bar. When we are in Titan Country, this is our stay of choice!  For just under $150 a night.More</t>
   </si>
   <si>
+    <t>Leigh E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r446193498-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -384,6 +408,9 @@
     <t>milo at the bar is great ...he was really attentive and great to talk to. as is the front desk host leigh. customer service at its best. parking is free and the hotel is really really central to everything. More</t>
   </si>
   <si>
+    <t>pecose08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r439550495-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -411,6 +438,9 @@
     <t>I stayed at this Hotel in a Jacuzzi suite for an anniversary.  Pros: The staff was beyond friendly, offered early check in and always addressed our needs. The room itself was spacious and very clean. The breakfast buffet was delicious with accommodating times, there was covered parking available.  The lobby was modern and very tidy. The premises were quite.  Near many kinds of eateries and late night (and all night) dining.  Small but well equipped business center. Cons: Only one (and its a minor thing); the view from the room was of parking lots for restaurants...but that's the only draw back I found.Loved this place!  Will certainly book again!More</t>
   </si>
   <si>
+    <t>babarsaeed76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r411921317-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -438,6 +468,9 @@
     <t>I stayed with my family from august 12 to 16 and we had reserved three rooms. Two rooms (212 and 214) on third floor smelled like sewer because they cleaned 3rd floor. We had terrible experience and would not recommend this place to anyone.More</t>
   </si>
   <si>
+    <t>kayzzze2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r398105254-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -465,6 +498,9 @@
     <t>I visit here for business about every quarter and I am always surprised at the hotel.  The rooms are large, large spa in every room I've had both the suites and the regular room. Always clean and just right.  Free breakfast, it's not gourmet but good enough to get you to work and always like fresh fruit and crispy bacon.  They really have everything you need including a nice bar and evening drink coupon.  I've had dinner there and it was really good, again not over the top just good and very reasonable.More</t>
   </si>
   <si>
+    <t>ChuckDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r384153717-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -492,6 +528,9 @@
     <t>The staff is very nice and personable and parking is free. There is breakfast in the AM and if you don't have a voucher it's only $11/ person and the food is good. There is a Denny's nearby (walking distance) if you wanted to spend less $$. There is a nice pool but shade can be a problem since there are no umbrellas. The business center works.The ride to Disneyland is about 15 minutes outside traffic hours. The rooms seem to have been recently re-vamped, they are nice. We had a room w/ a view of the 57N Freeway and there was no sound, so the sound proofing is very good. My only complaint is that the internet service was "iffy". We were there for 4 days and used multiple devices so that might have been part of the issue. I was constantly having to reconnect devices to the internet, in the AM when everyone awoke, in the PM when we returned from Disneyland, in the evening when we returned from dinner. Not a big deal but rather annoying.More</t>
   </si>
   <si>
+    <t>sandymccluskey1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r361179410-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -516,6 +555,9 @@
     <t>Very impressed with the suite we had....King Bed...Living room...large bathroom with glass spotless shower....and then a big heart shaped Jacuzzi in the bathroom....Room was as clean as you can get...My only negative is the jacuzzi's safety...some type of hand grip should be installed to get in and out safely...as once in you might not be able to get out....Floor can also get very slippery...Restaurant and Bar very nice and good at the Hotel...More</t>
   </si>
   <si>
+    <t>JB101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r357977297-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -534,6 +576,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>bsmith6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r357388488-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -558,6 +603,9 @@
     <t>My husband and I only live a few miles from Fullerton, but we wanted to get a away for a couple of days for our anniversary. We planned to go to Disneyland. Staying in Fullerton was much more reasonable than staying closer to Disneyland. This Holiday Inn is right next to the freeway. Front desk was friendly and had no complaints about the room. If you stay here be sure to walk next door to the strip mall and eat at Leadbelly's BBQ. Some of the best I have ever had. They are small and can be busy, but worth the wait.More</t>
   </si>
   <si>
+    <t>38allovertheplace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r351555925-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -585,6 +633,9 @@
     <t>There are many options within the area and I will look to another location when returning to Anaheim.  The location is just off the interstate in a Denny's/small strip mall parking lot, parking to check in can be congested.  Upon entry to the lobby it is clean and welcoming with a nice bar area and small breakfast dining area.  Check in was smooth and the management were very friendly.  The room was clean but the old style window conditioning unit needs to go.  The gym/pool area seems to be a 1980's thought in which only 1-2 people were working out at the same time, really tight for even two people and located in an outdoor rooftop atrium that communicates at times with the smokers on their balconies of their rooms.  Dining/Breakfast can occur for you and your guests at a charge, which I do not mind but the quality was typical with reconstituted eggs and microwave items.There are many other options to choose from with better locations in the area for the money.More</t>
   </si>
   <si>
+    <t>Dan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r347655535-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Mere75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r338178901-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -630,6 +684,9 @@
     <t>To begin...I am a travel agent and did request an agent rate which was $128...butdid not expect to be placed in a room with just a small shower and no vanity space.Blower for heat made a low noise all night.  In the morning was advised that the breakfast buffet would be $10.95 and by 9am...there was just leftover crusty eggs etcThere is a Denny's next door.  I am sorry I have stayed in nicer Holiday Inn Express.I do not feel that this should received such a high recommendation.More</t>
   </si>
   <si>
+    <t>Mary V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r322022917-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -657,6 +714,9 @@
     <t>I was in Fullerton for a conference and this hotel was offered as the one to stay in. A rather crowded lobby layout that included a restaurant, bar and not a lot of other room to network, but the hotel staff was exemplary, the room clean and the bed extraordinarily comfortable. I would stay here again.More</t>
   </si>
   <si>
+    <t>MDWDFW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r321012357-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -684,6 +744,9 @@
     <t>Came out to southern California for two separate work events this past spring in Cerritos.  Only stayed in Fullerton due to a couple of closer hotel being booked... and I enjoyed my stay so much in April that I booked it again when I came out for my second week in June.  Took advantage of the complementary drinks at the restaurant downstairs most of my nights there.  Friendly staff, and they upgraded my room to a suite at no charge on my second stay.  Put the hot tub in the room to good use, as well.  Clean rooms, comfortable sleep.  And I was in the room closest to the 57, and sound from the freeway was never an issue.Nothing of note within walking distance, but college restaurants were just across the freeway around the Cal-State Fullerton campus, and there are numerous restaurants and shopping one exit north in Brea, which I took advantage of.  There were grocery stores a super quick drive away, too, that I used to stock my room for the week.Only a 10 minute drive from Disneyland, too, as I met up with some friends my last night there.  Everything I needed for a great week away from home.More</t>
   </si>
   <si>
+    <t>JennyTSantaAna_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r320769173-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -702,6 +765,9 @@
     <t>EVERYBODY at the hotel was as nice and helpful as can be!  I commend the staff all the way around. I had a scrapbooking retreat there [20 of us] and used not only many rooms, but one of the ballrooms too.  Everything was clean, set up nicely and they periodically, discreetly checked in to see that everything was ok. The hotel rooms were quiet, food was good and all was in order.  To be fair, we had a little trouble w/ the elevator getting all our stuff up the half flight to the ballroom, but we eventually got the system down ok. We'll be back!  Did I mention how nice everybody was???More</t>
   </si>
   <si>
+    <t>Bugnya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r300679832-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -729,6 +795,9 @@
     <t>Great location - right off the freeway and 30+ min to LA.   Rooms are clean and well kept, check in is a breeze, however parking is tricky.  There's not much parking in the lot so you have to travel up the ramp and park.  It's cooler in there anyhow.Love the bathroom decor - sleek modern granite with wood looking porcelain tile and standup shower.   We had a fancy jacuzzi tub in our room that we did not use but you could hear someone filling theirs up (think 1/2 hour of filling up a tub) and that was annoying, but hey, that's what they are there for.  You do have to climb into the tub from the bathoom door.Try the great BBQ joint across the plaza, you will be glad you did.More</t>
   </si>
   <si>
+    <t>sunnysandi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r299636811-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -753,6 +822,9 @@
     <t>We transferred to this hotel at the end of our vacation for a three night stay. After being unable to sleep, due to the lack of a/c in our room we were renting in someone's home, this hotel was exactly what we needed !!Large, immaculate room, complete with jacuzzi, very comfortable bed and air conditioning that worked! We also were very impressed with all staff here and the breakfast buffet had plenty of choice.As others have mentioned this hotel is next to a Denny's and a gas station.We would definitely return when next in the area.More</t>
   </si>
   <si>
+    <t>tricia t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r291612351-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -768,6 +840,9 @@
     <t>Great location for an overnight in connection with the nearby sport centers, Angel Stadium of Anaheim (MLB's Anaheim Angels &amp; Supercross) and the Honda Center (Anaheim Ducks). Fabulous staff, Nice property and Convenient Location</t>
   </si>
   <si>
+    <t>snootycoot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r277513183-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -792,6 +867,9 @@
     <t>The hotel is somewhat nice on the inside. The outside is okay. The location is squirreled in by a few chain restaurants. I won't get into the check in as I'm not clear on what the real problem was but let's just say it took a while. Upon check in the room I got had been smoked in (in a non smoking hotel)so had to go back down and get another room. That worked. The next day the iron didn't work had to call and get a new one brought up. Upon check out they couldn't give me a receipt due to the way the room was booked. I don't know but just a hassle from the beginning.  That's the last strike for me. Not staying here again. More</t>
   </si>
   <si>
+    <t>Suezmike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r273854197-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -819,6 +897,9 @@
     <t>This hotel was just perfect for our get away.  The room was huge and well laid out.  I love the bath and body works line and it was great to see they supply this line for toiletries.The bed and pillows were super comfy and the hot tub was large and very clean. We went to the lounge both nights we were there.  The friendly staff on the first night was the reason we came back on the second night.  Both the bartender and bar back were so friendly and offered suggestions on places to go that they thought we would enjoy.  Overall a great stay for our romantic get away.More</t>
   </si>
   <si>
+    <t>JOANIEMILLER</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r270631694-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -846,6 +927,9 @@
     <t>Very clean, immaculate room. Late check out at 2pm for free! Excellent breakfast buffet. Service was superior. I didn't know that if you sign up for Hilton Honors Rewards card for free, that you are offered late check out free of charge.  Also, you get special offers when you sign up. Overall, excellent experience. Will return again.More</t>
   </si>
   <si>
+    <t>sierra1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r255279451-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -873,6 +957,9 @@
     <t>My two teen/young adult kids and I stayed here for five nights in December while visiting family over Christmas.  We had a room with two queens, and it was very large.  I had requested an upper floor room, away from the elevators, and this request was honored. We looked out over the busy Southern California freeway, but we didn't hear any freeway noise. Room was very clean, and staff friendly.  We didn't eat at the hotel since we were with family during the day and evening.  I thought the winter rate was a great deal, and the only odd thing was the 2.50 parking charge. Internet was easy to access and a good connection. No complaints, and I'm rather particular about my hotel stays.More</t>
   </si>
   <si>
+    <t>GWAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r254340804-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -900,6 +987,9 @@
     <t>I recently had to make a last minute business trip to the Anaheim California area and selected the Holiday Inn Hotel &amp; Suites Fullerton for my stay. I was very pleased with my experience.  Everyone went out of their way to assure my stay was both comfortable and productive.  As a long-time business traveler, I return to hotels where the management and staff truly care about the guest. The team at this hotel exceeded my expectations. I would like to personally thank Dennis Monte (GM) and his team for everything they did for me.  I highly recommend the Holiday Inn Hotel &amp; Suites Fullerton and look forward to returning again on a future visit to the area.More</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r252108817-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -924,6 +1014,9 @@
     <t>I was surprised by the one bedroom suites, very nice, spacious, comfortable, mine even had a hot tub in it. Breakfast in the morning was good with a lot of variety.I had one of the best nights sleep on my 7 day business trip.There is a modest overnight parking charge of $2.50 USD.This Platinum Ambassador would return to this Hotel at the next opportunity.More</t>
   </si>
   <si>
+    <t>Richard H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r244475310-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -948,6 +1041,9 @@
     <t>We got a room with a Jacuzzi as a reward after being on the road for a couple of days. Thought it would be relaxing. After running the water for 40 minutes the water level was just up to the bottom of the jets. That was with two of us already in the tub. After another 10 minutes we were able to turn on the jets, but by then the water had cooled off considerable. Front desk personnel were friendly and offered suggestions on places to eat. I recommend that you walk across the parking lot to Leadbelly's Southern-Style Barbecue. The food was the best part of being in Fullerton.More</t>
   </si>
   <si>
+    <t>Ali S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r242546156-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -972,6 +1068,9 @@
     <t>Stayed here for a long weekend in Fullerton. Very conviently located near the freeway and CSU Fullerton. About a 15 min drive to Disneyland. The room was spacious and very clean! The food at the hotel was also good. Overall had a great experience and would stay there again!More</t>
   </si>
   <si>
+    <t>Non P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r241952251-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -999,6 +1098,9 @@
     <t>I wasn't all that happy with my stay at the Holiday Inn in Fullerton.  I will say the hotel was clean and updated with a very friendly staff. The rooms were spacious and the beds were very comfortable. But I stayed on the second floor and some of the rooms on the south side of the hotel (i think south) had a view of a pool which was at the same level of the room I stayed in. I didn't feel safe and I felt like someone could easily peek in the window or break in.  I realize I was just being paranoid but i didn't like it. I also didn't like the shower....the water pressure was very wimpy and the water temperature was barely warm.  I did not like being cold while showering! The toilet was down right comical. It was definitely a super flusher and each time I flushed it I would half way expect the toilet to jump off its base or the lid to fly off it was so powerful!  Obviously all the rooms had super flushers since i could hear loud and obnoxious toilets flushing all throughout the night. The parking was a complete joke especially since I had to pay a daily fee of $2.95 and there were very little spots available. The hotel shares a parking lot with other  businesses and there were signs posted everywhere stating NOT for Holiday Inn guests and...I wasn't all that happy with my stay at the Holiday Inn in Fullerton.  I will say the hotel was clean and updated with a very friendly staff. The rooms were spacious and the beds were very comfortable. But I stayed on the second floor and some of the rooms on the south side of the hotel (i think south) had a view of a pool which was at the same level of the room I stayed in. I didn't feel safe and I felt like someone could easily peek in the window or break in.  I realize I was just being paranoid but i didn't like it. I also didn't like the shower....the water pressure was very wimpy and the water temperature was barely warm.  I did not like being cold while showering! The toilet was down right comical. It was definitely a super flusher and each time I flushed it I would half way expect the toilet to jump off its base or the lid to fly off it was so powerful!  Obviously all the rooms had super flushers since i could hear loud and obnoxious toilets flushing all throughout the night. The parking was a complete joke especially since I had to pay a daily fee of $2.95 and there were very little spots available. The hotel shares a parking lot with other  businesses and there were signs posted everywhere stating NOT for Holiday Inn guests and violators will be towed. One night I had to park in the danger area of being towed.  I told the front desk and they highly recommended I come back down around 10 pm to find an approved parking space. I didn't want to get towed so I did as instructed but what a pain in the butt!!  Would I stay here again?  Probably not....lots of other choices in the area.More</t>
   </si>
   <si>
+    <t>Jim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r231928467-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1023,6 +1125,9 @@
     <t>Don't make a reservation on get a room.com they made a mistake and spelled our name wrong. So when we went to embassy suite. They couldn't find our reservation. It was such a hassle. It took to much of our time when we could've been relaxing in our suite. Don't use getaroom.com. Other then that embassy suite was awesome. I would stay there again. Thank youMore</t>
   </si>
   <si>
+    <t>Glen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r230417601-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1050,6 +1155,9 @@
     <t>A very nice Holiday Inn located only a few miles from Disneyland and other attractions. Visible from the 57 freeway but can't hear the road noise. Excellent service and friendly staff. I'm always disappointed that HI doesn't provide a free breakfast, but did have a restaurant on-site. Also, a Denny's right next door.More</t>
   </si>
   <si>
+    <t>Pamleonard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r219724578-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1080,6 +1188,9 @@
     <t>This hotel is my "go to" hotel when in Orange County. Book early as possible. Seems they are busier than the past times I've been here. I believe the reason is their convenient location to Cal State Fullerton and the activities always going on there and close to Disneyland and other theme parks. But what I love about this hotel is the staff. Many of them have worked at this hotel for years! It makes it a "family" atmosphere. I know many other guests stay as repeat guests too as the staff will call us by name and say "welcome back!"There is always breakfast, from a menu or buffet and it's always nice &amp; convenient to have dinner at the hotel if you've had a busy day while at a theme park or sporting event.I've reviewed this hotel before, but it never disappoints and the staff deserves the Kudos!Oh, I forgot , they have the most comfortable beds of any hotel!!!!! Did I mention in-room jacuzzi in the King bed rooms?More</t>
   </si>
   <si>
+    <t>Marlon R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r211000267-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1107,6 +1218,9 @@
     <t>The check in was very easy, we were also allowed to check in early, which is a plus. The food service at restaurant (57 bar/ grill) was very disappoint​ing . No server, only bartender available for our party of 13!!!!, mind you that we did make a reservatio​n at least 5 hours before at front desk. We waited 20 minutes before our food order was taken, needless to say that my 2 year was not happyr. A total time lapse time of 50 minutes passes by before any of us gets our food!!!, this is unacceptab​le. Worst of all, my 2 year olds mac and cheese was the last dish to come out!!, Correction​, the Caesar salad that my wife to be ordered came out last. The bartender had absolutely no manners, not even a formal greeting, very unprofessi​onal. This was suppose to be a nice family gathering before our wedding, it ended up being a huge disappointment as far as service is concerned. The hotel should have staffed accordingl​y.More</t>
   </si>
   <si>
+    <t>David T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r208357102-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1131,6 +1245,9 @@
     <t>I like Holiday Inn hotels. I'm a reward club member (Gold), which means that I visited quite a number of Holiday Inn hotels. they are usually very comfortable, large rooms and the service is more than reasonable. there is one caveat though, which is a repeating theme at the Holiday Inn hotels, and this one is no exception: their internet is HORRIBLE. for some reason they call it high-topped internet connection. it is anything by speedy. it is slower that dial-in modem. it is a bit faster than total paralysis. so if you are here for the internet, you are bound to be disappointed. if you are here for the amenities and location, it is a great place to be.More</t>
   </si>
   <si>
+    <t>mmtillis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r207758994-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1152,6 +1269,9 @@
     <t>I was hosting my daughters Quinceanera and I chose this hotel for my out of town guests.  Let me say Customer Service was great, no matter how many times I bugged the staff they were always professional and went above and beyond to meet my requests.  I was also upgraded to a Jacuzzi suite since I has so many rooms booked and let me tell you it was great.  Rooms are clean, beds are so comfy and we received the breakfast buffet the next morning and let me tell you it was great.  My whole family was very pleased with the hotel. I will definitely stay again and very soon at that!More</t>
   </si>
   <si>
+    <t>Richard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r196061048-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1179,6 +1299,9 @@
     <t>So The rooms are amazing.  That is always a plus.  The hotel on the inside looks great.  On the inside my complaint was that the 3rd floor constantly smelled like pot and the guy at the front desk could care less.  The neighborhood is bad.  The website makes it sound like it is in the middle of everything.  You don't want to be in the middle of everything going on around there.  I am not saying at all you should not stay here.  I would say you should.  Just be aware of your surroundings.More</t>
   </si>
   <si>
+    <t>Ltlrufo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r194511325-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1206,6 +1329,9 @@
     <t>Not very easy to get to from LAX but that is not their problem. I suggest you fly into John Wayne airport. When I arrived at the hotel I was checked in by a wonderful staff. Room was spacious and very clean. I was in a king suite with a in room jacuzzi. Bed was very comfortable. Went Down to the bar. Small but very well stocked and great prices. Restaurant is great for breakfast with a good selection and a small buffet  I recommend this hotel to any one traveling and staying in the Fullerton area.  More</t>
   </si>
   <si>
+    <t>IIP2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r188116360-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1233,6 +1359,9 @@
     <t>No breakfast  - "the cook didn't show up and we are trying to get the backup to come in".   No offer of compensation.   At least there is a Denny's just outside.  Bartender MIA for the first ten minutes - finally showed up and got me a beer.    Free buffet was stale pretzels and some sort of cold fried food.   Gee thanks.  Room was nice but hot water took a long time to warm up.   Jacuzzi tub for two was a nice feature.   Everything appeared clean.  The front desk staff was friendly and helpful.    Overall if you don't care about food or bar service this place is OK.More</t>
   </si>
   <si>
+    <t>trevor4travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r167807362-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1260,6 +1389,9 @@
     <t>The room was large, and the beds and pillows were comfortable.   We were on the top floor as all two queen rooms are.  I do have a few complaints about this place, although none major.  They charge 2.50 a night for  parking, and you do not get a continental breakfast.  Which to me is abnormal for a Holiday Inn.  Also, the elevators are super slow.  Other then that, the hotel staff was welcoming, and the location was perfect for our trip to looking at colleges in the area.  Also, the hotel is close to Denny's for a cheap  breakfast, or late night snack.  The pool was on the second floor roof deck, and a little bit cold, but it was nice.More</t>
   </si>
   <si>
+    <t>Mariedraper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r167536713-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1284,6 +1416,9 @@
     <t>We stayed 1 night, when I called to verify my room, girl had a bit of an attitude. I was thinking, uh oh.... Rooms were small, dirty. Air conditioning vents were very dusty. I guess to save money, they keep the air off. When we got in the room it was HOT. It took a good half hour for the room to cool down, it was horrible. Then we asked for extra towels, they never came and we called twice.  Then I waited till the next morning, to ask for towels, the old guy told me I had to go downstairs and get them myself. I told him no, then he said I'll take them up and before I could thank him, he hung up on me. Breakfast, hmmm. So not worth $9.99. I could tell this place is very cheap with everything. They bring out food only when there is nothing left, which means we have to wait. Then they bring out a bit at a time. Juices are not cold, they have them in a carafe sitting out in a bowl with ice. Service is bad, they stayed in the kitchen talking most of the time. She never cleared our plates. She was not friendly at all. Oh but beds were comfy. We requested a late check out and the maids came by twice, they wanted us out. So we felt rushed And it was not 1 yet!...We stayed 1 night, when I called to verify my room, girl had a bit of an attitude. I was thinking, uh oh.... Rooms were small, dirty. Air conditioning vents were very dusty. I guess to save money, they keep the air off. When we got in the room it was HOT. It took a good half hour for the room to cool down, it was horrible. Then we asked for extra towels, they never came and we called twice.  Then I waited till the next morning, to ask for towels, the old guy told me I had to go downstairs and get them myself. I told him no, then he said I'll take them up and before I could thank him, he hung up on me. Breakfast, hmmm. So not worth $9.99. I could tell this place is very cheap with everything. They bring out food only when there is nothing left, which means we have to wait. Then they bring out a bit at a time. Juices are not cold, they have them in a carafe sitting out in a bowl with ice. Service is bad, they stayed in the kitchen talking most of the time. She never cleared our plates. She was not friendly at all. Oh but beds were comfy. We requested a late check out and the maids came by twice, they wanted us out. So we felt rushed And it was not 1 yet! All in all, soooo not worth $153! The owner should understand "little things count". More</t>
   </si>
   <si>
+    <t>Loretts1977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r165983742-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1338,6 +1473,9 @@
     <t>WE spent four nights here and found the staff to be very attentive and the service excellent.  Our room had a jacuzzi which was a great thing after long days fo running around the Los Angeles area.  The breakfast was better than average with attentive staff.  Located next to the 57 freeway, it was convenient to get anywhere without wandering around on the streets very much.More</t>
   </si>
   <si>
+    <t>Cheryl W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r162236799-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1356,6 +1494,9 @@
     <t>Great hotel! Very Friendly staff! Rooms were very large and clean. Looked to be recently renovated. We had a King Suite. Close to restaurants, next to freeway but noise was not a problem.They did offer a breakfast for a charge, did not use it. Great breakfast burritos next door at Pepe's. Very close to Cal State Fullerton which is why we came for a Graduation.More</t>
   </si>
   <si>
+    <t>Derek I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r161642738-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1380,6 +1521,9 @@
     <t>This is my 2nd time staying at this hotel.  I love the jacuzzi tub.  The room was fairly quiet as far as hotels go.  The staff was amazing.  The shuttle was able to take me to rent a car since Enterprise couldn't pick me up.  The cleaning service took care of the room every day, despite me wanting to sleep in a few days till 11am.  I got the drain jammed in the hot tub and the cleaning crew let maintenance know.  After they fixed it, the cleaning person came back to clean the tub for me. Very impressive.  I'm now a loyal customer of this hotel any time I visit the Fullerton area.More</t>
   </si>
   <si>
+    <t>Milwgirl24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r155544426-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1407,6 +1551,9 @@
     <t>The hotel was fine, just nothing special. Here are a few ups &amp; downs:Good:- room was nice &amp; clean- hotel has a "happy hour" which includes two glasses of beer or wine. The wine was the cheapest boxed wine possible, but still a nice touch. - nice tv channel choices- WI-fi works Not so good:- the breakfast buffet was basically a crappy continental breakfast but since it's not a Holiday Inn Express it costs $10. Very basic choices, pre-made scrambled eggs, no yogurt &amp; unhealthy carbs. No menu available. You would be much better off going to the Denny's next door.More</t>
   </si>
   <si>
+    <t>CindeeBright</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r150392620-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1434,6 +1581,9 @@
     <t>When you arrived to the hotel, you will think you made a mistake by the location. Nothing fancy around, just a hotel in the outskirts of Fullerton. But, once you arrive to your room, you will find this BIG Jacuzzi tub with access to the flat screen TV. This tub can fit 5 people. It's quiet and the bed is so confortable. I stayed here during new years eve to beat some of the Fullerton traffic and ended staying in the room the whole time. It's definately worth it..More</t>
   </si>
   <si>
+    <t>neaOvy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r148965712-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1485,6 +1635,9 @@
     <t>Stayed here again....this time for rest and relaxation. The staff is always accomodating. They remember me as I check in each and every time....(usually there 5-7 times a year). Close to restaruants and site seeing if that is what you're there for.  The BEDS!!! the best...More</t>
   </si>
   <si>
+    <t>jdcstl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r144164745-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1509,6 +1662,9 @@
     <t>What you always want and rarely get is a nice, clean hotel with a friendly and helpful staff so you can just relax. Thankfully after a couple of rough weeks of travel this is just what I got at the HI Hotel &amp; Suites in Fullerton.As a Royal Ambassador member the staff was kind enough to upgrade me to a suite... which contained a heart shaped jacuzzi soaking tub in the bedroom. Not really my taste, but it did get a few laughs from the photos I sent back home.And to me a HUGE plus the hotel was in walking distance of El Pollo Loco and an In &amp; Out Burger. Nice.There is a lot of highway construction going on in the area which is causing problems with the Internet connection. Really bad, and when I called the service number for support no one answered. Honestly, the last hotel I stayed at with such bad reception was in the jungles of Burma. No joke. Not acceptable in today's world.With a better internet connection I would rate the HI 4 stars.More</t>
   </si>
   <si>
+    <t>provemewrong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r139953012-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1530,6 +1686,9 @@
     <t>Very relaxing after a long drive! Clean, stylish rooms, quiet, comfy comforter!  Plus Directv ...perfect!  If you're going to Disneyland, or in the Anaheim area you save on the "resort fee" and 10% taxes (vs 17%).More</t>
   </si>
   <si>
+    <t>amerikafan53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r135899624-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1557,6 +1716,9 @@
     <t>Liked this holliday inn.Looked well taken care off.Very friendly staff in the lobby.Nice outside pool.Clean and spacious rooms.Good location only short drive to Disney world.And Dennys and other restaurants very close to the hotel.The breakfast you can book with your stays are coupons so you can use breakfeast in the restaurant.Do leave your money etc in the save.Because this is the first hotel after traveling six times in America house keeping steal money from my wallet.I always leave mine in my suitcase in the bag dirty laundry.So in case my husband lose his wallet we still have money.This time 50 dollar was taken.My fault because I should have taken it to the safe in the lobby.Next year I will not be so sloppy with my belongings.But this hotel was beyond our expections.More</t>
   </si>
   <si>
+    <t>Crissy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r135789627-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1603,6 +1765,9 @@
   </si>
   <si>
     <t>This hotel is locally centralized for all the OC attractions and if you want to go toward the IE also. The staff and management run a "family" atmosphere. The beds are the best!!! The food in the restaurant is great too!More</t>
+  </si>
+  <si>
+    <t>Tim I</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r133203615-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
@@ -1634,6 +1799,9 @@
 While this not a 5 star top place I have to say it is THE PLACE for me to stay while I am working here. Convenience, Staff attitude, and location...I am working in CA during the week and then commuting home on weekends. So I need a comfortable place to stay and get some rest. Overall I am quite pleased. The staff is friendly and helpful. The room, well, The room wasn't as good as I have had in past business trips but it is still good. Weird sticky spots on the ceiling above the tub and a dampish rag left in my room one day. These were minor things that were addressed but maybe should never have come up. I think some other reviewers had commented on the noise of the AC units. They are loud. Very. Loud. But click them on low and all good travellers have a pair of soft ear plugs so sleeping is no problem. Water pressure good, hot water plentiful. Rooms had a recently redone look and the TV worked fine with lots of options. Wireless internet worked and was speedy. The breakfast buffet was about standard, nothing wow but a good starter. The lounge has food all week but the restaurant is not open all day for dinner. There are plenty of dining options within walking distance. Yes I said walking distance and this is a neighborhood I felt comfortable walking in.While this not a 5 star top place I have to say it is THE PLACE for me to stay while I am working here. Convenience, Staff attitude, and location are key pluses. That big old jacuzzi tub sure makes the stress disappear at the end of the day.The opportunities for improvement are the housekeeping staffs attention to details and a quieter AC.More</t>
   </si>
   <si>
+    <t>Amie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r131195536-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1658,6 +1826,9 @@
     <t>Gigantic jacuzzi tubs and huge quest room make this hotel my favorite in Fullerton area. I'm in town every few weeks for work and have stayed at pretty much all the area hotels. This is by far my favorite. It is clean and modern with great service and a cute bar. I had trouble connecting to the wifi when I was due in a video conference and they had someone up to my room in less than 5 minutes. The guy didn't even roll his eyes at me when it turned out I was just being a spaz and was missing a step. I highly reccomend this hotel. More</t>
   </si>
   <si>
+    <t>TravelTruth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r130756239-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1676,6 +1847,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>TexasCwboy5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r126711617-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1721,6 +1895,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>37Traveler37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r125939407-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1734,6 +1911,9 @@
   </si>
   <si>
     <t xml:space="preserve">This was a nice and quiet hotel but the location was about ten minutes away grom Disneyland. The one bedroom was nice. </t>
+  </si>
+  <si>
+    <t>Woodrow W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r121947152-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
@@ -1765,6 +1945,9 @@
 Anyway, the cost is comparable to Buena Park. The location of the hotel is farther from my business but hey, your in Southern California. Upon arrival, the staff recognized my platinum status although I was not offered an upgrade. The room was very nice. On this trip I took my spouse who agreed as she is very picky about hotel rooms. The room I requested had a jacuzzi tub in the room. You could actually watch TV ( flat screen with your own directv box ) from the jacuzzi. Kinda awesome. The room also had a couch with a fold out bed. the room was divided by a marble border between the bed and the couch. There was the standard desk and chair as well...I travel to Los Angeles for one week every month for business. I am a very loyal customer to almost any establishment once I notice good service. I used to stay at the Holiday Inn Buena Park but once I achieved platinum status, it was as if the service went to trash. So on my last trip  on December 16th, I decided to try another Holiday Inn. ( I like the perks you earn with them ) I chose this H.I. because of two things, I like Orange County and I like the fact that it was a newer hotel. A lot of hotels are old and to me, smell of water damage or mildew. Anyway, the cost is comparable to Buena Park. The location of the hotel is farther from my business but hey, your in Southern California. Upon arrival, the staff recognized my platinum status although I was not offered an upgrade. The room was very nice. On this trip I took my spouse who agreed as she is very picky about hotel rooms. The room I requested had a jacuzzi tub in the room. You could actually watch TV ( flat screen with your own directv box ) from the jacuzzi. Kinda awesome. The room also had a couch with a fold out bed. the room was divided by a marble border between the bed and the couch. There was the standard desk and chair as well as the dresser. There was a refrigerator into the dresser but no microwave. Bummer. One thing I noticed about this room was that the window was either malfunctioning or not installed properly. There was ample noise seeping through it. The hotel is a frisbee throw from the highway and you could easily hear traffic. As is the case for the Holiday Inn I frequent in Dallas, there are ice machines on alternating floors. I guess if I am on the "other" floor, I could use the exercise. Seeing that I am somewhat of a "gym junkie", I decided to check out the fitness center. It was decent but I was not thrilled about the fact that you have to go outside to get to it and the pool. Sunny California, right? All in all this may be my new Holiday Inn for my stays there. I plan to go back in January 2012. Let's see if they can win my loyalty.More</t>
   </si>
   <si>
+    <t>GetBackJoeJoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r121925928-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1783,6 +1966,9 @@
     <t>My FAVORITE Holiday Inn.  Always greeted with a warm smile by familiar faces! Everyone goes out of there way to make sure you are having a great stay. The rooms are beautiful, clean and quiet! I enjoy the Directv channels including HBO on the flat-screen TV. There is a nice bar and a great place to have breakfast in the morning in the lobby area. Aside from the above average staff of this hotel, is the location!  I can't think of a better location when doing business in Southern California.LA, Orange County and the Inland Empire.. It is close to everywhere I need to be!More</t>
   </si>
   <si>
+    <t>leahtots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r121742478-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1796,6 +1982,9 @@
   </si>
   <si>
     <t>We are here this week for 3 nights.  Got here and had no problems with check in. Lobby was very nice and staff was very friendly.  We are staying in a spa room,and it is very nice!! Not only a full bathroom, but the spa tub too.  The rooms also have a fridge, direct tv and free internet connections.  Great night sleep, and a very quiet room.would stay here again.  There is plenty of restaurants around too, so really don't have to drive far.</t>
+  </si>
+  <si>
+    <t>brian411</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r120203090-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
@@ -1829,6 +2018,9 @@
 We stayed in the King Jacuzzi suite- they have 100 of them.  But TRUST ME… the inside of this hotel is GREAT- and I was shocked at the attention to detail the craftsman gave.  Hardwood in the bathroom.  Granite on the shower walls and even the bathroom threshold!!!  They even painted and did the molding well.  The hotel is smoke and pet free, is super clean, and the Jacuzzi tub is IN the king suite, not in the bathroom, and IS FREAKING HUGE!  It also comes with a free standing shower with a shower head mounted high enough for a 6 foot man to stand under (crazy I know), a couch, a desk, TV, free internet, and free parking.  I swear, I could have...You'll pull up to this holiday Inn and suites and think, ut oh... I made a mistake.    It's right off the 57, 15 minutes from Disney, 5 minutes from Angels stadium, and surrounded by Denny's, and a grip of fast food restaurants, a gas station, and is like 1/2 mile from cal state fullerton.  All of which sound horrible if you're away for a romantic weekend with your wife like I was.  We were at Disney 3 days and opted to skip the local Disney strip to avoid the high cost of disney branded hotels, the crowds, and the overused spaces of the closest to Disney.  We read the reviews and decided to go for it. We stayed in the King Jacuzzi suite- they have 100 of them.  But TRUST ME… the inside of this hotel is GREAT- and I was shocked at the attention to detail the craftsman gave.  Hardwood in the bathroom.  Granite on the shower walls and even the bathroom threshold!!!  They even painted and did the molding well.  The hotel is smoke and pet free, is super clean, and the Jacuzzi tub is IN the king suite, not in the bathroom, and IS FREAKING HUGE!  It also comes with a free standing shower with a shower head mounted high enough for a 6 foot man to stand under (crazy I know), a couch, a desk, TV, free internet, and free parking.  I swear, I could have stayed in this hotel for a week.   Breakfast looks nice (its a buffet and is $8 per person- we never ate there because we were on a couple retreat and wanted a nicer meal).  They do have a bar we used to grab a few drinks after a long day in Disney before heading to our room. My AAA rate was $117 per night in early November.  I've paid twice that for a hotel with 1/2 the quality.  Don't let the curb appeal scare you away.  This hotel is amazing.More</t>
   </si>
   <si>
+    <t>Eileen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r115620622-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1856,6 +2048,9 @@
     <t>Very nice hotel with clean, comfortable rooms.  The beds were great and it was a good night's sleep each night.  The room was a good size with individual temperature control.  The a/c in the room was a little loud.  Internet was fast and reliable.There was no hot tub in the pool/fitness area.I was disappointed with the lack of items available in the hotel suite shop.  Even though the hotel had a restaurant you couldn't get room service or alcohol after about 9:00 pm.  They didn't even had basic cough/cold medication available.More</t>
   </si>
   <si>
+    <t>TatSeattle_WA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r107297635-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1895,6 +2090,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>8837Mom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r94086015-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1943,6 +2141,9 @@
     <t>It's not the first time that I stayed at this hotel with a group of my colleagues who were visiting California State University at Fullerton. The hotel has provided us with wonderful services - rooms were clean and cozy, a jacuzzi in almost every room added to the relaxation, the overall atmosphere was extremely pleasant. The manager himself gave us a ride in the hotel van whenever we needed it, and it was extremely convenient. He and the other staff  were very friendly and open to all of our needs. I should also add that hotel breakfasts and especially lunches were delicious and well prepared. My impression of this hotel continues to be exceptionally good, and I would strongly recommend this place for  business and family travelers. Thanks to everybody who works there, happy holidays to you.More</t>
   </si>
   <si>
+    <t>mom24hrs_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r88703695-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1970,6 +2171,9 @@
     <t>Ive been too Holiday Inns but never like this one,Me and my Partner have been visiting this place for about 3 months and we come here 2 times a month this is our little get away from home and the kids,Staff is Wonderful they always remember us, and the rooms that we get haS Jaquzzi and big king size beds and they are Great . My partner and I are Picky when it comes to bathrooms and with all honesty I can say that we dont worry here because you can tell how clean they are. We will continue to have our quality time here at Holiday Inn.More</t>
   </si>
   <si>
+    <t>EAN_Diver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r87827821-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -1988,6 +2192,9 @@
     <t>The rooms are very nice, the staff is on top of things at all times. The only thing would be that the bar closes early and the wireless internet is very slow. Other then that I would and will stay here again when I'm in the Anaheim area.More</t>
   </si>
   <si>
+    <t>teresaoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r87797222-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2007,6 +2214,9 @@
   </si>
   <si>
     <t>I was very pleased with the hotel facilities and the service I received from the hotel employees.  The room was nicely upgraded, the food in the restaurant and bar were very good and reasonable priced.  Mostly though, I thought the service was exceptional.  I tend to not sleep much, and they were kind enough to open the fitness center after hours so that I could work out.  As well, I dropped an earring down my bathroom sink drain and they retrieved it while I was at work.If I were to make one suggestion to the hotel it would be to extend your fitness center hours.  As a business person its pretty difficult to fit in a decent workout between 6am and 9pm when I am in town to work.More</t>
+  </si>
+  <si>
+    <t>Shawncmc</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r82891624-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
@@ -2049,6 +2259,9 @@
 Our meeting room was great, but the room downstairs with a...The hotel was much better than I expected, being right off the freeway. Rooms:Beautiful rooms, spacious, well appointed, clean, one of the most comfortable hotel beds I've ever slept in. Loved having the mini fridge (and microwave downstairs to use). No tub, just shower, but it was clean and again beautiful, I rarely use a bathtub in a hotel. Despite being directly next to the freeway, I didn't not hear any freeway noise. It was very quiet (5th floor room facing north).Staff: The staff that I encountered were all very nice and helpful. A real family feel.Restaurant: This was the only downside. We used the breakfast buffet, but both mornings (Sat and Sun), there wasn't enough staff to clean or wait the tables, the buffet was out of several things, we had to ask for things over and over before they were brought. We didn't dare to order off the menu, we heard it would take 90 mins. The food wasn't very good.Parking:We were lucky enough to find a great parking place on Friday, but when we returned from dinner on Saturday it was impossible to find a space. The "parking garage" was almost non-existent and completely full. There was an event on Saturday night that overflowed the parking lot. I was thankful that there wasn't a charge for parking! Thank you!Banquet room:Our meeting room was great, but the room downstairs with a live band was overpowering on Sat night and made it impossible to enjoy what we were doing with all the noise (said they couldn't close the doors due to the alcohol being served (?)I would come back to this hotel, I enjoyed my stay overall, and I would recommend it!More</t>
   </si>
   <si>
+    <t>bollbar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r82689036-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2062,6 +2275,9 @@
   </si>
   <si>
     <t>This Holiday Inn is the only one in Los Angeles that has suites with heart shaped jacuzzis.The customer service is unequaled at any hotel and puts the Marriott to shame.  I've beenstaying at the Holiday Inn Fullerton twice a week for almost a year and I wish I could livethere.</t>
+  </si>
+  <si>
+    <t>CaliforniaGirl93314</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r82226635-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
@@ -2097,6 +2313,9 @@
 Because there is an in house dining area, bar and snack bar, there is really no need to venture out.  The food is pretty good...My husband stays at this hotel almost weekly for business.  We have also stayed here for weddings in the area as well as for trips to Disneyland.  I make his reservations and on occassion even get to join him for a night or two.I can't say enough about how well the staff has treated us from day one.  Even when they didn't recognize his face when he walked in the door, they treated him warmly and made him feel as if they appreciated his business.  Reservations have always been a breeze.  Now, he walks in the door and it's as if an old friend is returning to see them.  I was amazed when we arrived together recently at the welcome he received.  Even while staying at other hotels for even longer periods of time has he been treated so well.I love the rooms.  They are decorated very nice with warm rich colors.  You do not have the feeling of being in a hotel room but rather a guest room.  There is an inroom hot tub perfect for two in nearly every room, along with flat screen televisions.  The beds are SO comfy and you have multiple pillows both soft and firm.  I have never tossed and turned here and neither has my husband.Because there is an in house dining area, bar and snack bar, there is really no need to venture out.  The food is pretty good here and very affordably priced.  My husband rarely gets to enjoy the breakfast buffet or made to order breakfast, but I have enjoyed it while staying there and it's pretty good.  Dinner has always been very good and the bar staff is knowledgeable and friendly.If you feel the need to venture out, there is a Denny's and a Subway right next door, as well as several great dining choices at the Brea Mall just a few minutes away.  This is also a great location if you want to visit Disneyland without all the headaches.  Just a few minutes on HWY 57 and you're there.  My daughter and I will visit the husband and drive to Disneyland, come back for dinner or have him join us at Downtown Disney, then do it again the next day.  There is much to praise the staff for at this Holiday Inn.  I can't say enough about how they will bend over backwards for each and every customer that walks in the door or calls for reservations.  I've been to many Holiday Inn's and none have compared to this property and the excellant staff working there.  I would recommend it to anybody traveling in the area and do on a regular basis.More</t>
   </si>
   <si>
+    <t>Welcome2HotelCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r80530349-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2118,6 +2337,9 @@
     <t>The rooms are clean and quiet.  The pool area and workout room are a nice amenity.  The staff is very friendly.  The food is high quality with several great selections.  Reasonably priced, I have been staying here on and off for business in the past four months and would recommend the accomodations for business and vacation.More</t>
   </si>
   <si>
+    <t>01RickD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r80023973-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2133,6 +2355,9 @@
     <t>Hotel was sparkling.  Front desk personnel were prompt and efficient.  Buffet for breakfast was a little lacking.  Mostly due to short staff.  Would I stay here again?  You bet. Great location,  exceptionally nice rooms, and close to lots of dining opportunities.</t>
   </si>
   <si>
+    <t>Rors21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r78555329-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2157,6 +2382,9 @@
     <t>My girlfriend and stayed at this hotel for a wedding and were altogether quite pleased. The bed was comfortable and the room was very spacious. Free coffee and access to the business center were nice touches too. The hotel is only a short ride from the Orange County airport and all the sights/attractions of Anaheim. All in all, not too bad.More</t>
   </si>
   <si>
+    <t>pea-whee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r65417649-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2184,6 +2412,9 @@
     <t>First, how awesome that the jacuzzi is in the room, yet accessible through the bathroom, as well!The bed: I rarely slept this well while on the road - the sheets were luxurious (but not over-starched as I've encountered in other Hotels) and I loved having both firm and soft pillows to choose from (depending on my needs: sleep? or watch tv?) - plus extras in the closet - yay!Staff: very courteous, friendly and always greeted me and mind you, I don't look like a business traveler, more like a punk (ah, the beauty of being a creative and being allowed to remain my individuality) ;)Nice touch, too to be able to walk downstairs and grab' a cup of joe w/real milk/cream/half &amp; half (vs. the in-room powdered creamer).More</t>
   </si>
   <si>
+    <t>Porterville</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r59964444-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2211,6 +2442,9 @@
     <t>The rooms were big and comfortable.  The beds were very comfortable, we had a restful stay.  Staff was friendly and helpful.More</t>
   </si>
   <si>
+    <t>lorileja</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r57548022-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2236,6 +2470,9 @@
   </si>
   <si>
     <t>I surprised my husband for Valentine's Day, I specifically wanted this hotel because of the Jacuzzi's in the rooms. I purchased the romantic package. When we arrived, the hotel staff were very nice and helpful. They delivered the package at the time I requested. The hotel was very clean and newly refurbished. The Rooms and Jaccuzis were very clean  and beautiful. The romantic package included breakfast for two by room service, the food was very good and we received our food in a short time too.More</t>
+  </si>
+  <si>
+    <t>1happydisneygirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r48878061-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
@@ -2273,6 +2510,9 @@
 The PROS:   The room was extremely large and tastefully decorated.   The carpeting, furniture and bedding was all new.  There was a large desk and comfortable swivel chair where we could use our laptop.  (Free and VERY fast WI-FI.)   There was another smaller desk and 2 chairs...I LOVE Holiday Inn Expresses, but avoid Holiday Inns like the plague after poor experiences many, many years ago.  After reading the fabulous tripadvisor reviews, we decided to give this hotel a try.  While this Holiday Inn is steps above others, there were some issues we had.  Some issues are out of the manager's hand (like poor acoustics) others can be corrected.  (cleanliness/unfriendly staff)RESERVATIONS:  Made a one night reservation through the on-line website.  Easy and received a low rate.ARRIVAL/CHECK-IN:  When we first walked in, my husband and I thought we had entered the wrong establishment.  The lobby didn't look like a hotel lobby and we thought we had stepped into a bar/restaurant.  The lobby was very clean, updated and decorated quite beautifully.  The restaurant "host" greeted us warmly.  However, when we got to the hotel front desk, the gentleman behind the desk was EXTREMELY unfriendly.  He acted as if we were bothering him by checking in.   My husband and I both tried to be friendly and even cracked a joke hoping to lighten his mood, but he continued to remain sullen and unhelpful.ROOMS:  We were given a top-floor, 2 queen bedroom. The PROS:   The room was extremely large and tastefully decorated.   The carpeting, furniture and bedding was all new.  There was a large desk and comfortable swivel chair where we could use our laptop.  (Free and VERY fast WI-FI.)   There was another smaller desk and 2 chairs next to the window.The beds were typical Holiday Inn Express...comfortable mattresses and sheets, along with several different types of pillows.  (Soft &amp; firm.)  We love how Holiday Inns don't use those outdated polyester comforters, but rather duvets covering down blankets.Plenty of lighting, a VERY large flat-screened t.v. with a wide variety of channels, pod coffee maker, large refrigerator, plenty of drawer and closet space,  iron and ironing board.  The bathroom had the "furniture" type of vanity with a granite counter top, lots of soft towels, upgraded shampoo and soap, eye make-up remover pads, blow dryer, great shower water pressure.The CONS:  OH THE NOISE!!!!!!  The walls were SO paper-thin that we heard every door open and shut, every hallway conversation, our neighbor's conversations and t.v.  We even heard the neighbor's room telephone ringing.   There was a convention going on and for some reason, people were coming and going out of their rooms until 2 a.m., so the conversations and noise were part of the reason we had a very bad night's sleep.The other noise contributor was the thermostat controlled air-conditioner.  It was SOOOOOO very loud and sounded like an old car motor starting up.  Because our room was warm, we had to run the air.  Every time it started up, the loud noise woke up those who had finally fallen asleep.  The bathroom had a shower only, no bathtub, which meant no shower curtain  The vanity, toilet and see-through shower were in the same area, which made it very difficult for 3 people to get ready in the morning.   We were in a hurry to make it to our next destination, so we had to maneuver around one another.  My daughter couldn't brush her teeth, do her hair or apply her make-up while my  hubby showered.    The bathroom was very small and my daughter and I couldn't get ready at the same time.There were some housekeeping issues.  Both the bathroom floor and the carpet had a lot of little pieces of paper and lint lying around.  We're fairly certain the room had not been vacuumed or swept. One of the lampshades looked as if someone had punched it and when we went to turn on the light, the lampshade fell off because it was missing the top screw.  We thought something like this should have been fixed.FACILITIES:  There was an outdoor pool that looked nice, but we didn't use it.  They had a small room with a computer and printer for use.   There was a very nice bar (didn't use) and a small restaurant (didn't use) inside the lobby area.  There's a restaurant next to the motel.  (I think it was a Denney's.)  CHECK-OUT:  The gals who checked us out were nice and efficient.  They weren't rude, but not over-friendly either.OVERALL:  I have such mixed feelings about this hotel.  It is beautiful and has so much potential.  We can live with the bathroom configuration and even the unfriendly front desk clerk., but the thin walls and noisy air-conditioner made it a VERY uncomfortable stay, which is why I can't recommend it.More</t>
   </si>
   <si>
+    <t>SpiritGirlSanDiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r47972407-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2291,6 +2531,9 @@
     <t>Loved this hotel.  Everything was updated, rooms decorated beautifully, jacuzzi in the room, nice linen, pillows, contemporary.  Can't say enough.More</t>
   </si>
   <si>
+    <t>Maxxdrake</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r44844337-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2312,6 +2555,9 @@
     <t>Great Hotel, Excellent Staff, Great Food.  You would never think you could get great Italian Food at a Hotel.  Thank you for the the Service.  Complimentary High Speed Internet was a plus.  It was extremely fast too.More</t>
   </si>
   <si>
+    <t>DallasSojouner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r33178071-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2333,6 +2579,9 @@
     <t>I just stayed at the Holiday Inn for a brief business trip and I was completely impressed.  Years ago I used to stay here when it was call the Chase Suites.  It has since been completely remodeled and looks fantastic, a very modern and clean look. The staff was very helpful.  In fact, I left my Blackberry charger in the room after my checkout.  The hotel called me right away to let me know I left it there and to make arrangements to ship it to me.  I have Directv at my house and I really loved having the Directv receiver right there in the room, which gives you a lot more TV channels.  The Internet connection worked fine.  The hotel is centrally located within Orange County.More</t>
   </si>
   <si>
+    <t>sassy00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r32475133-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2351,6 +2600,9 @@
     <t>If you choose to stay at this hotel, check the sheets and the whirlpool to make sure they are clean. I had to clean the whirlpool in the room before using it. It had soap scum build up everywhere. When I pulled back the sheets I noticed hair at the top of them. So pulled them further back and there was more hair (not the kind of hair you want to see right before you get ready to lay down). The carpet was dirty and had stains all over it. The bathroom mirror and sinks were dirty. I called the front desk and they gave us a new room. It's whirlpool had hair and soap scum in it and the room smelled like smoke. The 3rd rooms whirlpool was dirty also. If you want a clean room, don't stay here. I have contacted the hotel and am waiting on a reply.More</t>
   </si>
   <si>
+    <t>MiGHTy_STALiON</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r31790669-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2369,6 +2621,9 @@
     <t>April 2009</t>
   </si>
   <si>
+    <t>Pauuvale</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r28583132-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2384,6 +2639,9 @@
     <t>What a great hotel.  I cant believe this is a Holiday Inn.  Hotel is beautiful, rooms are very clean, the jacuzzi in our room was great and the service was outstanding.  I will be back!</t>
   </si>
   <si>
+    <t>Gary G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r27954355-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2399,6 +2657,9 @@
     <t>I recently stayed at the Holiday Inn and had a great experience.  I arrived late and they quickly got me to my room.  The bed was comfortable and I received a great night of sleep before my appointment the next morning. I'll definitely be staying here the next time I visit Fullerton.</t>
   </si>
   <si>
+    <t>happygolucky19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r27891706-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2417,6 +2678,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>ambrent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r8031521-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2438,6 +2702,9 @@
     <t>Moved to this hotel after experiencing problems at a dive near Disneyland. Even though this was at Christmas, they allowed me to use a work discount card that I should have had to make advance reservations to use. The room was very pleasant and clean. It was odd to be there with my son--it's more of a romantic atmosphere, but let me tell you, he loved bubble bath in the jacuzzi (me too:-)). Breakfast was very good with alot of variety. The staff was very professional and I felt safe staying there. It was handy to have Denny's in the parking lot too.  Even though it's a little way from the Magic Kingdom, I plan to stay there again next trip to see "The Mouse."More</t>
   </si>
   <si>
+    <t>Laura1957</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r7415623-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2459,6 +2726,9 @@
     <t>We stayed in Woodfin's Premium Studio Suite in Feb. 2005. I had submitted these pics then, but they didn't transfer over when Trip Advisor upgraded. We stayed in their Presidential Suite for our anniversary.  We liked it so much we've returned several times since then but opted for their smaller standard jacuzzi suites.If you are looking for that very SPECIAL room for a very special romantic night, I recommend Woodfin's Fullerton Premium Presidential Suite with their Romance package. It comes with a rose petal trail from the entrance to the bed, Chocklates, Champaigne,  Candles and Bubble bath for the heart shaped jacuzzi. I had to call the hotel directly to get this room.It is a very large room with a heart shape jacuzzi, a living area and King bed. It comes with micro, mini fridge and mini wet bar.More</t>
   </si>
   <si>
+    <t>Bev_in_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r5332944-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
   </si>
   <si>
@@ -2475,6 +2745,9 @@
   </si>
   <si>
     <t>We were here for a weekend trip in late May.  It's fair to say that this hotel is a bit old and tired, but the friendly and helpful staff made up for it.  For example, the first room we were given had a faulty air conditioning unit, but the front desk staff was apologetic and immediately gave us a different room. Our toilet made a whistling noise after flushing, but it wasn't bothersome enough to report at the time.  I let them know at checkout - they were truly appreciative for the information, and recorded it...so I had the sense that they make the effort to address problems.  Our bed was comfortable, and our room was quiet. Lots of convenient amenities (microwave, fridge, ironing board, hair dryer), very clean bathroom.  And an exceptional breakfast buffet.  I would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d1139042-r2295493-Holiday_Inn_Hotel_Suites_Anaheim_Fullerton-Fullerton_California.html</t>
@@ -2994,43 +3267,47 @@
       <c r="A2" t="n">
         <v>27017</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>15630</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3046,56 +3323,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27017</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>191489</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3107,56 +3388,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27017</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>191490</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3172,56 +3457,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27017</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>191491</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3235,56 +3524,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27017</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>191492</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3296,56 +3589,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27017</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>191493</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3363,56 +3660,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27017</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>191494</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3430,56 +3731,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27017</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>191495</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>115</v>
       </c>
-      <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3491,56 +3796,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27017</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>191496</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3556,56 +3865,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="X10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27017</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>191497</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3621,56 +3934,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27017</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>191498</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3686,56 +4003,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27017</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>191499</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="K13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3753,56 +4074,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="X13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Y13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27017</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>115374</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3820,56 +4145,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="X14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27017</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>117603</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3883,50 +4212,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27017</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>191500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3944,56 +4277,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27017</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>191501</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -4011,56 +4348,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27017</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>3978</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4074,50 +4415,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27017</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>191502</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4135,56 +4480,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27017</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>37189</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4200,56 +4549,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27017</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>191503</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4265,47 +4618,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27017</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>191504</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -4322,56 +4679,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="X22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27017</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>191505</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O23" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4389,56 +4750,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27017</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>191506</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4454,56 +4819,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27017</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>191507</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4523,50 +4892,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27017</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>109748</v>
+      </c>
+      <c r="C26" t="s">
+        <v>274</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="K26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4578,56 +4951,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="X26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="Y26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27017</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>191508</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4645,56 +5022,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="X27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Y27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27017</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>191509</v>
+      </c>
+      <c r="C28" t="s">
+        <v>293</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="K28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="O28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4706,56 +5087,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="X28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="Y28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27017</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>191510</v>
+      </c>
+      <c r="C29" t="s">
+        <v>303</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="J29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="K29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4767,56 +5152,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="X29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="Y29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27017</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>191511</v>
+      </c>
+      <c r="C30" t="s">
+        <v>313</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="J30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="K30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="L30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4832,56 +5221,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="X30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="Y30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27017</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C31" t="s">
+        <v>323</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="J31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="K31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="L31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4895,56 +5288,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="X31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Y31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27017</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>289</v>
+      </c>
+      <c r="C32" t="s">
+        <v>332</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="J32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="K32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="L32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="O32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4962,47 +5359,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="X32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="Y32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27017</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>31455</v>
+      </c>
+      <c r="C33" t="s">
+        <v>341</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -5029,56 +5430,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="X33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="Y33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27017</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>191512</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="J34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="K34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="L34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5090,47 +5495,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="X34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="Y34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27017</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>360</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="J35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="L35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -5157,56 +5566,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="X35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="Y35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27017</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>50292</v>
+      </c>
+      <c r="C36" t="s">
+        <v>369</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="K36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="O36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5222,56 +5635,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="X36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="Y36" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27017</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>191513</v>
+      </c>
+      <c r="C37" t="s">
+        <v>379</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="J37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="K37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="L37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="O37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5287,56 +5704,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="X37" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="Y37" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>27017</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>191514</v>
+      </c>
+      <c r="C38" t="s">
+        <v>390</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="J38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="K38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="L38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="O38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5358,56 +5779,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="X38" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="Y38" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27017</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>9377</v>
+      </c>
+      <c r="C39" t="s">
+        <v>400</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="J39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="K39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="L39" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5429,56 +5854,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="X39" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="Y39" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27017</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>191515</v>
+      </c>
+      <c r="C40" t="s">
+        <v>409</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="J40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="K40" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="L40" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="O40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5500,56 +5929,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="X40" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="Y40" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>27017</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>9365</v>
+      </c>
+      <c r="C41" t="s">
+        <v>417</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="J41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="K41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="L41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5571,56 +6004,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="X41" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="Y41" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27017</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>191516</v>
+      </c>
+      <c r="C42" t="s">
+        <v>427</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="J42" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="K42" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="L42" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5632,56 +6069,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="X42" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="Y42" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27017</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>191517</v>
+      </c>
+      <c r="C43" t="s">
+        <v>437</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="J43" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="K43" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="L43" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5703,56 +6144,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="X43" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Y43" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27017</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>191518</v>
+      </c>
+      <c r="C44" t="s">
+        <v>447</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="J44" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="K44" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="L44" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5774,47 +6219,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="X44" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="Y44" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27017</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>191519</v>
+      </c>
+      <c r="C45" t="s">
+        <v>457</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="J45" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="K45" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="L45" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
@@ -5841,56 +6290,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="X45" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="Y45" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27017</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>191520</v>
+      </c>
+      <c r="C46" t="s">
+        <v>466</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="J46" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="K46" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="L46" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5912,56 +6365,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="X46" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="Y46" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27017</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C47" t="s">
+        <v>323</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="J47" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="K47" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="L47" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="O47" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5983,56 +6440,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="X47" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="Y47" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27017</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>8833</v>
+      </c>
+      <c r="C48" t="s">
+        <v>485</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="J48" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="K48" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="L48" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="O48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6054,56 +6515,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="X48" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="Y48" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27017</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>191521</v>
+      </c>
+      <c r="C49" t="s">
+        <v>492</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="J49" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="K49" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="L49" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="O49" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -6125,56 +6590,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="X49" t="s">
-        <v>452</v>
+        <v>499</v>
       </c>
       <c r="Y49" t="s">
-        <v>453</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27017</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>191522</v>
+      </c>
+      <c r="C50" t="s">
+        <v>501</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="J50" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="K50" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="L50" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>459</v>
+        <v>507</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6186,56 +6655,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>460</v>
+        <v>508</v>
       </c>
       <c r="X50" t="s">
-        <v>461</v>
+        <v>509</v>
       </c>
       <c r="Y50" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27017</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>191523</v>
+      </c>
+      <c r="C51" t="s">
+        <v>511</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="J51" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="K51" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="L51" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="O51" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -6257,56 +6730,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="X51" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="Y51" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27017</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>191524</v>
+      </c>
+      <c r="C52" t="s">
+        <v>521</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="J52" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="K52" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="L52" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="O52" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6328,56 +6805,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="X52" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="Y52" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27017</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>191512</v>
+      </c>
+      <c r="C53" t="s">
+        <v>379</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>481</v>
+        <v>531</v>
       </c>
       <c r="J53" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="K53" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="L53" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="O53" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6399,56 +6880,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>486</v>
+        <v>536</v>
       </c>
       <c r="X53" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="Y53" t="s">
-        <v>488</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27017</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>191525</v>
+      </c>
+      <c r="C54" t="s">
+        <v>539</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="J54" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="K54" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="L54" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6470,56 +6955,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="X54" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="Y54" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27017</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>191526</v>
+      </c>
+      <c r="C55" t="s">
+        <v>548</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="J55" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="K55" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="L55" t="s">
-        <v>501</v>
+        <v>553</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="O55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6541,56 +7030,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="X55" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="Y55" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27017</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>191527</v>
+      </c>
+      <c r="C56" t="s">
+        <v>556</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="J56" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="K56" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
       <c r="L56" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="O56" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6612,56 +7105,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>510</v>
+        <v>563</v>
       </c>
       <c r="X56" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="Y56" t="s">
-        <v>512</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27017</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>191528</v>
+      </c>
+      <c r="C57" t="s">
+        <v>566</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>513</v>
+        <v>567</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>514</v>
+        <v>568</v>
       </c>
       <c r="J57" t="s">
-        <v>515</v>
+        <v>569</v>
       </c>
       <c r="K57" t="s">
-        <v>516</v>
+        <v>570</v>
       </c>
       <c r="L57" t="s">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="O57" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6683,56 +7180,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>518</v>
+        <v>572</v>
       </c>
       <c r="X57" t="s">
-        <v>519</v>
+        <v>573</v>
       </c>
       <c r="Y57" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>27017</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>191512</v>
+      </c>
+      <c r="C58" t="s">
+        <v>379</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>521</v>
+        <v>575</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
       <c r="J58" t="s">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="K58" t="s">
-        <v>524</v>
+        <v>578</v>
       </c>
       <c r="L58" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="O58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6754,56 +7255,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>526</v>
+        <v>580</v>
       </c>
       <c r="X58" t="s">
-        <v>527</v>
+        <v>581</v>
       </c>
       <c r="Y58" t="s">
-        <v>528</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27017</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>77812</v>
+      </c>
+      <c r="C59" t="s">
+        <v>583</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="J59" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="K59" t="s">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="L59" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>534</v>
+        <v>589</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6825,47 +7330,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="X59" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="Y59" t="s">
-        <v>537</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27017</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>58044</v>
+      </c>
+      <c r="C60" t="s">
+        <v>593</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>538</v>
+        <v>594</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>539</v>
+        <v>595</v>
       </c>
       <c r="J60" t="s">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="K60" t="s">
-        <v>541</v>
+        <v>597</v>
       </c>
       <c r="L60" t="s">
-        <v>542</v>
+        <v>598</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -6892,56 +7401,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="X60" t="s">
-        <v>544</v>
+        <v>600</v>
       </c>
       <c r="Y60" t="s">
-        <v>545</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27017</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>81204</v>
+      </c>
+      <c r="C61" t="s">
+        <v>602</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="J61" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="K61" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="L61" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6965,50 +7478,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27017</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>191529</v>
+      </c>
+      <c r="C62" t="s">
+        <v>609</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="J62" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="K62" t="s">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="L62" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="O62" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7030,56 +7547,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="X62" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="Y62" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27017</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>191512</v>
+      </c>
+      <c r="C63" t="s">
+        <v>379</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="J63" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="K63" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="L63" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7103,41 +7624,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27017</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>143739</v>
+      </c>
+      <c r="C64" t="s">
+        <v>625</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
       <c r="J64" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
       <c r="K64" t="s">
-        <v>570</v>
+        <v>629</v>
       </c>
       <c r="L64" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -7166,50 +7691,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27017</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>191530</v>
+      </c>
+      <c r="C65" t="s">
+        <v>631</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>572</v>
+        <v>632</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>573</v>
+        <v>633</v>
       </c>
       <c r="J65" t="s">
-        <v>574</v>
+        <v>634</v>
       </c>
       <c r="K65" t="s">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="L65" t="s">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7231,56 +7760,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="X65" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="Y65" t="s">
-        <v>580</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27017</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>191531</v>
+      </c>
+      <c r="C66" t="s">
+        <v>641</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>581</v>
+        <v>642</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>582</v>
+        <v>643</v>
       </c>
       <c r="J66" t="s">
-        <v>583</v>
+        <v>644</v>
       </c>
       <c r="K66" t="s">
-        <v>584</v>
+        <v>645</v>
       </c>
       <c r="L66" t="s">
-        <v>585</v>
+        <v>646</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7302,56 +7835,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="X66" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="Y66" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27017</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>48607</v>
+      </c>
+      <c r="C67" t="s">
+        <v>648</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>587</v>
+        <v>649</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="J67" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="K67" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="L67" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7375,50 +7912,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27017</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>191532</v>
+      </c>
+      <c r="C68" t="s">
+        <v>654</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>592</v>
+        <v>655</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="J68" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="K68" t="s">
-        <v>595</v>
+        <v>658</v>
       </c>
       <c r="L68" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="O68" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7440,56 +7981,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>598</v>
+        <v>661</v>
       </c>
       <c r="X68" t="s">
-        <v>599</v>
+        <v>662</v>
       </c>
       <c r="Y68" t="s">
-        <v>600</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>27017</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>29265</v>
+      </c>
+      <c r="C69" t="s">
+        <v>664</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>601</v>
+        <v>665</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>602</v>
+        <v>666</v>
       </c>
       <c r="J69" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="K69" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
       <c r="L69" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="O69" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7507,56 +8052,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="X69" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="Y69" t="s">
-        <v>609</v>
+        <v>673</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>27017</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>191533</v>
+      </c>
+      <c r="C70" t="s">
+        <v>674</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>610</v>
+        <v>675</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>611</v>
+        <v>676</v>
       </c>
       <c r="J70" t="s">
-        <v>612</v>
+        <v>677</v>
       </c>
       <c r="K70" t="s">
-        <v>613</v>
+        <v>678</v>
       </c>
       <c r="L70" t="s">
-        <v>614</v>
+        <v>679</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>615</v>
+        <v>680</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7578,56 +8127,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="X70" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="Y70" t="s">
-        <v>616</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>27017</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>191512</v>
+      </c>
+      <c r="C71" t="s">
+        <v>379</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>617</v>
+        <v>682</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>618</v>
+        <v>683</v>
       </c>
       <c r="J71" t="s">
-        <v>619</v>
+        <v>684</v>
       </c>
       <c r="K71" t="s">
-        <v>620</v>
+        <v>685</v>
       </c>
       <c r="L71" t="s">
-        <v>621</v>
+        <v>686</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>622</v>
+        <v>687</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7651,50 +8204,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>621</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>27017</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>191534</v>
+      </c>
+      <c r="C72" t="s">
+        <v>688</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>623</v>
+        <v>689</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>624</v>
+        <v>690</v>
       </c>
       <c r="J72" t="s">
-        <v>625</v>
+        <v>691</v>
       </c>
       <c r="K72" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="L72" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>628</v>
+        <v>694</v>
       </c>
       <c r="O72" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7716,56 +8273,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="X72" t="s">
-        <v>630</v>
+        <v>696</v>
       </c>
       <c r="Y72" t="s">
-        <v>631</v>
+        <v>697</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>27017</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>191532</v>
+      </c>
+      <c r="C73" t="s">
+        <v>674</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>632</v>
+        <v>698</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>633</v>
+        <v>699</v>
       </c>
       <c r="J73" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="K73" t="s">
-        <v>635</v>
+        <v>701</v>
       </c>
       <c r="L73" t="s">
-        <v>636</v>
+        <v>702</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7787,56 +8348,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="X73" t="s">
-        <v>630</v>
+        <v>696</v>
       </c>
       <c r="Y73" t="s">
-        <v>638</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>27017</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>191535</v>
+      </c>
+      <c r="C74" t="s">
+        <v>705</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>639</v>
+        <v>706</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>640</v>
+        <v>707</v>
       </c>
       <c r="J74" t="s">
-        <v>641</v>
+        <v>708</v>
       </c>
       <c r="K74" t="s">
-        <v>642</v>
+        <v>709</v>
       </c>
       <c r="L74" t="s">
-        <v>643</v>
+        <v>710</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7858,56 +8423,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>645</v>
+        <v>712</v>
       </c>
       <c r="X74" t="s">
-        <v>646</v>
+        <v>713</v>
       </c>
       <c r="Y74" t="s">
-        <v>647</v>
+        <v>714</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>27017</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>19955</v>
+      </c>
+      <c r="C75" t="s">
+        <v>715</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>648</v>
+        <v>716</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>649</v>
+        <v>717</v>
       </c>
       <c r="J75" t="s">
-        <v>650</v>
+        <v>718</v>
       </c>
       <c r="K75" t="s">
-        <v>651</v>
+        <v>719</v>
       </c>
       <c r="L75" t="s">
-        <v>652</v>
+        <v>720</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7929,56 +8498,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>645</v>
+        <v>712</v>
       </c>
       <c r="X75" t="s">
-        <v>646</v>
+        <v>713</v>
       </c>
       <c r="Y75" t="s">
-        <v>653</v>
+        <v>721</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>27017</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>191536</v>
+      </c>
+      <c r="C76" t="s">
+        <v>722</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>654</v>
+        <v>723</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>655</v>
+        <v>724</v>
       </c>
       <c r="J76" t="s">
-        <v>650</v>
+        <v>718</v>
       </c>
       <c r="K76" t="s">
-        <v>656</v>
+        <v>725</v>
       </c>
       <c r="L76" t="s">
-        <v>657</v>
+        <v>726</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -8000,56 +8573,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>658</v>
+        <v>727</v>
       </c>
       <c r="X76" t="s">
-        <v>659</v>
+        <v>728</v>
       </c>
       <c r="Y76" t="s">
-        <v>660</v>
+        <v>729</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>27017</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>191537</v>
+      </c>
+      <c r="C77" t="s">
+        <v>730</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="J77" t="s">
-        <v>663</v>
+        <v>733</v>
       </c>
       <c r="K77" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="L77" t="s">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -8071,56 +8648,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>666</v>
+        <v>736</v>
       </c>
       <c r="X77" t="s">
-        <v>667</v>
+        <v>737</v>
       </c>
       <c r="Y77" t="s">
-        <v>668</v>
+        <v>738</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>27017</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>191538</v>
+      </c>
+      <c r="C78" t="s">
+        <v>739</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>669</v>
+        <v>740</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>670</v>
+        <v>741</v>
       </c>
       <c r="J78" t="s">
-        <v>671</v>
+        <v>742</v>
       </c>
       <c r="K78" t="s">
-        <v>672</v>
+        <v>743</v>
       </c>
       <c r="L78" t="s">
-        <v>673</v>
+        <v>744</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>637</v>
+        <v>703</v>
       </c>
       <c r="O78" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8144,50 +8725,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>673</v>
+        <v>744</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>27017</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>191539</v>
+      </c>
+      <c r="C79" t="s">
+        <v>745</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>674</v>
+        <v>746</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>675</v>
+        <v>747</v>
       </c>
       <c r="J79" t="s">
-        <v>676</v>
+        <v>748</v>
       </c>
       <c r="K79" t="s">
-        <v>677</v>
+        <v>749</v>
       </c>
       <c r="L79" t="s">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>679</v>
+        <v>751</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8209,56 +8794,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>680</v>
+        <v>752</v>
       </c>
       <c r="X79" t="s">
-        <v>681</v>
+        <v>753</v>
       </c>
       <c r="Y79" t="s">
-        <v>682</v>
+        <v>754</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>27017</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>191540</v>
+      </c>
+      <c r="C80" t="s">
+        <v>755</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>683</v>
+        <v>756</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>684</v>
+        <v>757</v>
       </c>
       <c r="J80" t="s">
-        <v>685</v>
+        <v>758</v>
       </c>
       <c r="K80" t="s">
-        <v>686</v>
+        <v>759</v>
       </c>
       <c r="L80" t="s">
-        <v>687</v>
+        <v>760</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>688</v>
+        <v>761</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8280,56 +8869,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>680</v>
+        <v>752</v>
       </c>
       <c r="X80" t="s">
-        <v>681</v>
+        <v>753</v>
       </c>
       <c r="Y80" t="s">
-        <v>689</v>
+        <v>762</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>27017</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>191541</v>
+      </c>
+      <c r="C81" t="s">
+        <v>763</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>690</v>
+        <v>764</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>691</v>
+        <v>765</v>
       </c>
       <c r="J81" t="s">
-        <v>692</v>
+        <v>766</v>
       </c>
       <c r="K81" t="s">
-        <v>693</v>
+        <v>767</v>
       </c>
       <c r="L81" t="s">
-        <v>694</v>
+        <v>768</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>679</v>
+        <v>751</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8353,50 +8946,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>694</v>
+        <v>768</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>27017</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>191542</v>
+      </c>
+      <c r="C82" t="s">
+        <v>769</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>695</v>
+        <v>770</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>696</v>
+        <v>771</v>
       </c>
       <c r="J82" t="s">
-        <v>697</v>
+        <v>772</v>
       </c>
       <c r="K82" t="s">
-        <v>698</v>
+        <v>773</v>
       </c>
       <c r="L82" t="s">
-        <v>699</v>
+        <v>774</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>679</v>
+        <v>751</v>
       </c>
       <c r="O82" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8418,56 +9015,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>700</v>
+        <v>775</v>
       </c>
       <c r="X82" t="s">
-        <v>701</v>
+        <v>776</v>
       </c>
       <c r="Y82" t="s">
-        <v>702</v>
+        <v>777</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>27017</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>191543</v>
+      </c>
+      <c r="C83" t="s">
+        <v>778</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>704</v>
+        <v>780</v>
       </c>
       <c r="J83" t="s">
-        <v>705</v>
+        <v>781</v>
       </c>
       <c r="K83" t="s">
-        <v>706</v>
+        <v>782</v>
       </c>
       <c r="L83" t="s">
-        <v>707</v>
+        <v>783</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>708</v>
+        <v>784</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8489,56 +9090,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>709</v>
+        <v>785</v>
       </c>
       <c r="X83" t="s">
-        <v>710</v>
+        <v>786</v>
       </c>
       <c r="Y83" t="s">
-        <v>711</v>
+        <v>787</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>27017</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>191544</v>
+      </c>
+      <c r="C84" t="s">
+        <v>788</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>712</v>
+        <v>789</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>713</v>
+        <v>790</v>
       </c>
       <c r="J84" t="s">
-        <v>714</v>
+        <v>791</v>
       </c>
       <c r="K84" t="s">
-        <v>715</v>
+        <v>792</v>
       </c>
       <c r="L84" t="s">
-        <v>716</v>
+        <v>793</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>717</v>
+        <v>794</v>
       </c>
       <c r="O84" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8560,56 +9165,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>718</v>
+        <v>795</v>
       </c>
       <c r="X84" t="s">
-        <v>719</v>
+        <v>796</v>
       </c>
       <c r="Y84" t="s">
-        <v>720</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>27017</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>191545</v>
+      </c>
+      <c r="C85" t="s">
+        <v>798</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>721</v>
+        <v>799</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>722</v>
+        <v>800</v>
       </c>
       <c r="J85" t="s">
-        <v>723</v>
+        <v>801</v>
       </c>
       <c r="K85" t="s">
-        <v>724</v>
+        <v>802</v>
       </c>
       <c r="L85" t="s">
-        <v>725</v>
+        <v>803</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>726</v>
+        <v>804</v>
       </c>
       <c r="O85" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8631,56 +9240,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>727</v>
+        <v>805</v>
       </c>
       <c r="X85" t="s">
-        <v>728</v>
+        <v>806</v>
       </c>
       <c r="Y85" t="s">
-        <v>729</v>
+        <v>807</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>27017</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>30733</v>
+      </c>
+      <c r="C86" t="s">
+        <v>808</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>730</v>
+        <v>809</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>731</v>
+        <v>810</v>
       </c>
       <c r="J86" t="s">
-        <v>732</v>
+        <v>811</v>
       </c>
       <c r="K86" t="s">
-        <v>733</v>
+        <v>812</v>
       </c>
       <c r="L86" t="s">
-        <v>734</v>
+        <v>813</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>735</v>
+        <v>814</v>
       </c>
       <c r="O86" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8702,56 +9315,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>736</v>
+        <v>815</v>
       </c>
       <c r="X86" t="s">
-        <v>737</v>
+        <v>816</v>
       </c>
       <c r="Y86" t="s">
-        <v>738</v>
+        <v>817</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>27017</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>191546</v>
+      </c>
+      <c r="C87" t="s">
+        <v>818</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>739</v>
+        <v>819</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>740</v>
+        <v>820</v>
       </c>
       <c r="J87" t="s">
-        <v>741</v>
+        <v>821</v>
       </c>
       <c r="K87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L87" t="s">
-        <v>742</v>
+        <v>822</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>743</v>
+        <v>823</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8773,56 +9390,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>736</v>
+        <v>815</v>
       </c>
       <c r="X87" t="s">
-        <v>737</v>
+        <v>816</v>
       </c>
       <c r="Y87" t="s">
-        <v>744</v>
+        <v>824</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>27017</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>191547</v>
+      </c>
+      <c r="C88" t="s">
+        <v>825</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>745</v>
+        <v>826</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>746</v>
+        <v>827</v>
       </c>
       <c r="J88" t="s">
-        <v>747</v>
+        <v>828</v>
       </c>
       <c r="K88" t="s">
-        <v>748</v>
+        <v>829</v>
       </c>
       <c r="L88" t="s">
-        <v>749</v>
+        <v>830</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>750</v>
+        <v>831</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8844,56 +9465,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>736</v>
+        <v>815</v>
       </c>
       <c r="X88" t="s">
-        <v>737</v>
+        <v>816</v>
       </c>
       <c r="Y88" t="s">
-        <v>751</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>27017</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>191548</v>
+      </c>
+      <c r="C89" t="s">
+        <v>833</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>752</v>
+        <v>834</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>753</v>
+        <v>835</v>
       </c>
       <c r="J89" t="s">
-        <v>754</v>
+        <v>836</v>
       </c>
       <c r="K89" t="s">
-        <v>755</v>
+        <v>837</v>
       </c>
       <c r="L89" t="s">
-        <v>756</v>
+        <v>838</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>757</v>
+        <v>839</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8917,50 +9542,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>758</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>27017</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>191549</v>
+      </c>
+      <c r="C90" t="s">
+        <v>841</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>759</v>
+        <v>842</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>760</v>
+        <v>843</v>
       </c>
       <c r="J90" t="s">
-        <v>761</v>
+        <v>844</v>
       </c>
       <c r="K90" t="s">
-        <v>762</v>
+        <v>845</v>
       </c>
       <c r="L90" t="s">
-        <v>763</v>
+        <v>846</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>757</v>
+        <v>839</v>
       </c>
       <c r="O90" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -8984,50 +9613,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>764</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>27017</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>191550</v>
+      </c>
+      <c r="C91" t="s">
+        <v>848</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>765</v>
+        <v>849</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>766</v>
+        <v>850</v>
       </c>
       <c r="J91" t="s">
-        <v>767</v>
+        <v>851</v>
       </c>
       <c r="K91" t="s">
-        <v>768</v>
+        <v>852</v>
       </c>
       <c r="L91" t="s">
-        <v>769</v>
+        <v>853</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>770</v>
+        <v>854</v>
       </c>
       <c r="O91" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -9051,50 +9684,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>769</v>
+        <v>853</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>27017</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>191551</v>
+      </c>
+      <c r="C92" t="s">
+        <v>855</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>771</v>
+        <v>856</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>772</v>
+        <v>857</v>
       </c>
       <c r="J92" t="s">
-        <v>773</v>
+        <v>858</v>
       </c>
       <c r="K92" t="s">
-        <v>774</v>
+        <v>859</v>
       </c>
       <c r="L92" t="s">
-        <v>775</v>
+        <v>860</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>770</v>
+        <v>854</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9118,50 +9755,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>775</v>
+        <v>860</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>27017</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>12525</v>
+      </c>
+      <c r="C93" t="s">
+        <v>861</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>776</v>
+        <v>862</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>777</v>
+        <v>863</v>
       </c>
       <c r="J93" t="s">
-        <v>778</v>
+        <v>864</v>
       </c>
       <c r="K93" t="s">
-        <v>779</v>
+        <v>865</v>
       </c>
       <c r="L93" t="s">
-        <v>780</v>
+        <v>866</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>770</v>
+        <v>854</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9185,50 +9826,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>780</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>27017</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>191552</v>
+      </c>
+      <c r="C94" t="s">
+        <v>867</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>781</v>
+        <v>868</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>782</v>
+        <v>869</v>
       </c>
       <c r="J94" t="s">
-        <v>783</v>
+        <v>870</v>
       </c>
       <c r="K94" t="s">
-        <v>784</v>
+        <v>871</v>
       </c>
       <c r="L94" t="s">
-        <v>785</v>
+        <v>872</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>786</v>
+        <v>873</v>
       </c>
       <c r="O94" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9252,50 +9897,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>785</v>
+        <v>872</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>27017</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>191553</v>
+      </c>
+      <c r="C95" t="s">
+        <v>874</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>787</v>
+        <v>875</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>788</v>
+        <v>876</v>
       </c>
       <c r="J95" t="s">
-        <v>789</v>
+        <v>877</v>
       </c>
       <c r="K95" t="s">
-        <v>790</v>
+        <v>878</v>
       </c>
       <c r="L95" t="s">
-        <v>791</v>
+        <v>879</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>792</v>
+        <v>880</v>
       </c>
       <c r="O95" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9319,50 +9968,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>793</v>
+        <v>881</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>27017</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>191554</v>
+      </c>
+      <c r="C96" t="s">
+        <v>882</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>794</v>
+        <v>883</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>795</v>
+        <v>884</v>
       </c>
       <c r="J96" t="s">
-        <v>796</v>
+        <v>885</v>
       </c>
       <c r="K96" t="s">
-        <v>797</v>
+        <v>886</v>
       </c>
       <c r="L96" t="s">
-        <v>798</v>
+        <v>887</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>799</v>
+        <v>888</v>
       </c>
       <c r="O96" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9386,41 +10039,45 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>800</v>
+        <v>889</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>27017</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>191555</v>
+      </c>
+      <c r="C97" t="s">
+        <v>890</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>801</v>
+        <v>891</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>802</v>
+        <v>892</v>
       </c>
       <c r="J97" t="s">
-        <v>803</v>
+        <v>893</v>
       </c>
       <c r="K97" t="s">
-        <v>804</v>
+        <v>894</v>
       </c>
       <c r="L97" t="s">
-        <v>805</v>
+        <v>895</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
@@ -9439,41 +10096,45 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>806</v>
+        <v>896</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>27017</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>897</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>807</v>
+        <v>898</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>808</v>
+        <v>899</v>
       </c>
       <c r="J98" t="s">
-        <v>809</v>
+        <v>900</v>
       </c>
       <c r="K98" t="s">
-        <v>810</v>
+        <v>901</v>
       </c>
       <c r="L98" t="s">
-        <v>811</v>
+        <v>902</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
@@ -9492,7 +10153,7 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>811</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
